--- a/src/test/resources/outPutData.xlsx
+++ b/src/test/resources/outPutData.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayesh\IdeaProjects\Data_Scraping_Framework_Demo1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99CB4DAF-1142-4DA1-A5C3-8BFDBDF49302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D30959-7816-4211-8786-2E37860A71D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="PCOS" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,35 +25,37 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>A Checkerboard Of Roses ( Flower Arrangements)</t>
-  </si>
-  <si>
-    <t>A Truly Delectable Bunch ( Flower Arrangements)</t>
-  </si>
-  <si>
-    <t>A-bun-dantly Creative ( Flower Arrangements)</t>
-  </si>
-  <si>
-    <t>aam chana achar recipe | Rajasthani aam chana ka achar | Indian mango pickle with chana | kabuli chana achar |</t>
-  </si>
-  <si>
-    <t>aam ka achar recipe | Punjabi aam ka achar | mango pickle |</t>
-  </si>
-  <si>
-    <t>Aam Ke Pakode, Mango Bhajiya</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Aam ki Katki ka Muraba</t>
+  </si>
+  <si>
+    <t>Recipe Name</t>
+  </si>
+  <si>
+    <t>Recipe Category(Breakfast/lunch/snack/dinner)</t>
+  </si>
+  <si>
+    <t>Food Category(Veg/non-veg/vegan/Jain)</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Preparation Time</t>
+  </si>
+  <si>
+    <t>Cooking Time</t>
+  </si>
+  <si>
+    <t>Preparation method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,16 +63,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Helvetica Neue"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -78,15 +97,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFA5A5A5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFA5A5A5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFA5A5A5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{72C4CCDD-48E5-4AE9-931F-412CBC6391DF}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -364,17 +403,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="2">
+    <row r="1" spans="1:10" ht="75">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/outPutData.xlsx
+++ b/src/test/resources/outPutData.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayesh\IdeaProjects\Data_Scraping_Framework_Demo1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D30959-7816-4211-8786-2E37860A71D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1605FC-DC0B-44AB-8B0D-04A9214EED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,36 +25,573 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+  <si>
+    <t>Recipe Name</t>
+  </si>
+  <si>
+    <t>Recipe Category(Breakfast/lunch/snack/dinner)</t>
+  </si>
+  <si>
+    <t>Food Category(Veg/non-veg/vegan/Jain)</t>
+  </si>
+  <si>
+    <t>Ingredients</t>
+  </si>
+  <si>
+    <t>Preparation Time</t>
+  </si>
+  <si>
+    <t>Cooking Time</t>
+  </si>
+  <si>
+    <t>Preparation method</t>
+  </si>
+  <si>
+    <t>RecipeId</t>
+  </si>
+  <si>
+    <t>Nutrient Value</t>
+  </si>
+  <si>
+    <t>recipeUrl</t>
+  </si>
+  <si>
+    <t>A Checkerboard Of Roses ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>No Cooking Veg Indian</t>
+  </si>
+  <si>
+    <t>Thing You Will Need
+a square , flat tray , or a sheet of stone floral foam
+green asparagus of good quality and uniform appearance
+lemongrass
+roses of similar sizes and colours to match your decor
+asparagus ferns ( plumosis)</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+Soak the piece of foam well in water before placing it on the tray. Keep the tray at the place where you want to set up the arrangement. Slice the foam to a very low height, in keeping with the height of your low dining-table sit-down.
+Depending on their thickness, make four equal-looking bundles of the asparagus, probably using 8 to 10 stems in each. Tie each bundle up with lemongrass and place the bundles along the base of the tray, forming a square. Then tie the four corners with lemongrass to hold the asparagus in place.
+Before using the roses, cut the stems to about 6" to 8" and leave them in water for about 1/2 hour so that they last longer. Here we have chosen pink and white roses.
+Place the roses first in the outer square of the sponge, alternating the white with the pink. Then, in a similar manner, fill up the whole square.
+To finish off, use the asparagus ferns to cover up any spaces where the foam is still visible.
+Handy tip
+If you find asparagus difficult to find, use small drumsticks instead.</t>
+  </si>
+  <si>
+    <t>A Truly Delectable Bunch ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>You Will Need
+eclairs/ toffees available in the market
+filler greens
+roses
+kebab sticks
+white thread
+green tape
+basket with moss fixed in it</t>
+  </si>
+  <si>
+    <t>Method
+Take a long kebab stick and tie one of the éclairs on top with the white thread.
+Make a loop with the thread and tie it securely to the stick.
+Take the second éclair and tie it at right angles to the first one.
+Tie the third éclair opposite the second one.
+Continue in the same way till you have tied a lot of éclairs on the stick.
+Wrap the rest of the kebab stick with green tape.
+Make many more sticks in the same way.
+Lay out the basket, roses and the éclair sticks. Use small fillers made of chocolate wrapped in cellophane and tied to toothpicks.
+Stick all the green fillers into the moss and then start adding the roses one by one.
+Now place the éclair sticks in between the roses and fillers.
+Arrange the éclair sticks in such a way that the bouquet looks balanced.
+Fill the gaps with the small chocolate fillers.
+Your delicious chocolate bouquet is ready!</t>
+  </si>
+  <si>
+    <t>A-bun-dantly Creative ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>Thing You Will Need
+5 roll buns
+4 gerberas ( of the same colour)
+a few asparagus ferns
+a cane mat (10" by 6")
+scissors
+2 round block candles ( preferably green in colour)
+a few wedges of lavash
+2 pieces of raffia , refer handy tip</t>
+  </si>
+  <si>
+    <t>Method
+Start by placing a protective covering over your table. Place a cane mat in the center of the table. Take 5 roll buns and place them horizontally on a mat at an equal distance form each other.
+Place a gerbera between 2 roll buns in a raised position as shown in the picture.
+Add some asparagus ferns to add colour. They can be placed beneath the petals.
+Cut the lavash bread into triangles of various sizes. Use raffia to tie the triangles around a round candle. Decorate 2 candles in this manner. Place the candles on oppsite corners of the mat near the bread.
+Your eye-catching centerpiece is ready.
+Handy tip
+Raffia is a soft natural fibre sued for weaving, winding and making baskets, mats and many other items.</t>
+  </si>
+  <si>
+    <t>aam chana achar recipe | Rajasthani aam chana ka achar | Indian mango pickle with chana | kabuli chana achar |</t>
+  </si>
+  <si>
+    <t>For Aam Chana Achar
+1 1/2 cups grated raw mango
+1/2 cup kabuli chana (white chick peas)
+1 tsp turmeric powder (haldi)
+salt to taste
+1 tbsp fenugreek (methi) seeds
+1 tbsp fenugreek seeds (methi) powder
+1 tbsp fennel seeds (saunf)
+1/2 tsp asafoetida (hing)
+1 tsp nigella seeds (kalonji)
+7 whole dry kashmiri red chillies
+1 tbsp chilli powder
+1 1/4 cups mustard (rai / sarson) oil</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Method
+For aam chana achar
+To make aam chana achar, combine the raw mango, turmeric powder and salt in a deep bowl, mix well and keep aside for 30 minutes.
+Squeeze out all the water from the raw mango in a bowl and keep aside. Keep the raw mango water and grated raw mango separately.
+Refrigerate the grated raw mango overnight.
+Combine the fenugreek seeds, kabuli chana and raw mango water into a deep bowl, mix well and cover and keep aside overnight.
+Combine the fenugreek seed powder, fennel seeds, asafoetida, nigella seeds, kashmiri red chillies, chilli powder along the grated raw mango and kabuli chana-fenugreek seeds mixture into a deep bowl, mix well and keep aside.
+Heat the mustard oil in a deep non-stick kadhai on a medium flame for 3 to 4 minutes or till red hot.
+Remove from the flame and allow it to cool.
+Once cooled, add the oil to the prepared mixture and mix well.
+Bottle the pickle in a sterilized glass jar and keep aside for 6 to 7 days. After 7 days, it is ready to eat.</t>
+  </si>
+  <si>
+    <t>Energy 95 cal
+Protein 0.5 g
+Carbohydrates 3 g
+Fiber 1 g
+Fat 9.1 g
+Cholesterol 0 mg
+Sodium 0.8 mg</t>
+  </si>
+  <si>
+    <t>aam ka achar recipe | Punjabi aam ka achar | mango pickle |</t>
+  </si>
+  <si>
+    <t>For Aam ka Achaar
+5 cups raw mangoes , cut into pieces
+1 tsp turmeric powder (haldi)
+1/4 cup fennel seeds (saunf) , coarsely ground
+1 tbsp split fenugreek seeds (methi na kuria)
+2 tbsp split mustard seeds (rai na kuria)
+1/2 tsp nigella seeds (kalonji)
+1/4 tsp asafoetida (hing)
+2 tbsp chilli powder
+3/4 cup mustard (rai / sarson) oil
+4 tbsp salt</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Method
+For aam ka achaar
+To make aam ka achaar, combine the mangoes, turmeric powder and 2 tbsp of salt and toss well.
+Place the mangoes on a sieve, cover with a muslin cloth and place under the sun for 4 to 6 hours.
+Combine the rest of the ingredients in a bowl and mix well.
+Add the mangoes and toss well.
+Bottle the pickle in a sterilised glass jar. Place the pickle under the sun for 4 to 5 days. This aam ka achaar can be stored for upto 1 year.</t>
+  </si>
+  <si>
+    <t>Energy 507 cal
+Protein 1.9 g
+Carbohydrates 62 g
+Fiber 6.6 g
+Fat 31.1 g
+Cholesterol 0 mg
+Sodium 6208.7 mg</t>
+  </si>
+  <si>
+    <t>Aam Ke Pakode, Mango Bhajiya</t>
+  </si>
+  <si>
+    <t>1 1/2 cups riped alphonso mango cubes
+oil for deep-frying
+To Be Mixed Into A Thick Batter (using Approx. 3/4 Cup Of Water)
+3/4 cup besan (bengal gram flour)
+1/4 cup rice flour (chawal ka atta)
+1/4 tsp carom seeds (ajwain)
+1/2 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+2 pinches asafoetida (hing)
+salt to taste</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-stick pan, dip the mango cubes individually into the batter and deep-fry till they turn golden brown and crisp from all the sides. Drain on an absorbent paper.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 237 cal
+Protein 5.8 g
+Carbohydrates 27.3 g
+Fiber 4.2 g
+Fat 11.6 g
+Cholesterol 0 mg
+Vitamin A 1273.8 mcg
+Vitamin B1 0.2 mg
+Vitamin B2 0.1 mg
+Vitamin B3 1.1 mg
+Vitamin C 7 mg
+Folic Acid 36.6 mcg
+Calcium 20.3 mg
+Iron 1.9 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 28.9 mg
+Potassium 268.4 mg
+Zinc 0.6 mg</t>
+  </si>
   <si>
     <t>Aam ki Katki ka Muraba</t>
   </si>
   <si>
-    <t>Recipe Name</t>
-  </si>
-  <si>
-    <t>Recipe Category(Breakfast/lunch/snack/dinner)</t>
-  </si>
-  <si>
-    <t>Food Category(Veg/non-veg/vegan/Jain)</t>
-  </si>
-  <si>
-    <t>Ingredients</t>
-  </si>
-  <si>
-    <t>Preparation Time</t>
-  </si>
-  <si>
-    <t>Cooking Time</t>
-  </si>
-  <si>
-    <t>Preparation method</t>
+    <t>2 cups finely chopped raw mango
+1/4 cup grated raw mango
+2 cups (400 grams) sugar
+2 tbsp Sambhaar
+2 tbsp peeled and sliced almonds
+1 tsp poppy seeds (khus-khus)
+1/2 tsp salt</t>
+  </si>
+  <si>
+    <t>15 mins.</t>
+  </si>
+  <si>
+    <t>45 mins.</t>
+  </si>
+  <si>
+    <t>Method
+Combine the sugar with 3 cups of water and cook till the sugar has dissolved, stirring occasionally.
+Add the mango pieces and grated mangoes and cook over a slow flame (approximately 25 to 30 minutes), stirring occasionally till the sugar syrup is of one string consistency and the mango pieces are soft and translucent.
+Add the sambhaar, almonds, poppy seeds and salt and mix well.
+Allow to cool completely. Bottle in a sterilised glass jar. This can be stored for upto 1 year refrigerated.</t>
+  </si>
+  <si>
+    <t>Energy 69 cal
+Protein 0.3 g
+Carbohydrates 15.2 g
+Fiber 0.1 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 85.7 mg</t>
+  </si>
+  <si>
+    <t>Aam ki Launji</t>
+  </si>
+  <si>
+    <t>1 cup peeled raw mango cubes
+2 tbsp oil
+1/2 tsp fennel seeds (saunf)
+1/4 tsp nigella seeds (kalonji)
+1 tbsp coriander (dhania) powder
+1 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+1/4 cup sugar
+salt to taste</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the fennel seeds and nigella seeds and sauté on a medium flame for a few seconds.
+Add the raw mango cubes, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Add ¼ cup of water, coriander powder, chilli powder, turmeric powder, sugar and salt,mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Allow the launji to cool completely.
+Once cooled, serve or store in an air-tight container and refrigerate.</t>
+  </si>
+  <si>
+    <t>Energy 56 cal
+Protein 0.1 g
+Carbohydrates 7.5 g
+Fiber 0.3 g
+Fat 3.1 g
+Cholesterol 0 mg
+Sodium 0.3 mg</t>
+  </si>
+  <si>
+    <t>Aam Lassi Slush</t>
+  </si>
+  <si>
+    <t>1 cup alphonso mango cubes
+1 cup curds (dahi)
+1 tbsp chopped mint leaves (phudina)
+4 tbsp sugar
+4 to 5 ice-cubes
+For The Garnish
+a few mint leaves (phudina)</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a mixer and blend till smooth.
+Pour the mixture into a shallow aluminium container and cover it with an aluminium foil.
+Freeze it for approx. 4 to 6 hours or until it is firm.
+Remove it from the freezer and keep aside for 4 to 5 minutes.
+Scrape it with a fork and serve immediately in small glasses garnished with mint leaves.</t>
+  </si>
+  <si>
+    <t>Energy 149 cal
+Protein 2.4 g
+Carbohydrates 24.4 g
+Fiber 0.3 g
+Fat 3.4 g
+Cholesterol 8 mg
+Sodium 18.6 mg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple beet carrot juice recipe | abc Indian juice | healthy carrot, beet, apple, ginger drink | </t>
+  </si>
+  <si>
+    <t>For Apple Beet Carrot Juice
+1 1/2 cups carrot cubes
+3/4 cup beetroot cubes
+1/2 cup apple cubes
+1/2 tsp chopped ginger (adrak)
+1 tsp lemon juice
+1 cup water
+15 ice cubes</t>
+  </si>
+  <si>
+    <t>Method
+Juicer method for apple beet carrot juice
+In a high quality blender, put carrot cubes, beetroot cubes, apple cubes , chopped ginger, lemon juice, 1 cup water, 15 ice cubes.
+Blend till smooth.
+Serve apple, beetroot and carrot juice.
+Hopper method for apple beet carrot juice
+Add the carrot cubes, beetroot cubes, apple cubes a few at a time along with chopped ginger (adrak) and lemon juice in the hopper.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve apple, beetroot and carrot juice immediately.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t>Energy 34 cal
+Protein 0.8 g
+Carbohydrates 7.3 g
+Fiber 2.6 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 30.7 mg</t>
+  </si>
+  <si>
+    <t>Achaari Aloo Roll ( Wraps and Rolls)</t>
+  </si>
+  <si>
+    <t>For The Aam Aur Chane ka Achaar
+1 1/2 cups grated raw mangoes
+1 tsp turmeric powder (haldi)
+1 tbsp salt
+1 tbsp fenugreek (methi) seeds
+1/2 cup kabuli chana (white chick peas)
+1 tbsp fenugreek seeds (methi) powder
+1 tbsp fennel seeds (saunf)
+1/2 tsp asafoetida (hing)
+1 tsp nigella seeds (kalonji)
+14 whole dry kashmiri red chillies
+1 tbsp chilli powder
+1 1/4 cups mustard (rai / sarson) oil
+For The Spicy Potato Filling
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+2 tsp finely chopped green chillies
+1 tsp grated ginger (adrak)
+1 1/2 cups boiled , peeled and mashed potatoes
+1/2 cup boiled green peas
+2 tsp chaat masala
+2 tsp garam masala
+1 tbsp finely chopped coriander (dhania)
+salt to taste
+Other Ingredients
+1 cup onion rings
+chaat masala to taste
+4 rotis</t>
+  </si>
+  <si>
+    <t>Method
+For aam aur chane ka achaar
+Combine the mangoes, turmeric powder and salt in a bowl, mix well and leave aside for 30 minutes. Squeeze out all the water from the mangoes and keep refrigerated till use.
+Soak the kabuli chana and fenugreek seeds in the mango water overnight.
+Combine the fenugreek seeds powder, fennel seeds, asafoetida, nigella seeds, whole red chillies, chilli powder, soaked kabuli chana mixture and grated mangoes in a bowl and mix well.
+Heat the mustard oil in a small pan and cool completely. Add it to the prepared mixture.
+Place the pickle in a sterilised glass jar and store it in a cool dry place.
+The pickle is ready to eat after 3 to 4 days. Store it a cool dry place for upto 1 year.
+For the spicy potato filling
+Heat the oil in a broad pan and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame till they turn translucent.
+Add the green chillies and ginger and sauté on a medium flame for 30 seconds.
+Add the potatoes, green peas, chaat masala, garam masala, coriander and salt, mix well and sauté on a medium flame for another 2 to 3 minutes. Keep aside.
+How to proceed
+Combine the onion rings and chaat masala in a bowl, mix well and keep aside.
+Place a roti on a clean dry surface and arrange ¼th of the spicy potato filling in a row in the centre of the roti.
+Spread 1 tsp of aam aur chane ka achaar and arrange ¼ cup of onion rings over it and roll it up tightly.
+Repeat with the remaining ingredients to make 3 more rolls.
+Wrap a tissue paper around each roll and serve immediately.</t>
+  </si>
+  <si>
+    <t>Indian achari paneer tikka recipe | Punjabi style achari paneer tikka | paneer tikka snack | healthy achari tikka |</t>
+  </si>
+  <si>
+    <t>For The Achaari Marinade
+1 tbsp green chilli pickle
+1/2 cup hung curds (chakka dahi)
+1 tsp chopped garlic (lehsun)
+1 tsp fennel seeds (saunf)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp nigella seeds (kalonji)
+1 tsp cumin seeds (jeera)
+1/4 tsp turmeric powder (haldi)
+1 tbsp mustard (rai / sarson) oil
+salt to taste
+Other Ingredients
+1 1/2 cups paneer (cottage cheese) cubes
+oil for greasing and cooking
+For Serving
+dahiwali pudina chutney</t>
+  </si>
+  <si>
+    <t>Method
+For the achaari marinade
+Combine all the ingredients, except the curds in a mixer and blend to a coarse mixture.
+Transfer the mixture into a deep bowl, add the curds and mix well.
+How to proceed
+To make achaari paneer tikka, add the paneer to the prepared achaari marinade, mix gently and keep aside to marinate for 20 minutes.
+Arrange the marinated paneer cubes equally on satay sticks and keep aside.
+Heat a non-stick tava (griddle), grease it with little oil, place a few satays on it and cook on a medium flame, using a little oil, till they turn golden brown in colour from all the sides.
+Repeat step 3 to cook more satays.
+Serve the achaari paneer tikka immediately with dahiwali phudina chutney.</t>
+  </si>
+  <si>
+    <t>Energy 274 cal
+Protein 9.5 g
+Carbohydrates 7 g
+Fiber 0 g
+Fat 21.9 g
+Cholesterol 8 mg
+Sodium 9.6 mg</t>
+  </si>
+  <si>
+    <t>Achaari Paneer Warqi</t>
+  </si>
+  <si>
+    <t>For The Achaari Paneer
+1 1/2 cups crumbled paneer (cottage cheese)
+2 tbsp mustard (rai / sarson) oil
+2 tsp cumin seeds (jeera)
+1 tsp fennel seeds (saunf)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp nigella seeds (kalonji)
+1/4 tsp mustard seeds ( rai / sarson)
+1/2 cup finely chopped onions
+2 tsp grated ginger (adrak)
+1 tsp finely chopped green chillies
+1/4 tsp turmeric powder (haldi)
+1/4 cup chopped coriander (dhania)
+salt to taste
+For The Warqi
+5 samosa pattis
+a pinch nigella seeds (kalonji)
+a pinch turmeric powder (haldi)
+a pinch chilli powder
+1 tbsp oil</t>
+  </si>
+  <si>
+    <t>Method
+For the achaari paneer
+Heat the oil in a pan and add the cumin seeds, fenugreek seeds, fennel seeds, onion seeds and mustard seeds.
+When the seeds crackle, add the onions, green chillies, ginger, garlic and sauté for 2 minutes.
+Add the paneer, turmeric powder, coriander and salt and mix well, cook for 3-4 minutes.
+Keep aside.
+For the warqi
+Arrange the samosa pattis one on top of other on a baking tray, using oil to grease between the sheets. Sprinkle with onion seeds, turmeric powder and chilli powder.
+Bake in a pre-heated oven at 180°c (360°f) till they turn crisp.
+Cut into 2½“squares and keep aside.
+How to proceed
+Place a spoonful of the achari paneer mixture on a sheet of samosa pattis warqi and serve immediately.</t>
+  </si>
+  <si>
+    <t>achari dip recipe | healthy achar dip | Indian achari dip |</t>
+  </si>
+  <si>
+    <t>For Achar Dip
+3/4 cup hung curds (chakka dahi)
+salt to taste
+For The Achaari Mixture
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp mustard seeds ( rai / sarson)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp fennel seeds (saunf)
+1/4 tsp nigella seeds (kalonji)
+1/2 tsp oil
+a pinch of asafoetida (hing)
+1/4 cup chopped coriander (dhania)
+1/2 tsp finely chopped green chillies
+1/2 tbsp powdered sugar
+For Serving With Achar Dip
+khakhras</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>1 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the achaari mixture
+Heat the oil in a small non-stick pan, add the fenugreek seeds, mustard seeds, cumin seeds, fennel seeds and nigella seeds and sauté on a medium flame for 30 seconds.
+When the seeds crackle, add the asafoetida and mix well.
+Transfer the mixture into a deep bowl and allow the mixture to cool completely.
+Add the coriander, green chillies and powdered sugar and blend in a mixer to smooth paste using 2 tbsp of water. Keep aside.
+How to proceed to make achar dip
+To make achari dip, combine the achaari mixture, curds and salt in a deep bowl and mix well using a whisk.
+Refrigerate for at least 1 hour.
+Serve the achari dip chilled with khakhras.</t>
+  </si>
+  <si>
+    <t>Energy 28 cal
+Protein 0.9 g
+Carbohydrates 1.5 g
+Fiber 0 g
+Fat 1.5 g
+Cholesterol 3.4 mg
+Sodium 4.3 mg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -403,43 +940,316 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="2" max="3" bestFit="true" customWidth="true" width="42.6328125" collapsed="true"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" ht="75">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" t="s">
+        <v>48</v>
+      </c>
+      <c r="I9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="B12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H13" t="s">
+        <v>63</v>
+      </c>
+      <c r="I13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+      <c r="F14" t="s">
+        <v>35</v>
+      </c>
+      <c r="G14" t="s">
+        <v>35</v>
+      </c>
+      <c r="H14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>71</v>
+      </c>
+      <c r="H15" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/outPutData.xlsx
+++ b/src/test/resources/outPutData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayesh\IdeaProjects\Data_Scraping_Framework_Demo1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1605FC-DC0B-44AB-8B0D-04A9214EED79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B8151-698A-4934-B7A5-0FF4A7FF6D4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="157">
   <si>
     <t>Recipe Name</t>
   </si>
@@ -585,6 +585,602 @@
 Fat 1.5 g
 Cholesterol 3.4 mg
 Sodium 4.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/a-checkerboard-of-roses--flower-arrangements-37154r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/a-truly-delectable-bunch--flower-arrangements-37261r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/a-bun-dantly-creative--flower-arrangements-37167r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-chana-achar-rajasthani-pickle-3904r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ka-achaar-mango-pickle-punjabi-achar-30931r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ke-pakode-mango-bhajiya-36291r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ki-katki-ka-muraba-3427r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ki-launji-3901r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-lassi-slush-2848r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/abc-juice-apple-beet-carrot-juice-6201r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achaari-aloo-roll--wraps-and-rolls-32665r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achaari-paneer-tikka-32939r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achaari-paneer-warqi-36293r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achar-dip-achari-dip-22718r</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-baingan-30888r</t>
+  </si>
+  <si>
+    <t>Achari Baingan</t>
+  </si>
+  <si>
+    <t>To Be Mixed Into A Marinade
+1 tbsp ginger-garlic (adrak-lehsun) paste
+1 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+salt to taste
+1 tsp oil
+Other Ingredients
+2 cups brinjals (baingan / eggplant) , cut into 1" cubes
+oil for deep frying
+1 tsp fennel seeds (saunf)
+1 tsp mustard seeds ( rai / sarson)
+1 tsp fenugreek (methi) seeds
+1 tsp nigella seeds (kalonji)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+2 tbsp oil
+1/2 cup sliced onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1 tsp chopped green chillies
+1/2 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp punjabi garam masala
+1/2 tsp dried mango powder (amchur)
+salt to taste
+3/4 cup whisked curds (dahi)
+1/2 cup fresh cream
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the brinjals with the prepared marinade in a deep bowl and toss gently. Keep aside for 5 minutes.
+Heat the oil in a kadhai and deep-fry the marinade brinjals in it till they are golden brown in colour from all the sides.
+Drain on an absorbent paper and keep aside.
+Combine the fennel seeds, mustard seeds, fenugreek seeds, onion seeds, cumin seeds and asafoetida in a small bowl and keep aside.
+Heat the oil in a deep pan and add the above mixture.
+When the seeds crackle, add the onions, ginger-garlic paste and green chillies and sauté on a medium flame for 2 minutes.
+Add the turmeric powder, chilli powder, punjabi garam masala, dry mango powder and salt and sauté on a medium flame for 2 minutes.
+Add the curds, fried brinjals and fresh cream, mix gently and cook on a slow flame for 2 to 3 minutes, while stirring continuously.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 215 cal
+Protein 3.1 g
+Carbohydrates 6 g
+Fiber 4 g
+Fat 19.2 g
+Cholesterol 6 mg
+Sodium 18 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-dahi-bhindi-punjabi--sabji-22779r</t>
+  </si>
+  <si>
+    <t>achari dahi bhindi recipe | Punjabi dahi bhindi sabji | achari dahi wali bhindi | okra in achari curd gravy |</t>
+  </si>
+  <si>
+    <t>For Achari Dahi Bhindi
+4 cups sliced ladies finger (bhindi)
+5 tbsp oil
+2 tsp fennel seeds (saunf)
+2 tsp mustard seeds ( rai / sarson)
+1/2 tsp nigella seeds (kalonji)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp asafoetida (hing)
+2 tsp finely chopped ginger (adrak)
+3/4 cup chopped tomatoes
+salt to taste
+To Be Mixed Into A Curd Mixture
+1/2 cup whisked curds (dahi)
+1 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+2 tsp coriander-cumin seeds (dhania-jeera) powder
+salt to taste
+For Serving With Achari Dahi Bhindi
+rotis/parathas</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>Method
+To make achari dahi bhindi, heat 4 tbsp of oil in a broad non-stick pan, add the ladies finger, mix gently and cook on a medium flame for 5 to 6 minutes, while tossing occasionally. Remove in a deep bowl and keep aside.
+Heat the remaining 1 tbsp of oil in the same broad non-stick pan, add the fennel seeds, mustard seeds, nigella seeds, fenugreek seeds and asafoetida and sauté on a medium flame for a few seconds.
+Add the ginger and sauté on a medium flame for 30 more seconds.
+Add the tomatoes, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Lower the flame, add the curd mixture, mix well and cook for 1 minute, while stirring continuously.
+Add the shallow-fried ladies finger and salt, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Serve the achari dahi bhindi hot with rotis or parathas.</t>
+  </si>
+  <si>
+    <t>Energy 328 cal
+Protein 4.8 g
+Carbohydrates 13.3 g
+Fiber 6.4 g
+Fat 27.6 g
+Cholesterol 5.3 mg
+Sodium 22.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-1736r</t>
+  </si>
+  <si>
+    <t>achari paneer recipe | Punjabi achari paneer | restaurant style achari paneer | healthy achari paneer |</t>
+  </si>
+  <si>
+    <t>lunch</t>
+  </si>
+  <si>
+    <t>For Achari Paneer
+1 cup paneer (cottage cheese) cubes
+1 tbsp oil
+1 tsp fennel seeds (saunf)
+1/4 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1 tsp nigella seeds (kalonji)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+1/2 cup thinly sliced onions
+1/2 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp black salt (sanchal)
+3/4 cup whisked curds (dahi)
+1 tsp plain flour (maida)
+2 tbsp chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For achari paneer
+To make achari paneer, heat the oil in a deep non-stick pan, add the fennel seeds, mustard seeds, fenugreek seeds, nigella seeds, cumin seeds and asafoetida and sauté on a medium flame for 1 minute.
+Add the onion and sauté on a medium flame for 2 minutes.
+Add the paneer, turmeric, chilli powder, black salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the curds, plain flour, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Switch off the flame, add the coriander and salt and mix well.
+Serve the achari paneer hot with rice or rotis.</t>
+  </si>
+  <si>
+    <t>Energy 381 cal
+Protein 13.4 g
+Carbohydrates 12.8 g
+Fiber 0.2 g
+Fat 29 g
+Cholesterol 12 mg
+Sodium 16.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-pulao-paneer-tikka-rice-7555r</t>
+  </si>
+  <si>
+    <t>achari paneer pulao recipe | Indian paneer tikka pulao | paneer tikka rice | achari biryani |</t>
+  </si>
+  <si>
+    <t>For Achari Paneer
+1 1/4 cups paneer (cottage cheese) cubes
+1 tbsp oil
+1 tsp mustard seeds ( rai / sarson)
+1/2 tsp fenugreek (methi) seeds
+1 tsp cumin seeds (jeera)
+1 tsp nigella seeds (kalonji)
+1 tsp fennel seeds (saunf)
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1/2 cup whisked curds (dahi)
+1 tbsp readymade green chilli pickle
+salt to taste
+Other Ingredients For Achari Paneer Pulao
+3 cups cooked rice (chawal)
+1 tbsp oil
+1 to 2 cinnamon (dalchini) sticks
+2 cloves (laung / lavang)
+1/2 tsp caraway seeds (shahjeera)
+2 cardamoms (elaichi)
+salt to taste
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For achari paneer
+Heat the oil in a kadhai, add the mustard seeds, fenugreek seeds, cumin seeds, nigella seeds and fennel seeds.
+When the seeds crackle, add the turmeric powder, chilli powder and switch off the flame.
+Add the curds and mix well.
+Add the green chilli pickle and salt and mix well.
+Add the paneer cubes, mix gently and keep aside to marinate for 30 minutes.
+How to proceed
+To make the achari paneer pulao, heat the oil in a non-stick pan, add the cinnamon, cloves, caraway seeds and cardamom.
+When the caraway seeds crackle, add the rice and salt, mix well and cook on medium flame for 1 minute, while stirring continuously.
+Add the marinated paneer, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Serve the achari paneer pulao hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 377 cal
+Protein 10.1 g
+Carbohydrates 38.5 g
+Fiber 0.1 g
+Fat 19.7 g
+Cholesterol 4 mg
+Sodium 7.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-paneer-tikka-4772r</t>
+  </si>
+  <si>
+    <t>achari paneer tikka recipe | Punjabi achari paneer tikka | achari paneer tikka on tawa | healthy achari paneer tikka |</t>
+  </si>
+  <si>
+    <t>For The Achari Marinade
+1 tbsp green chilli pickle
+1/2 cup hung curds (chakka dahi)
+1 tsp chopped garlic (lehsun)
+1 tsp fennel seeds (saunf)
+1/2 tsp mustard seeds ( rai / sarson)
+1/4 tsp fenugreek (methi) seeds
+1/4 tsp nigella seeds (kalonji)
+1 tsp cumin seeds (jeera)
+1/4 tsp turmeric powder (haldi)
+1 tbsp mustard (rai / sarson) oil
+salt to taste
+Other Ingredients For Achari Paneer Tikka
+1 1/2 cups paneer (cottage cheese) cubes
+oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+For the achari marinade
+Combine all the ingredients, except the curds in a mixer and blend to a coarse mixture.
+Transfer the mixture into a deep bowl, add the curds and mix well.
+How to proceed to make achari paneer tikka
+Add the paneer to the prepared achari marinade, mix gently and keep aside to marinate for 20 minutes.
+Arrange the marinated paneer cubes equally on satay sticks and keep aside.
+Heat a non-stick tava (griddle), grease it with little oil, place a few satays on it and cook on a medium flame, using a little oil, till they turn golden brown in colour from all the sides.
+Repeat step 3 to cook more satays.
+Serve the achari paneer tikka immediately.</t>
+  </si>
+  <si>
+    <t>Energy 295 cal
+Protein 9.4 g
+Carbohydrates 6.8 g
+Fiber 0 g
+Fat 24.4 g
+Cholesterol 8 mg
+Sodium 9.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adai--diabetic-adai-recipe-22270r</t>
+  </si>
+  <si>
+    <t>healthy adai recipe | diabetic adai | Indian style dalia adai without rice | Indian snack for diabetes |</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>For Adai
+1/2 cup broken wheat (dalia)
+1/4 cup green moong dal (split green gram)
+2 tbsp masoor (split red lentil) dal
+2 tbsp urad dal (split black lentils)
+1 tsp fenugreek (methi) seeds
+1/4 cup finely chopped onions
+a pinch of asafoetida (hing)
+1 tsp ginger-green chilli paste
+2 tbsp finely chopped coriander (dhania)
+1/4 tsp turmeric powder (haldi)
+1 tbsp chopped curry leaves (kadi patta)
+salt to taste
+3 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>40 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the broken wheat, green moong dal, masoor dal, urad dal and fenugreek seeds in a deep bowl and soak in enough water for 2 hours. Drain well.
+Blend them in a mixer along with approx. ¾ cup of water to a coarse mixture.
+Transfer the mixture into a deep bowl, add the onions, asafoetida, ginger-green chilli paste, coriander, turmeric powder, curry leaves and salt and mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on it and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 125 mm. (5”) diameter thin circle.
+Smear 1/8 tsp of oil over it and along the edges and cook on a medium flame till the adai turns golden brown in colour from both the sides.
+Fold over to make a semi-circle.
+Repeat steps 4 to 7 to make 23 more adais. .
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 53 cal
+Protein 2.2 g
+Carbohydrates 8.3 g
+Fiber 0.8 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 2.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adai-recipe-adai-dosa-breakfast-534r</t>
+  </si>
+  <si>
+    <t>Adai Recipe, Adai Dosa, Breakfast</t>
+  </si>
+  <si>
+    <t>For Adai Dosa
+1 cup par-boiled rice (ukda chawal)
+1/4 cup toovar (arhar) dal
+1/4 cup chana dal (split bengal gram)
+2 tbsp urad dal (split black lentils)
+1 tsp roughly chopped ginger (adrak)
+4 dry red chillies (pandi)
+4 black peppercorns (kalimirch)
+1/2 tsp cumin seeds (jeera)
+1/4 cup finely chopped onions
+1/4 tsp asafoetida (hing)
+1 tbsp chopped curry leaves (kadi patta)
+2 tbsp grated coconut
+salt to taste
+coconut oil or oil for cooking
+For Serving With Adai Dosa
+coconut chutney</t>
+  </si>
+  <si>
+    <t>Method
+For adai dosa
+To make adai dosas, combine the rice, dals, ginger, peppercorns and red chillies in enough water in a deep bowl and keep aside to soak for 2 hours. Drain the water.
+Blend the mixture in a mixer to a coarse mixture using approx. 1¼ cup of water.
+Transfer the mixture into a deep bowl, add the onions, grated coconut, curry leaves, cumin seeds, asafoetida and salt. Mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear a little coconut oil over it and along the edges and cook on a medium flame till the adai dosa turns golden brown in colour and crisp.
+Turn over and cook on the other side as well.
+Fold over to make a semi-circle.
+Repeat with the remaining batter to make 9 more adai dosas.
+Serve the adai dosa immediately with coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 114 cal
+Protein 3.8 g
+Carbohydrates 21.7 g
+Fiber 1.8 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 6.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adai-protein-rich-adai-recipe-33240r</t>
+  </si>
+  <si>
+    <t>Adai, Protein Rich Adai Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup raw rice (chawal)
+1/4 cup toovar (arhar) dal
+1/4 cup chana dal (split bengal gram)
+1/4 cup urad dal (split black lentils)
+5 to 6 whole dry kashmiri red chillies , broken into pieces
+a pinch of asafoetida (hing)
+2 tbsp freshly grated coconut
+1/4 cup grated carrot
+1/4 cup finely chopped cabbage
+1/2 cup finely chopped onions
+1/4 cup finely chopped coriander (dhania)
+1 tbsp finely chopped curry leaves (kadi patta)
+salt to taste
+3 3/4 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the rice, dals and dry red chillies in enough water for 2 hours.
+Drain and blend in a mixer to a coarse paste using approx. 1¼ cups of water.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the adai turns golden brown in colour and crisp.
+Turnover and cook on another side as well.
+Fold over to make a semi-circle.
+Repeat with the remaining batter to make 14 more adais.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 73 cal
+Protein 2.7 g
+Carbohydrates 10.7 g
+Fiber 1.7 g
+Fat 2.2 g
+Cholesterol 0 mg
+Sodium 6.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adrak-aur-ganne-ka-slush-sugarcane-and-ginger-slush-2850r</t>
+  </si>
+  <si>
+    <t>Adrak Aur Ganne ka Slush, Sugarcane and Ginger Slush</t>
+  </si>
+  <si>
+    <t>1 tbsp ginger (adrak) juice
+5 cups sugarcane juice
+1/2 cup powdered sugar
+1/2 tbsp lemon juice
+1/2 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and mix well.
+Pour the mixture into a shallow aluminium container and freeze for 5 hours.
+Blend in a mixer till slushy and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 115 cal
+Protein 0.2 g
+Carbohydrates 27.5 g
+Fiber 0 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 258.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/affogato-4752r</t>
+  </si>
+  <si>
+    <t>Affogato</t>
+  </si>
+  <si>
+    <t>2 scoops vanilla ice-cream
+1 1/2 tsp instant coffee powder
+1 tsp brandy
+1 tsp sugar
+For The Garnish
+1/2 tsp cinnamon (dalchini) powder</t>
+  </si>
+  <si>
+    <t>Method
+Boil the ¼ cup of water in a non-stick pan, add the coffee and sugar and mix well.
+Add the brandy and mix well.
+Place a scoop of ice-cream in each coffee mug and pour half the coffee mixture over each mug.
+Serve immediately garnished with the cinnamon powder.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/afghani-paneer-30939r</t>
+  </si>
+  <si>
+    <t>Afghani Paneer</t>
+  </si>
+  <si>
+    <t>For Afghani Paneer
+2 cups paneer (cottage cheese) cubes
+To Be Ground Into A Smooth Powder
+1 tbsp melon seeds (charmagaz)
+3 tbsp cashew nuts (kaju)
+1 tbsp poppy seeds (khus-khus)
+To Be Mixed Into A Marinade
+1/4 cup fresh cream
+2 tbsp milk
+2 tbsp butter
+1 tsp white pepper powder
+1 tsp garam masala
+1 tsp green chilli paste
+salt to taste
+Other Ingredients For Afghani Paneer
+oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+Combine the paneer, prepared powder and prepared marinade in a deep bowl and mix gently.
+Keep aside for 2 hours.
+Thread 6 pieces of the marinaded paneer in each satay stick or a skewer.
+Heat a non-stick tava(griddle), grease it with little oil, place 4 marinated paneer satays on it and cook using a little oil on a medium flame for approx. 10 minutes or till they turn brown in colour from all the sides.
+Repeat steps 3 and 4 to make 4 more satays.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 219 cal
+Protein 5.9 g
+Carbohydrates 4 g
+Fiber 0.1 g
+Fat 19.9 g
+Cholesterol 8.1 mg
+Sodium 28.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/air-fried-bhindi-healthy-air-fryer-crispy-okra-42874r</t>
+  </si>
+  <si>
+    <t>air fried bhindi recipe | healthy air fryer crispy okra (ladies finger) | quick Indian air fried bhindi |</t>
+  </si>
+  <si>
+    <t>For Air Fried Bhindi
+3 cups ladies finger (bhindi)
+1/2 tsp olive oil
+To Be Mixed Into A Masala Powder
+1/2 tsp chaat masala
+1/4 tsp chilli powder
+1/4 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+For air fried bhindi
+To make air fried bhindi, wash the ladies finger, trim the tips from both the sides and discard them.
+Slice each bhindi into 4 pieces length wise, add olive oil and mix well.
+Place the bhindi in an air fryer and cook at 200°c for 10 minutes, while stirring once after 5 minutes.
+Add the masala powder and mix well.
+Serve healthy air fryer crispy okra (ladies finger) immediately.</t>
+  </si>
+  <si>
+    <t>Energy 43 cal
+Protein 1.9 g
+Carbohydrates 6.3 g
+Fiber 3.6 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 394.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/air-fried-shakarkand-indian-style-sweet-potato-fries-42873r</t>
+  </si>
+  <si>
+    <t>air fried shakarkand recipe | air fryer sweet potatoes | Indian style air fried sweet potatoes fries | quick air fryer sweet potatoes |</t>
+  </si>
+  <si>
+    <t>For Air Fried Shakarkand
+2 large sweet potato (shakarkand)
+1/2 tsp chaat masala
+1/4 tsp chilli powder
+1/8 tsp freshly ground black pepper (kalimirch)
+1/4 tsp salt
+1 1/2 tsp olive oil</t>
+  </si>
+  <si>
+    <t>14 mins</t>
+  </si>
+  <si>
+    <t>Method
+For air fried shakarkand
+To make the masala for air fried shakarkand ( sweet potatoes) in a small bowl put the chaat masala. Then add chilli powder, black pepper and salt. Mix well.
+Peel the shakarkand. Then cut into strips and cubes. We have cut into 2 different shapes to show you. You can use any shape.
+Brush the shakarkand with 1 tsp olive oil.
+Place the shakarkand in an air fryer and cook at 200 c for 14 minutes. At 5 minutes and 10 minutes, open the air fryer and toss the shakarkand each time and then continue cooking.
+Place the air fried shakarkand in a bowl. Add 1/2 tsp olive oil and toss.
+Add the masala powder and mix well.
+Serve air fried shakarkand immediately as it will remain crisp for a short while.</t>
+  </si>
+  <si>
+    <t>Energy 159 cal
+Protein 1.4 g
+Carbohydrates 33.1 g
+Fiber 4.6 g
+Fat 2.4 g
+Cholesterol 0 mg
+Sodium 204.4 mg</t>
   </si>
 </sst>
 </file>
@@ -940,10 +1536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K15"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -951,12 +1547,12 @@
     <col min="2" max="3" bestFit="true" customWidth="true" width="42.6328125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="75">
+    <row r="1" spans="1:11" ht="62.5">
       <c r="A1" t="s">
         <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -984,9 +1580,12 @@
       </c>
       <c r="K1" s="1"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
@@ -1003,10 +1602,19 @@
       <c r="H2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3">
+      <c r="I2" t="s">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>17</v>
@@ -1020,10 +1628,16 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4">
+      <c r="J3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>76</v>
+      </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E4" t="s">
         <v>20</v>
@@ -1037,10 +1651,22 @@
       <c r="H4" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5">
+      <c r="I4" t="s">
+        <v>98</v>
+      </c>
+      <c r="J4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>101</v>
       </c>
       <c r="E5" t="s">
         <v>23</v>
@@ -1057,10 +1683,16 @@
       <c r="I5" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>29</v>
@@ -1077,10 +1709,16 @@
       <c r="I6" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
         <v>34</v>
@@ -1097,10 +1735,19 @@
       <c r="I7" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="J7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>117</v>
       </c>
       <c r="E8" t="s">
         <v>39</v>
@@ -1117,10 +1764,19 @@
       <c r="I8" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="9">
+      <c r="J8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>81</v>
+      </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>44</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
       </c>
       <c r="E9" t="s">
         <v>45</v>
@@ -1137,10 +1793,16 @@
       <c r="I9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="10">
+      <c r="J9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>82</v>
+      </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
         <v>51</v>
@@ -1157,10 +1819,16 @@
       <c r="I10" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="J10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>83</v>
+      </c>
       <c r="B11" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>11</v>
@@ -1180,10 +1848,16 @@
       <c r="I11" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12">
+      <c r="J11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>84</v>
+      </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
         <v>59</v>
@@ -1197,10 +1871,16 @@
       <c r="H12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13">
+      <c r="J12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
         <v>62</v>
@@ -1217,10 +1897,16 @@
       <c r="I13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>86</v>
+      </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E14" t="s">
         <v>66</v>
@@ -1234,8 +1920,20 @@
       <c r="H14" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="I14" t="s">
+        <v>150</v>
+      </c>
+      <c r="J14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" t="s">
+        <v>68</v>
+      </c>
       <c r="E15" t="s">
         <v>69</v>
       </c>
@@ -1250,6 +1948,353 @@
       </c>
       <c r="I15" t="s">
         <v>73</v>
+      </c>
+      <c r="J15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" t="s">
+        <v>90</v>
+      </c>
+      <c r="F16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" t="s">
+        <v>92</v>
+      </c>
+      <c r="J16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E18" t="s">
+        <v>95</v>
+      </c>
+      <c r="F18" t="s">
+        <v>24</v>
+      </c>
+      <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
+        <v>97</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" t="s">
+        <v>103</v>
+      </c>
+      <c r="I19" t="s">
+        <v>104</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E20" t="s">
+        <v>107</v>
+      </c>
+      <c r="F20" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>108</v>
+      </c>
+      <c r="I20" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" t="s">
+        <v>114</v>
+      </c>
+      <c r="J21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
+      </c>
+      <c r="C22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" t="s">
+        <v>119</v>
+      </c>
+      <c r="H22" t="s">
+        <v>120</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+      <c r="J22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>123</v>
+      </c>
+      <c r="C23" t="s">
+        <v>117</v>
+      </c>
+      <c r="E23" t="s">
+        <v>124</v>
+      </c>
+      <c r="F23" t="s">
+        <v>24</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" t="s">
+        <v>125</v>
+      </c>
+      <c r="I23" t="s">
+        <v>126</v>
+      </c>
+      <c r="J23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B24" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" t="s">
+        <v>129</v>
+      </c>
+      <c r="F24" t="s">
+        <v>30</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
+      <c r="H24" t="s">
+        <v>130</v>
+      </c>
+      <c r="I24" t="s">
+        <v>131</v>
+      </c>
+      <c r="J24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>132</v>
+      </c>
+      <c r="B25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" t="s">
+        <v>135</v>
+      </c>
+      <c r="I25" t="s">
+        <v>136</v>
+      </c>
+      <c r="J25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" t="s">
+        <v>139</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>140</v>
+      </c>
+      <c r="J26" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
+        <v>142</v>
+      </c>
+      <c r="E27" t="s">
+        <v>143</v>
+      </c>
+      <c r="F27" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" t="s">
+        <v>35</v>
+      </c>
+      <c r="H27" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" t="s">
+        <v>145</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E28" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" t="s">
+        <v>24</v>
+      </c>
+      <c r="G28" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" t="s">
+        <v>149</v>
+      </c>
+      <c r="I28" t="s">
+        <v>150</v>
+      </c>
+      <c r="J28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" t="s">
+        <v>152</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" t="s">
+        <v>155</v>
+      </c>
+      <c r="I29" t="s">
+        <v>156</v>
+      </c>
+      <c r="J29" t="s">
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/outPutData.xlsx
+++ b/src/test/resources/outPutData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayesh\IdeaProjects\Data_Scraping_Framework_Demo1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E26FC03-F021-42C5-9392-473D949C2868}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C0924-71D1-4C8B-84CB-552289FE7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCOS" sheetId="1" r:id="rId1"/>
@@ -421,7 +421,7 @@
   <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="A2" sqref="A2:XFD232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/src/test/resources/outPutData.xlsx
+++ b/src/test/resources/outPutData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayesh\IdeaProjects\Data_Scraping_Framework_Demo1\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C0924-71D1-4C8B-84CB-552289FE7694}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2684B2E-49A0-4191-BDBD-D1DEAD692FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="3300" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PCOS" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="750">
   <si>
     <t>Recipe Name</t>
   </si>
@@ -55,6 +55,4582 @@
   </si>
   <si>
     <t>recipeUrl</t>
+  </si>
+  <si>
+    <t>37261</t>
+  </si>
+  <si>
+    <t>A Truly Delectable Bunch ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>You Will Need
+eclairs/ toffees available in the market
+filler greens
+roses
+kebab sticks
+white thread
+green tape
+basket with moss fixed in it</t>
+  </si>
+  <si>
+    <t>30 mins</t>
+  </si>
+  <si>
+    <t>0 mins</t>
+  </si>
+  <si>
+    <t>Method
+Take a long kebab stick and tie one of the éclairs on top with the white thread.
+Make a loop with the thread and tie it securely to the stick.
+Take the second éclair and tie it at right angles to the first one.
+Tie the third éclair opposite the second one.
+Continue in the same way till you have tied a lot of éclairs on the stick.
+Wrap the rest of the kebab stick with green tape.
+Make many more sticks in the same way.
+Lay out the basket, roses and the éclair sticks. Use small fillers made of chocolate wrapped in cellophane and tied to toothpicks.
+Stick all the green fillers into the moss and then start adding the roses one by one.
+Now place the éclair sticks in between the roses and fillers.
+Arrange the éclair sticks in such a way that the bouquet looks balanced.
+Fill the gaps with the small chocolate fillers.
+Your delicious chocolate bouquet is ready!</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/a-truly-delectable-bunch--flower-arrangements-37261r</t>
+  </si>
+  <si>
+    <t>6201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">apple beet carrot juice recipe | abc Indian juice | healthy carrot, beet, apple, ginger drink | </t>
+  </si>
+  <si>
+    <t>No Cooking Veg Indian</t>
+  </si>
+  <si>
+    <t>For Apple Beet Carrot Juice
+1 1/2 cups carrot cubes
+3/4 cup beetroot cubes
+1/2 cup apple cubes
+1/2 tsp chopped ginger (adrak)
+1 tsp lemon juice
+1 cup water
+15 ice cubes</t>
+  </si>
+  <si>
+    <t>10 mins</t>
+  </si>
+  <si>
+    <t>Method
+Juicer method for apple beet carrot juice
+In a high quality blender, put carrot cubes, beetroot cubes, apple cubes , chopped ginger, lemon juice, 1 cup water, 15 ice cubes.
+Blend till smooth.
+Serve apple, beetroot and carrot juice.
+Hopper method for apple beet carrot juice
+Add the carrot cubes, beetroot cubes, apple cubes a few at a time along with chopped ginger (adrak) and lemon juice in the hopper.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve apple, beetroot and carrot juice immediately.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t>Energy 34 cal
+Protein 0.8 g
+Carbohydrates 7.3 g
+Fiber 2.6 g
+Fat 0.2 g
+Cholesterol 0 mg
+Sodium 30.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/abc-juice-apple-beet-carrot-juice-6201r</t>
+  </si>
+  <si>
+    <t>37167</t>
+  </si>
+  <si>
+    <t>A-bun-dantly Creative ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>Thing You Will Need
+5 roll buns
+4 gerberas ( of the same colour)
+a few asparagus ferns
+a cane mat (10" by 6")
+scissors
+2 round block candles ( preferably green in colour)
+a few wedges of lavash
+2 pieces of raffia , refer handy tip</t>
+  </si>
+  <si>
+    <t>Method
+Start by placing a protective covering over your table. Place a cane mat in the center of the table. Take 5 roll buns and place them horizontally on a mat at an equal distance form each other.
+Place a gerbera between 2 roll buns in a raised position as shown in the picture.
+Add some asparagus ferns to add colour. They can be placed beneath the petals.
+Cut the lavash bread into triangles of various sizes. Use raffia to tie the triangles around a round candle. Decorate 2 candles in this manner. Place the candles on oppsite corners of the mat near the bread.
+Your eye-catching centerpiece is ready.
+Handy tip
+Raffia is a soft natural fibre sued for weaving, winding and making baskets, mats and many other items.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/a-bun-dantly-creative--flower-arrangements-37167r</t>
+  </si>
+  <si>
+    <t>For The Aam Aur Chane ka Achaar
+1 1/2 cups grated raw mangoes
+1 tsp turmeric powder (haldi)
+1 tbsp salt
+1 tbsp fenugreek (methi) seeds
+1/2 cup kabuli chana (white chick peas)
+1 tbsp fenugreek seeds (methi) powder
+1 tbsp fennel seeds (saunf)
+1/2 tsp asafoetida (hing)
+1 tsp nigella seeds (kalonji)
+14 whole dry kashmiri red chillies
+1 tbsp chilli powder
+1 1/4 cups mustard (rai / sarson) oil
+For The Spicy Potato Filling
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+2 tsp finely chopped green chillies
+1 tsp grated ginger (adrak)
+1 1/2 cups boiled , peeled and mashed potatoes
+1/2 cup boiled green peas
+2 tsp chaat masala
+2 tsp garam masala
+1 tbsp finely chopped coriander (dhania)
+salt to taste
+Other Ingredients
+1 cup onion rings
+chaat masala to taste
+4 rotis</t>
+  </si>
+  <si>
+    <t>20 mins</t>
+  </si>
+  <si>
+    <t>Method
+For aam aur chane ka achaar
+Combine the mangoes, turmeric powder and salt in a bowl, mix well and leave aside for 30 minutes. Squeeze out all the water from the mangoes and keep refrigerated till use.
+Soak the kabuli chana and fenugreek seeds in the mango water overnight.
+Combine the fenugreek seeds powder, fennel seeds, asafoetida, nigella seeds, whole red chillies, chilli powder, soaked kabuli chana mixture and grated mangoes in a bowl and mix well.
+Heat the mustard oil in a small pan and cool completely. Add it to the prepared mixture.
+Place the pickle in a sterilised glass jar and store it in a cool dry place.
+The pickle is ready to eat after 3 to 4 days. Store it a cool dry place for upto 1 year.
+For the spicy potato filling
+Heat the oil in a broad pan and add the cumin seeds.
+When the seeds crackle, add the onions and sauté on a medium flame till they turn translucent.
+Add the green chillies and ginger and sauté on a medium flame for 30 seconds.
+Add the potatoes, green peas, chaat masala, garam masala, coriander and salt, mix well and sauté on a medium flame for another 2 to 3 minutes. Keep aside.
+How to proceed
+Combine the onion rings and chaat masala in a bowl, mix well and keep aside.
+Place a roti on a clean dry surface and arrange ¼th of the spicy potato filling in a row in the centre of the roti.
+Spread 1 tsp of aam aur chane ka achaar and arrange ¼ cup of onion rings over it and roll it up tightly.
+Repeat with the remaining ingredients to make 3 more rolls.
+Wrap a tissue paper around each roll and serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achaari-aloo-roll--wraps-and-rolls-32665r</t>
+  </si>
+  <si>
+    <t>3427</t>
+  </si>
+  <si>
+    <t>Aam ki Katki ka Muraba</t>
+  </si>
+  <si>
+    <t>2 cups finely chopped raw mango
+1/4 cup grated raw mango
+2 cups (400 grams) sugar
+2 tbsp Sambhaar
+2 tbsp peeled and sliced almonds
+1 tsp poppy seeds (khus-khus)
+1/2 tsp salt</t>
+  </si>
+  <si>
+    <t>15 mins.</t>
+  </si>
+  <si>
+    <t>45 mins.</t>
+  </si>
+  <si>
+    <t>Method
+Combine the sugar with 3 cups of water and cook till the sugar has dissolved, stirring occasionally.
+Add the mango pieces and grated mangoes and cook over a slow flame (approximately 25 to 30 minutes), stirring occasionally till the sugar syrup is of one string consistency and the mango pieces are soft and translucent.
+Add the sambhaar, almonds, poppy seeds and salt and mix well.
+Allow to cool completely. Bottle in a sterilised glass jar. This can be stored for upto 1 year refrigerated.</t>
+  </si>
+  <si>
+    <t>Energy 69 cal
+Protein 0.3 g
+Carbohydrates 15.2 g
+Fiber 0.1 g
+Fat 0.8 g
+Cholesterol 0 mg
+Sodium 85.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ki-katki-ka-muraba-3427r</t>
+  </si>
+  <si>
+    <t>3904</t>
+  </si>
+  <si>
+    <t>aam chana achar recipe | Rajasthani aam chana ka achar | Indian mango pickle with chana | kabuli chana achar |</t>
+  </si>
+  <si>
+    <t>For Aam Chana Achar
+1 1/2 cups grated raw mango
+1/2 cup kabuli chana (white chick peas)
+1 tsp turmeric powder (haldi)
+salt to taste
+1 tbsp fenugreek (methi) seeds
+1 tbsp fenugreek seeds (methi) powder
+1 tbsp fennel seeds (saunf)
+1/2 tsp asafoetida (hing)
+1 tsp nigella seeds (kalonji)
+7 whole dry kashmiri red chillies
+1 tbsp chilli powder
+1 1/4 cups mustard (rai / sarson) oil</t>
+  </si>
+  <si>
+    <t>4 mins</t>
+  </si>
+  <si>
+    <t>Method
+For aam chana achar
+To make aam chana achar, combine the raw mango, turmeric powder and salt in a deep bowl, mix well and keep aside for 30 minutes.
+Squeeze out all the water from the raw mango in a bowl and keep aside. Keep the raw mango water and grated raw mango separately.
+Refrigerate the grated raw mango overnight.
+Combine the fenugreek seeds, kabuli chana and raw mango water into a deep bowl, mix well and cover and keep aside overnight.
+Combine the fenugreek seed powder, fennel seeds, asafoetida, nigella seeds, kashmiri red chillies, chilli powder along the grated raw mango and kabuli chana-fenugreek seeds mixture into a deep bowl, mix well and keep aside.
+Heat the mustard oil in a deep non-stick kadhai on a medium flame for 3 to 4 minutes or till red hot.
+Remove from the flame and allow it to cool.
+Once cooled, add the oil to the prepared mixture and mix well.
+Bottle the pickle in a sterilized glass jar and keep aside for 6 to 7 days. After 7 days, it is ready to eat.</t>
+  </si>
+  <si>
+    <t>Energy 95 cal
+Protein 0.5 g
+Carbohydrates 3 g
+Fiber 1 g
+Fat 9.1 g
+Cholesterol 0 mg
+Sodium 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-chana-achar-rajasthani-pickle-3904r</t>
+  </si>
+  <si>
+    <t>30931</t>
+  </si>
+  <si>
+    <t>aam ka achar recipe | Punjabi aam ka achar | mango pickle |</t>
+  </si>
+  <si>
+    <t>1 tbsp ginger (adrak) juice
+5 cups sugarcane juice
+1/2 cup powdered sugar
+1/2 tbsp lemon juice
+1/2 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and mix well.
+Pour the mixture into a shallow aluminium container and freeze for 5 hours.
+Blend in a mixer till slushy and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 115 cal
+Protein 0.2 g
+Carbohydrates 27.5 g
+Fiber 0 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 258.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adrak-aur-ganne-ka-slush-sugarcane-and-ginger-slush-2850r</t>
+  </si>
+  <si>
+    <t>41751</t>
+  </si>
+  <si>
+    <t>ajwain water recipe | ajwain water for weight loss | ajwain water relieves acidity | ajwain water in the morning |</t>
+  </si>
+  <si>
+    <t>For Ajwain Water
+2 tsp carom seeds (ajwain)
+2 cups water</t>
+  </si>
+  <si>
+    <t>1 mins</t>
+  </si>
+  <si>
+    <t>Method
+For ajwain water
+To make ajwain water, combine water and carom seeds in a sauce pan, mix well and boil on a medium flame for 8 to 10 minutes.
+Switch of the flame and strain it using a strainer in a deep bowl. Keep aside to cool.
+Serve the ajwain water warm or cool and serve.</t>
+  </si>
+  <si>
+    <t>Energy 0 cal
+Protein 0 g
+Carbohydrates 0 g
+Fiber 0 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/ajwain-water-41751r</t>
+  </si>
+  <si>
+    <t>41991</t>
+  </si>
+  <si>
+    <t>akki roti recipe | masala akki roti | Karnataka akki roti | rice flour roti |</t>
+  </si>
+  <si>
+    <t>For Akki Roti
+1 1/2 cups rice flour (chawal ka atta)
+1/2 cup finely chopped onions
+1/2 cup grated carrot
+1/4 cup finely chopped coriander (dhania)
+1 tsp finely chopped ginger (adrak)
+2 tsp finely chopped green chillies
+1 tsp coarsely crushed cumin seeds (jeera)
+5 tbsp freshly grated coconut
+salt to taste
+4 1/2 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+For akki roti
+To make akki roti, combine all the ingredients in a deep bowl and knead into a loose soft dough using 1 cup water.
+Divide the dough into 6 equal portions.
+Take a portion of the dough place on the butter paper and flatten it with wet fingers to make a 250 mm. (6”) diameter circle.
+Make 3 to 4 holes at regular intervals using a finger.
+Heat a non-stick tava (griddle) and grease it with ¼ tsp of oil.
+Put the flattened roti facing upside down and gently remove the butter paper.
+Drizzle ½ tsp of oil evenly over it and cook on both the sides till they turn golden brown in colour.
+Repeat steps to make 5 more akki rotis.
+Serve the akki roti immediately.</t>
+  </si>
+  <si>
+    <t>Energy 208 cal
+Protein 2.6 g
+Carbohydrates 30.5 g
+Fiber 2.5 g
+Fat 8 g
+Cholesterol 0 mg
+Sodium 5.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/akki-roti-karnataka-rice-flour-roti-41991r</t>
+  </si>
+  <si>
+    <t>36981</t>
+  </si>
+  <si>
+    <t>Alluring Anthurium, Baby Corn and Capsicum Flowers ( Vegetable Carvings)</t>
+  </si>
+  <si>
+    <t>1 to 2 large red capsicum
+2 to 3 drumsticks
+3 baby corn
+of yam (suran)
+chopping board
+knife
+toothpicks
+a few leaves for decoration
+a fan</t>
+  </si>
+  <si>
+    <t>Method
+Use a knife and make a petal shaped but on the red capsicum.
+Detach the piece from the capsicum with your fingers.
+Using a knife, remove the seeds from the capsicum piece and discard them. Repeat the step 1 to 3 to make 2 to 3 more capsicum pieces. Keep them aside.
+Place a drumstick on the chopping board and using a knife, cut a 6" long piece.
+Make 2 to 3 such long drumstick pieces of different sizes.
+Insert a toothpick on one side of the drumstick.
+Pierce the capsicum piece on it from the centre.
+Pierce the baby corn on top. Repeat the steps 6 to 8 with the remaining drumstick pieces, capsicum pieces and baby corn.
+On the other side of the drumstick pierce one more toothpick.
+Place a broad piece of yam with the base flattened with a knife on a chopping board.
+Pierce the toothpick with drumstick on the yam. Arrange 2 to 3 such drmsticks (stems) on the yam.
+To complete the anthurium, finally decorate it with a few leaves and a fan behind the yam.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/alluring-anthurium-baby-corn-and-capsicum-flowers--vegetable-carvings-36981r</t>
+  </si>
+  <si>
+    <t>41537</t>
+  </si>
+  <si>
+    <t>Almond and Avocado Toast, Toasted Almond Bread Topped with Avocados</t>
+  </si>
+  <si>
+    <t>8 almond bread slices
+24 avocado slices
+1 tsp olive oil for spreading
+2 tsp olive oil for drizzling
+1/4 tsp sea salt for sprinkling</t>
+  </si>
+  <si>
+    <t>15 mins</t>
+  </si>
+  <si>
+    <t>Method
+Place the almond bread slices on a greased baking tray and apply a little olive oil on each bread slice.
+Bake in pre-heated oven at 200°c(400°f) for 15 minutes, or till they turn light brown.
+Cool completely and arrange 3 avocado slices on each toasted bread slice.
+Drizzle ¼ tsp of olive oil and little sea salt evenly over each toast.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 190 cal
+Protein 3.7 g
+Carbohydrates 2.6 g
+Fiber 1.2 g
+Fat 18.4 g
+Cholesterol 0 mg
+Sodium 251 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-and-avocado-toast-toasted-almond-bread-topped-with-avocados-41537r</t>
+  </si>
+  <si>
+    <t>37334</t>
+  </si>
+  <si>
+    <t>akhrot kaju sheera recipe | walnuts cashew nuts halwa | quick akhrot kaju sheera |</t>
+  </si>
+  <si>
+    <t>1 cup coarsely powdered walnuts (akhrot)
+1/4 cup broken cashewnuts (kaju)
+1 tbsp melted ghee
+For The Sugar Syrup
+1/4 cup sugar
+For The Garnish
+1 tbsp pistachio slivers</t>
+  </si>
+  <si>
+    <t>11 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the sugar syrup
+Combine the sugar and ¼ cup water in a broad non-stick pan and cook on a slow flame for approx. 2 to 3 minutes, stirring continuously.
+Remove from the flame and keep aside to cool.
+How to proceed
+Heat the ghee in a non-stick pan. Add the walnuts, mix well and sauté on a slow flame for approx. 4 to 5 minutes, till it is light brown in colour, stirring continuously.
+Add the cashewnuts, prepared sugar syrup, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Serve immediately garnished with pistachio slivers.</t>
+  </si>
+  <si>
+    <t>Energy 568 cal
+Protein 10.5 g
+Carbohydrates 31.1 g
+Fiber 1.5 g
+Fat 44.6 g
+Cholesterol 0.1 mg
+Sodium 1.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/akhrot-kaju-sheera-37334r</t>
+  </si>
+  <si>
+    <t>41121</t>
+  </si>
+  <si>
+    <t>Almond Bhakri, Gluten Free Almond Bhakri</t>
+  </si>
+  <si>
+    <t>1 cup almonds (badam) , soaked for 1 hour in hot and drained
+2 tsp ghee
+salt to taste
+ghee for greasing and cooking</t>
+  </si>
+  <si>
+    <t>5 mins</t>
+  </si>
+  <si>
+    <t>Method
+Peel the almonds.
+Blend the almonds in a mixer to a smooth mixture without using any water.
+Transfer the mixture into a deep bowl, add the ghee and salt and mix well to make a dough without using any water.
+Divide the dough into 6 equal portions.
+Grease the rolling board with ghee, put a portion of the dough and pat it to make a 100 mm. (4”) dimeter circle without using any flour.
+Heat a non-stick tava (griddle) and cook the bhakri using ghee till it turns golden brown in colour from both the sides.
+Repeat steps 5 and 6 to make 5 more bhakris.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 3.5 g
+Carbohydrates 3.2 g
+Fiber 2 g
+Fat 16.5 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-bhakri-gluten-free-almond-bhakri-41121r</t>
+  </si>
+  <si>
+    <t>41134</t>
+  </si>
+  <si>
+    <t>Almond Berry and Coconut Cake, For Fitness and Weight Loss</t>
+  </si>
+  <si>
+    <t>1 cup almonds (badam)
+1/4 tsp sea salt
+1/4 cup coconut oil
+3 tbsp honey
+1 tsp vanilla extract
+1/2 cup freshly grated coconut
+1/2 cup pumpkin seeds
+1/2 cup sunflower seeds (surajmukhi ke beej)
+1/4 cup almond (badam) slivers
+1/4 cup frozen blueberries
+coconut oil for greasing</t>
+  </si>
+  <si>
+    <t>Method
+Soak the almonds in enough hot water, cover with a lid and keep aside for 1 hour. Drain and peel them.
+Blend in a mixer along with the sea salt and blend well. Keep aside.
+Combine the coconut oil, honey, vanilla essence, 1 tbsp of water in a deep bowl and mix well using a spatula.
+Add all the other ingredients including the almond mixture and mix very well using a spatula.
+Grease a 175 mm. ( 7”) diameter aluminium tin with coconut oil, put the mixture into it and even it out using a spatula. Bake in a pre-heated oven at 200ºc (400ºf) for 20 minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 388 cal
+Protein 8.6 g
+Carbohydrates 18.1 g
+Fiber 2.8 g
+Fat 32.3 g
+Cholesterol 0 mg
+Sodium 4.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-berry-and-coconut-cake-for-fitness-and-weight-loss-41134r</t>
+  </si>
+  <si>
+    <t>4965</t>
+  </si>
+  <si>
+    <t>Almond Biscotti</t>
+  </si>
+  <si>
+    <t>5 tbsp cocoa powder
+1/2 cup almonds (badam)
+1 1/2 cups plain flour (maida)
+2 tsp baking powder
+1 tsp cinnamon (dalchini) powder
+1/2 cup castor sugar
+3 eggs
+1 tsp vanilla essence
+oil for greasing</t>
+  </si>
+  <si>
+    <t>Method
+Combine the plain flour, baking powder, cocoa powder, cinnamon powder, castor sugar and almonds in a deep bowl and mix well.
+Add the eggs and vanilla essence, mix well and knead into a soft and sticky dough without using any water.
+Grease your palms with little oil, place the dough on a greased baking tray and spread it with your fingers to form a 200 mm. × 75 mm. (8” x 3”) rectangle.
+Bake it in a pre-heated oven at 160°c (320°f) for 25 minutes. Keep aside to cool completely.
+Once cooled, cut diagonally into 15 thin pieces.
+Arrange them on a baking tray and bake in a pre-heated oven at 160°c (320°f) for 30 minutes or till they are crisp, turning them once after 15 minutes.
+Serve or store it in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 127 cal
+Protein 3.6 g
+Carbohydrates 15.1 g
+Fiber 0.6 g
+Fat 6.2 g
+Cholesterol 0 mg
+Sodium 1.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-biscotti-4965r</t>
+  </si>
+  <si>
+    <t>36871</t>
+  </si>
+  <si>
+    <t>Almond Praline ( Eggless Desserts Recipe)</t>
+  </si>
+  <si>
+    <t>1/2 cup blanched and roasted almonds (badam)
+1/2 cup sugar
+1/2 tsp vanilla essence
+oil for greasing</t>
+  </si>
+  <si>
+    <t>7 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the sugar and vanilla essence in a broad non-stick pan and cook on a medium flame for 5 to 7 minutes or till the sugar melts, while stirring continuously.
+Remove from the flame, add the almonds and mix well.
+Spread the mixture on a greased flat surface and allow it to cool and harden.
+Scrape it out using a palate knife and coarsely powder it using a mortar-pestle (khalbatta).
+Store in an air-tight container and use as required.
+Handy tips:
+As sugar caramelizes quickly, make sure you pay attention during the melting process at step 1.
+Be very careful while making this recipe as hot praline mixture can cause burns very easily.</t>
+  </si>
+  <si>
+    <t>Energy 700 cal
+Protein 10.4 g
+Carbohydrates 97.7 g
+Fiber 0.9 g
+Fat 29.5 g
+Cholesterol 0.1 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-praline--eggless-desserts-recipe-36871r</t>
+  </si>
+  <si>
+    <t>1899</t>
+  </si>
+  <si>
+    <t>Almond Pistachios Praline Triangles</t>
+  </si>
+  <si>
+    <t>1/3 cup coarsely powdered almonds (badam) or pistachios
+2 tbsp melon seeds (charmagaz)
+2 tbsp poppy seeds (khus-khus)
+1/4 tsp cardamom (elaichi) powder
+1/2 cup sugar
+oil to grease</t>
+  </si>
+  <si>
+    <t>Method
+In a heavy bottomed pan, add the sugar and melt it over gentle heat, stirring continuously till the sugar is light brown in colour (caramelised).
+Remove from the fire, add the rest of the ingredients and mix well.
+Pour this mixture onto a greased marble or stone surface.
+Using a large greased rolling pin, roll out the praline as thinly as you can.
+While it is still warm, cut into triangles. Allow it to cool completely.
+Store in an air-tight container.
+Tips
+Sugar burns very quickly, so give it your full attention.
+Remove the sugar from the flame just when it starts to caramelise because it continues to brown even after it is removed from heat.</t>
+  </si>
+  <si>
+    <t>Energy 224 cal
+Protein 3.4 g
+Carbohydrates 24.9 g
+Fiber 0.4 g
+Fat 12.2 g
+Cholesterol 0 mg
+Sodium 0.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-pistachios-praline-triangles-1899r</t>
+  </si>
+  <si>
+    <t>37154</t>
+  </si>
+  <si>
+    <t>A Checkerboard Of Roses ( Flower Arrangements)</t>
+  </si>
+  <si>
+    <t>Thing You Will Need
+a square , flat tray , or a sheet of stone floral foam
+green asparagus of good quality and uniform appearance
+lemongrass
+roses of similar sizes and colours to match your decor
+asparagus ferns ( plumosis)</t>
+  </si>
+  <si>
+    <t>Method
+Soak the piece of foam well in water before placing it on the tray. Keep the tray at the place where you want to set up the arrangement. Slice the foam to a very low height, in keeping with the height of your low dining-table sit-down.
+Depending on their thickness, make four equal-looking bundles of the asparagus, probably using 8 to 10 stems in each. Tie each bundle up with lemongrass and place the bundles along the base of the tray, forming a square. Then tie the four corners with lemongrass to hold the asparagus in place.
+Before using the roses, cut the stems to about 6" to 8" and leave them in water for about 1/2 hour so that they last longer. Here we have chosen pink and white roses.
+Place the roses first in the outer square of the sponge, alternating the white with the pink. Then, in a similar manner, fill up the whole square.
+To finish off, use the asparagus ferns to cover up any spaces where the foam is still visible.
+Handy tip
+If you find asparagus difficult to find, use small drumsticks instead.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/a-checkerboard-of-roses--flower-arrangements-37154r</t>
+  </si>
+  <si>
+    <t>32665</t>
+  </si>
+  <si>
+    <t>Achaari Aloo Roll ( Wraps and Rolls)</t>
+  </si>
+  <si>
+    <t>For Aam ka Achaar
+5 cups raw mangoes , cut into pieces
+1 tsp turmeric powder (haldi)
+1/4 cup fennel seeds (saunf) , coarsely ground
+1 tbsp split fenugreek seeds (methi na kuria)
+2 tbsp split mustard seeds (rai na kuria)
+1/2 tsp nigella seeds (kalonji)
+1/4 tsp asafoetida (hing)
+2 tbsp chilli powder
+3/4 cup mustard (rai / sarson) oil
+4 tbsp salt</t>
+  </si>
+  <si>
+    <t>Method
+For aam ka achaar
+To make aam ka achaar, combine the mangoes, turmeric powder and 2 tbsp of salt and toss well.
+Place the mangoes on a sieve, cover with a muslin cloth and place under the sun for 4 to 6 hours.
+Combine the rest of the ingredients in a bowl and mix well.
+Add the mangoes and toss well.
+Bottle the pickle in a sterilised glass jar. Place the pickle under the sun for 4 to 5 days. This aam ka achaar can be stored for upto 1 year.</t>
+  </si>
+  <si>
+    <t>Energy 507 cal
+Protein 1.9 g
+Carbohydrates 62 g
+Fiber 6.6 g
+Fat 31.1 g
+Cholesterol 0 mg
+Sodium 6208.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ka-achaar-mango-pickle-punjabi-achar-30931r</t>
+  </si>
+  <si>
+    <t>3901</t>
+  </si>
+  <si>
+    <t>Aam ki Launji</t>
+  </si>
+  <si>
+    <t>1 cup peeled raw mango cubes
+2 tbsp oil
+1/2 tsp fennel seeds (saunf)
+1/4 tsp nigella seeds (kalonji)
+1 tbsp coriander (dhania) powder
+1 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+1/4 cup sugar
+salt to taste</t>
+  </si>
+  <si>
+    <t>6 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the fennel seeds and nigella seeds and sauté on a medium flame for a few seconds.
+Add the raw mango cubes, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Add ¼ cup of water, coriander powder, chilli powder, turmeric powder, sugar and salt,mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Allow the launji to cool completely.
+Once cooled, serve or store in an air-tight container and refrigerate.</t>
+  </si>
+  <si>
+    <t>Energy 56 cal
+Protein 0.1 g
+Carbohydrates 7.5 g
+Fiber 0.3 g
+Fat 3.1 g
+Cholesterol 0 mg
+Sodium 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aam-ki-launji-3901r</t>
+  </si>
+  <si>
+    <t>33240</t>
+  </si>
+  <si>
+    <t>Adai, Protein Rich Adai Recipe</t>
+  </si>
+  <si>
+    <t>1/2 cup raw rice (chawal)
+1/4 cup toovar (arhar) dal
+1/4 cup chana dal (split bengal gram)
+1/4 cup urad dal (split black lentils)
+5 to 6 whole dry kashmiri red chillies , broken into pieces
+a pinch of asafoetida (hing)
+2 tbsp freshly grated coconut
+1/4 cup grated carrot
+1/4 cup finely chopped cabbage
+1/2 cup finely chopped onions
+1/4 cup finely chopped coriander (dhania)
+1 tbsp finely chopped curry leaves (kadi patta)
+salt to taste
+3 3/4 tsp oil for cooking</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the rice, dals and dry red chillies in enough water for 2 hours.
+Drain and blend in a mixer to a coarse paste using approx. 1¼ cups of water.
+Transfer the mixture into a deep bowl, add all the remaining ingredients and mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear ¼ tsp of oil over it and along the edges and cook on a medium flame till the adai turns golden brown in colour and crisp.
+Turnover and cook on another side as well.
+Fold over to make a semi-circle.
+Repeat with the remaining batter to make 14 more adais.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 73 cal
+Protein 2.7 g
+Carbohydrates 10.7 g
+Fiber 1.7 g
+Fat 2.2 g
+Cholesterol 0 mg
+Sodium 6.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adai-protein-rich-adai-recipe-33240r</t>
+  </si>
+  <si>
+    <t>534</t>
+  </si>
+  <si>
+    <t>Adai Recipe, Adai Dosa, Breakfast</t>
+  </si>
+  <si>
+    <t>breakfast</t>
+  </si>
+  <si>
+    <t>For Adai Dosa
+1 cup par-boiled rice (ukda chawal)
+1/4 cup toovar (arhar) dal
+1/4 cup chana dal (split bengal gram)
+2 tbsp urad dal (split black lentils)
+1 tsp roughly chopped ginger (adrak)
+4 dry red chillies (pandi)
+4 black peppercorns (kalimirch)
+1/2 tsp cumin seeds (jeera)
+1/4 cup finely chopped onions
+1/4 tsp asafoetida (hing)
+1 tbsp chopped curry leaves (kadi patta)
+2 tbsp grated coconut
+salt to taste
+coconut oil or oil for cooking
+For Serving With Adai Dosa
+coconut chutney</t>
+  </si>
+  <si>
+    <t>Method
+For adai dosa
+To make adai dosas, combine the rice, dals, ginger, peppercorns and red chillies in enough water in a deep bowl and keep aside to soak for 2 hours. Drain the water.
+Blend the mixture in a mixer to a coarse mixture using approx. 1¼ cup of water.
+Transfer the mixture into a deep bowl, add the onions, grated coconut, curry leaves, cumin seeds, asafoetida and salt. Mix well.
+Heat a non-stick tava (griddle), sprinkle a little water on the tava (griddle) and wipe it off gently using a muslin cloth.
+Pour a ladleful of the batter on it and spread it in a circular motion to make a 175 mm. (7”) diameter thin circle.
+Smear a little coconut oil over it and along the edges and cook on a medium flame till the adai dosa turns golden brown in colour and crisp.
+Turn over and cook on the other side as well.
+Fold over to make a semi-circle.
+Repeat with the remaining batter to make 9 more adai dosas.
+Serve the adai dosa immediately with coconut chutney.</t>
+  </si>
+  <si>
+    <t>Energy 114 cal
+Protein 3.8 g
+Carbohydrates 21.7 g
+Fiber 1.8 g
+Fat 1.4 g
+Cholesterol 0 mg
+Sodium 6.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/adai-recipe-adai-dosa-breakfast-534r</t>
+  </si>
+  <si>
+    <t>2850</t>
+  </si>
+  <si>
+    <t>Adrak Aur Ganne ka Slush, Sugarcane and Ginger Slush</t>
+  </si>
+  <si>
+    <t>30922</t>
+  </si>
+  <si>
+    <t>achari chana pulao | achari pulao | chickpea pulao | pickled kabuli chana pulao |</t>
+  </si>
+  <si>
+    <t>lunch box</t>
+  </si>
+  <si>
+    <t>For Achari Chana Pulao
+2 tbsp aam ka achaar
+1/2 cup soaked and boiled kabuli chana (white chick peas)
+1 1/4 cups long grained rice (basmati)
+2 tbsp melted ghee
+1 tsp fennel seeds (saunf)
+1 tsp mustard seeds ( rai / sarson)
+1 tsp fenugreek (methi) seeds
+1 tsp nigella seeds (kalonji)
+2 black cardamom (badi elaichi)
+1/2 tsp cumin seeds (jeera)
+1/2 tsp asafoetida (hing)
+1/2 cup sliced onions
+1 tsp ginger-garlic (adrak-lehsun) paste
+1/2 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp garam masala
+salt to taste
+For The Garnish
+2 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For achari chana pulao
+To make achari chana pulao, blend the mango pickle in a mixer to a coarse paste. Keep aside.
+Clean, wash and soak the rice for 10 minutes. Drain and keep aside.
+Heat the ghee in a pressure cooker, add the fennel seeds, mustard seeds, fenugreek seeds, nigella seeds, big cardamom, cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+When the seeds crackle, add the onions and sauté on a medium flame for 1 to 2 minutes.
+Add the ginger-garlic paste, kabuli chana, turmeric powder, chilli powder, garam masala, salt and the prepared pickle paste, mix well and cook on a medium flame for 1 minute.
+Add the rice, mix well and cook on a medium flame for 1 minute.
+Add the 2½ cups hot water, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Serve achari chana pulao hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 475 cal
+Protein 6.1 g
+Carbohydrates 66.9 g
+Fiber 5.9 g
+Fat 20.2 g
+Cholesterol 0 mg
+Sodium 7784.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/achari-chana-pulao-pickled-kabuli-chana-pulao-30922r</t>
+  </si>
+  <si>
+    <t>4808</t>
+  </si>
+  <si>
+    <t>Almond Til Chikki ( Calcium Rich Recipes)</t>
+  </si>
+  <si>
+    <t>1/4 cup black sesame seeds (kala til)
+1/2 cup thinly sliced almonds (badam)
+1/3 cup grated jaggery (gur)
+1 tsp ghee
+Other Ingredients
+1/2 tsp ghee for greasing</t>
+  </si>
+  <si>
+    <t>Method
+Roast the sesame seeds for a few minutes over a medium flame till they are light golden in colour. Cool and keep aside. Repeat with the almonds.
+Grease the back of a flat thali or a stone surface with a little ghee and keep aside.
+Heat the ghee in a pan and add the jaggery.
+Simmer over a slow flame while stirring continuously till the jaggery melts and caramelizes and forms a hard ball when you add a drop in cold water. Remove from the flame.
+Add the roasted sesame seeds and almonds and mix thoroughly with the melted jaggery. You may need to put off the flame during this process.
+When the mixture is ready, pour the entire mixture over the greased thali or a smooth stone surface. Roll the chikki out into thin sheets using a greased rolling pin.
+When cool, cut into square pieces. Store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 75 cal
+Protein 1.6 g
+Carbohydrates 6 g
+Fiber 0.6 g
+Fat 4.9 g
+Cholesterol 0 mg
+Sodium 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-til-chikki--calcium-rich-recipes-4808r</t>
+  </si>
+  <si>
+    <t>2419</t>
+  </si>
+  <si>
+    <t>aloo matar chaat recipe | aloo green peas chaat | Mumbai roadside aloo green peas chaat |</t>
+  </si>
+  <si>
+    <t>For Aloo and Green Peas Chaat
+1 cup boiled and peeled potato cubes
+1/4 cup boiled green peas
+1 tbsp oil
+1 tsp finely chopped green chillies
+1 tsp chaat masala
+1 tsp lemon juice
+salt to taste
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For aloo and green peas chaat
+To make aloo green peas chaat, heat the oil in a broad non-stick pan, add the potatoes and cook on a medium flame for 3 to 4 minutes or till the potatoes are brown in colour.
+Add the remaining ingredients, mix well and cook on a medium flame for 1 to 2 minutes.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 131 cal
+Protein 2 g
+Carbohydrates 13.7 g
+Fiber 2.4 g
+Fat 7.6 g
+Cholesterol 0 mg
+Sodium 144.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-and-green-peas-chaat-2419r</t>
+  </si>
+  <si>
+    <t>30810</t>
+  </si>
+  <si>
+    <t>Almond Til Chikki</t>
+  </si>
+  <si>
+    <t>1/4 cup black sesame seeds (kala til)
+1/2 cup powdered almonds (badam)
+1/3 cup grated jaggery (gur)
+1 tsp ghee
+1/2 tsp ghee for greasing</t>
+  </si>
+  <si>
+    <t>Method
+Heat a non-stick pan, add the sesame seeds and almonds and roast over a slow flame till they turn light golden in colour. Remove and keep aside to cool.
+Heat the ghee in the same pan, add the jaggery and simmer over a slow flame while stirring continuously, till the jaggery melts and caramelizes and forms a hard ball when you add a drop in a bowlful of cold water. Remove from the flame.
+Add the roasted sesame seeds and almonds and mix thoroughly.
+When slightly cool, divide the mixture into 10 equal pieces and shape each portion into rounds or mould into desire shapes, using different moulds or cookie cutters as shown in the picture.
+Cool completely and store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/almond-til-chikki-30810r</t>
+  </si>
+  <si>
+    <t>38563</t>
+  </si>
+  <si>
+    <t>Aloo Chaat ( Punjabi Khana)</t>
+  </si>
+  <si>
+    <t>3 cups boiled and peeled potato cubes
+2 tbsp oil
+1 tbsp roughly chopped green chillies
+1/4 cup finely chopped coriander (dhania)
+2 tbsp finely chopped mint leaves (phudina)
+2 tsp chopped ginger (adrak)
+2 tsp chaat masala
+1 tbsp lemon juice
+salt to taste
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the potatoes and cook on a medium flame for 4 to 5 minutes or till they turn light golden brown in colour. Keep aside.
+Combine the green chillies, coriander, mint leaves and ginger in a mixer and blend to a smooth paste using little water.
+Transfer the paste into a deep bowl, add all the remaining ingredients and toss gently.
+Serve immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 212 cal
+Protein 2.5 g
+Carbohydrates 33.2 g
+Fiber 2.7 g
+Fat 7.7 g
+Cholesterol 0 mg
+Sodium 155.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-chaat---punjabi-khana-38563r</t>
+  </si>
+  <si>
+    <t>2582</t>
+  </si>
+  <si>
+    <t>aloo chaat recipe | Indian aloo chaat | aloo chaat using baby potatoes | quick and easy aloo chaat |</t>
+  </si>
+  <si>
+    <t>For Aloo Chaat
+16 boiled and peeled baby potatoes
+1/4 cup chopped onions
+1/4 cup chopped tomatoes
+1 1/2 tsp lemon juice
+1 tsp chaat masala
+1 tbsp chopped coriander (dhania)
+salt to taste</t>
+  </si>
+  <si>
+    <t>2 mins</t>
+  </si>
+  <si>
+    <t>Method
+For aloo chaat
+Cut the baby potatoes into 2 horizontally.
+Combine the potatoes, onions and tomatoes in a deep bowl and mix well.
+Add the lemon juice, chaat masala, coriander and a little salt and toss well.
+Serve the aloo chaat immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-chaat-2582r</t>
+  </si>
+  <si>
+    <t>32655</t>
+  </si>
+  <si>
+    <t>aloo frankie recipe | how to make aloo frankie | Mumbai street food Aloo Frankie | potato Frankie |</t>
+  </si>
+  <si>
+    <t>For The Aloo Frankie Stuffing
+1 3/4 cups boiled , peeled and mashed potatoes
+1 1/2 tbsp butter
+1 tsp ginger-garlic (adrak-lehsun) paste
+3/4 tsp chilli powder
+1 tsp garam masala
+1/2 tsp chaat masala
+1 tbsp finely chopped coriander (dhania)
+salt to taste
+To Be Mixed Into A Onion Masala Mixture
+1/2 cup finely chopped onions
+3/4 tsp chilli powder
+1/2 tsp dried mango powder (amchur)
+salt to taste
+To Be Mixed Into Masala Water
+3 tbsp water
+1/2 tsp chilli powder
+1 tsp dried mango powder (amchur)
+1/4 tsp garam masala
+salt to taste
+Other Ingredients For Aloo Frankie
+4 rotis
+4 tsp green chillies in , refer handy tip</t>
+  </si>
+  <si>
+    <t>3 mins</t>
+  </si>
+  <si>
+    <t>Method
+For the aloo frankie stuffing
+Heat the butter in a broad non-stick pan, add the ginger-garlic paste and sauté on a medium flame for 30 seconds.
+Add the potatoes, chili powder, garam masala, chaat masala, coriander and salt, mix well and cook for 1 to 2 minutes. Keep aside.
+How to proceed to make aloo frankie
+Place a roti on a clean dry surface and spread ¼th of the potato stuffing in a single row in the centre of the roti.
+Drizzle ¼th of the masala water and 1 tsp of chillies in the vinegar evenly over it.
+Sprinkle ¼th of the onion masala mixture on it and roll it up tightly.
+Repeat with the remaining ingredients to make 3 more aloo frankies.
+Wrap a tissue paper around each aloo frankie and serve immediately.
+Handy tip
+For chillies in vinegar, mix 1 tbsp of vinegar and 1 tsp finely chopped green chillies in a bowl and mix well.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-frankie---wraps-and-rolls-32655r</t>
+  </si>
+  <si>
+    <t>40784</t>
+  </si>
+  <si>
+    <t>aloo ki sukhi sabzi recipe | aloo sabzi | sukhi aloo sabzi | dry Indian potato vegetable | dry aloo sabzi |</t>
+  </si>
+  <si>
+    <t>For Aloo ki Sukhi Sabzi
+2 cups boiled and peeled potato cubes
+1 tbsp oil
+1 tsp cumin seeds (jeera)
+3 to 4 curry leaves (kadi patta)
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1 1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tbsp sugar
+2 tsp lemon juice
+salt to taste
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For aloo ki sukhi sabzi
+To make aloo ki sabzi
+When the seeds crackle add the curry leaves and sauté on a medium flame for 30 seconds.
+Add all the remaining ingredients, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Serve the aloo ki sabzi</t>
+  </si>
+  <si>
+    <t>Energy 194 cal
+Protein 2.2 g
+Carbohydrates 34.8 g
+Fiber 2.4 g
+Fat 5.2 g
+Cholesterol 0 mg
+Sodium 15.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-ki-sukhi-sabzi-40784r</t>
+  </si>
+  <si>
+    <t>22374</t>
+  </si>
+  <si>
+    <t>Aloo Gobhi Ka Pulao</t>
+  </si>
+  <si>
+    <t>3/4 cup potato cubes
+1 cup cauliflower florets
+3/4 cup rice (chawal) , soaked for 15 minutes and drained
+2 tsp ghee
+1/2 tsp cumin seeds (jeera)
+25 mm (1”) cinnamon (dalchini)
+3 cloves (laung / lavang)
+1 bayleaf (tejpatta)
+1/4 tsp turmeric powder (haldi)
+1/2 tsp chilli powder
+salt to taste
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>13 mins</t>
+  </si>
+  <si>
+    <t>17 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the ghee in a pressure cooker, add the cumin seeds, cinnamon, cloves and bayleaf and sauté on a medium flame for a few seconds.
+Add the rice and sauté on a slow flame for 2 minutes.
+Add the potatoes, cauliflower, turmeric powder, chilli powder, salt and 2 cups of water, mix well and pressure cook on a medium flame for 2 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 148 cal
+Protein 2.8 g
+Carbohydrates 28.1 g
+Fiber 2.2 g
+Fat 2.7 g
+Cholesterol 0 mg
+Vitamin A 32.2 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 1 mg
+Vitamin C 13.3 mg
+Calcium 10.8 mg
+Iron 0.5 mg
+Folic Acid 5.3 mcg
+Sodium 11.7 mg
+Potassium 68.1 mg
+Zinc 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-gobhi-ka-pulao-22374r</t>
+  </si>
+  <si>
+    <t>22792</t>
+  </si>
+  <si>
+    <t>aloo gobi dry recipe | Punjabi aloo gobi | aloo gobhi ki sabzi | potatoes and cauliflower vegetable |</t>
+  </si>
+  <si>
+    <t>For Aloo Gobi
+1 cup roughly chopped potatoes
+1 1/2 cups cauliflower florets
+1 1/2 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+2 whole dry kashmiri red chillies , broken into pieces
+1 tsp finely chopped ginger (adrak)
+1 tsp finely chopped garlic (lehsun)
+1 tsp finely chopped green chillies
+salt to taste
+1/4 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1/2 tsp garam masala
+1/2 tsp dried mango powder (amchur)
+For The Garnish
+a sprig of coriander (dhania)
+For Serving With Aloo Gobi
+parathas/rotis</t>
+  </si>
+  <si>
+    <t>Method
+For aloo gobi
+To make aloo gobi, heat the oil in a deep non-stick kadhai, and add the cumin seed and asafoetida.
+When the seeds crackle, add the dry red chillies, ginger, garlic and green chillies and sauté on a medium flame or a few seconds.
+Add the potatoes, mix well and cover and cook on a medium flame for 3 to 4 minutes, while stirring occasionally.
+Add the cauliflower, salt and 1 tbsp of water, mix well and cover and cook on a medium flame for 5 to 7 minutes, while stirring occasionally.
+Add the turmeric powder, chilli powder, garam masala and dried mango powder, mix well and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Garnish the aloo gobi subzi with a sprig of coriander and serve hot with parathas or rotis.</t>
+  </si>
+  <si>
+    <t>Energy 208 cal
+Protein 3 g
+Carbohydrates 23.7 g
+Fiber 3.7 g
+Fat 11.3 g
+Cholesterol 0 mg
+Sodium 39.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-gobi-aloo-gobhi-recipe-22792r</t>
+  </si>
+  <si>
+    <t>41958</t>
+  </si>
+  <si>
+    <t>Aloo Fry Recipe, How To Make Potato Fry</t>
+  </si>
+  <si>
+    <t>2 cups potato cubes
+2 tbsp mustard (rai / sarson) oil
+1/4 tsp turmeric (haldi) powder
+1 tsp kashmiri red chilli powder
+1/2 tsp red chilli powder
+1 tsp coriander (dhania) powder
+1 tsp cumin seeds (jeera) powder
+1/4 tsp asafoetida (hing)
+1/2 tsp garam masala
+1/2 tsp dried mango powder (amchur)
+salt to taste
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>14 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-sick pan, add the potatoes and sauté on a medium flame for 6 to 7 minutes.
+Add the turmeric, kashmiri red chilli powder, red chilli powder, coriander powder, cumin seeds powder, asafoetida, garam masala, and salt , mix well and sauté on a medium flame for 7 minutes.
+Switch off the flame, add the dried mango powder and coriander and mix well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 1 g
+Carbohydrates 14 g
+Fiber 1.1 g
+Fat 10.1 g
+Cholesterol 0 mg
+Sodium 7.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-fry-recipe-how-to-make-potato-fry-41958r</t>
+  </si>
+  <si>
+    <t>30960</t>
+  </si>
+  <si>
+    <t>Aloo Khaas</t>
+  </si>
+  <si>
+    <t>2 cups thickly sliced potatoes
+3 tbsp ghee
+1/2 tsp cumin seeds (jeera)
+1/2 tsp aniseeds (vilayati saunf)
+1/4 tsp nigella seeds (kalonji)
+1/4 tsp fenugreek (methi) seeds
+3 whole dry kashmiri red chillies , broken into pieces
+2 tsp ginger-garlic (adrak-lehsun) paste
+1/2 cup thinly sliced onions
+1/4 tsp turmeric powder (haldi)
+salt to taste
+1/2 tsp chaat masala
+For The Garnish
+2 tsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the ghee in a deep non-stick kadhai, add the cumin seeds, aniseeds, nigella seeds, fenugreek seeds and red chillies
+When the seeds crackle, add the ginger-garlic paste and sauté on a medium flame for a few seconds.
+Add the onions and sauté on a medium flame for 5 minutes.
+Add the turmeric powder, potatoes and salt, mix well and cover with a lid and cook on a slow flame for 8 minutes or till the potatoes are cooked, while stirring occasionally.
+Add the chaat masala and mix well.
+Serve immediately garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 0.9 g
+Carbohydrates 12 g
+Fiber 0.9 g
+Fat 13.1 g
+Cholesterol 0 mg
+Vitamin A 128.5 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0 mg
+Vitamin B3 0.6 mg
+Vitamin C 9.3 mg
+Folic Acid 8.8 mcg
+Calcium 9.5 mg
+Iron 0.3 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 5.7 mg
+Potassium 131.3 mg
+Zinc 0.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-khaas-30960r</t>
+  </si>
+  <si>
+    <t>33365</t>
+  </si>
+  <si>
+    <t>aloo gobi ka pulao recipe | cauliflower pulao | Indian gobi pulao in pressure cooker | cauliflower rice pulao |</t>
+  </si>
+  <si>
+    <t>For Aloo Gobi ka Pulao
+3/4 cup peeled potato cubes
+1 cup cauliflower florets
+1 1/2 cups long grain rice (basmati chawal) , soaked and drained
+2 tbsp ghee
+25 mm cinnamon (dalchini)
+5 to 6 cloves (laung / lavang)
+2 bay leaves (tejpatta)
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+salt to taste
+For The Garnish
+2 tbsp coarsely crushed papad</t>
+  </si>
+  <si>
+    <t>Method
+For aloo gobi ka pulao
+To make aloo gobi ka pulao, heat the ghee in a pressure cooker, add the cinnamon, cloves and bayleaves and sauté on a medium flame for a few seconds.
+Add the rice and sauté on a medium flame for 1 to 2 minutes.
+Add the, cauliflower, potatoes, turmeric powder, chilli powder and salt and sauté on a medium flame for 1 minute.
+Add 3½ cups of hot water, mix well and pressure cook for 2 whistles.
+Allow the steam to escape before opening the lid.
+Serve hot aloo gobi ka pulao garnished with papad.</t>
+  </si>
+  <si>
+    <t>Energy 304 cal
+Protein 5.2 g
+Carbohydrates 55.2 g
+Fiber 1.2 g
+Fat 6.9 g
+Cholesterol 0 mg
+Sodium 16.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-gobi-ka-pulao-in-pressure-cooker-cauliflower-pulao-33365r</t>
+  </si>
+  <si>
+    <t>4924</t>
+  </si>
+  <si>
+    <t>Aloo Kand Chaat ( Microwave Recipe)</t>
+  </si>
+  <si>
+    <t>1 cup potatoes peeled and cubed
+1 cup purple yam (kand) , peeled and cubed
+1/4 cup chopped onions
+1/4 cup chopped coriander (dhania)
+2 tbsp chopped mint leaves (phudina)
+1 tsp butter
+To Be Mixed Together Into A Masala
+1/2 tsp chilli powder
+1 tsp roasted cumin seeds (jeera) powder
+1/2 tsp dried mango powder (amchur) (amchur)
+1/2 tsp black salt (sanchal)
+1/2 tsp sugar
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine the potatoes, kand and butter in a bowl, add 1teaspoon of water and mix well and microwave on high for 6 minutes, stirring once in between after 3 minutes.
+Add the onions, coriander, mint and the mixed masala and mix well.</t>
+  </si>
+  <si>
+    <t>Energy 95 cal
+Protein 1.5 g
+Carbohydrates 20.7 g
+Fiber 2.4 g
+Fat 0.7 g
+Cholesterol 1.9 mg
+Sodium 15.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-kand-chaat--microwave-recipe-4924r</t>
+  </si>
+  <si>
+    <t>22789</t>
+  </si>
+  <si>
+    <t>Aloo Methi</t>
+  </si>
+  <si>
+    <t>For Aloo Methi
+1 1/2 cups boiled and peeled potato cubes
+4 cups chopped fenugreek (methi) , washed and drained
+salt to taste
+4 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+1 tsp finely chopped green chillies
+2 whole dry kashmiri red chillies , broken into pieces
+1/2 tsp turmeric powder (haldi)
+2 tsp coriander-cumin seeds (dhania-jeera) powder</t>
+  </si>
+  <si>
+    <t>9 mins</t>
+  </si>
+  <si>
+    <t>Method
+Aloo methi
+To make aloo methi, place the fenugreek leaves in a deep bowl, sprinkle a little salt over it, toss well and keep aside for 15 minutes.
+Squeeze out all the water from the fenugreek leaves and keep aside. Discard the squeezed water.
+Heat the oil in a deep non-stick pan, add the cumin seeds and asafoetida and sauté on a medium flame for a few seconds.
+When the seeds crackle, add the garlic, ginger, green chillies and red chillies and sauté on a medium flame for 30 seconds.
+Add the turmeric powder and potatoes, mix gently and cook on a medium flame for 5 minutes, while stirring occasionally.
+Add the fenugreek leaves, coriander-cumin seeds powder and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve the aloo methi sabzi hot.</t>
+  </si>
+  <si>
+    <t>Energy 244 cal
+Protein 2.4 g
+Carbohydrates 12.8 g
+Fiber 4.2 g
+Fat 20.4 g
+Cholesterol 0 mg
+Sodium 33.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-methi-22789r</t>
+  </si>
+  <si>
+    <t>42434</t>
+  </si>
+  <si>
+    <t>aloo matar ki sukhi sabzi recipe | dry aloo matar sabzi | quick Indian aloo matar | potato peas sabzi |</t>
+  </si>
+  <si>
+    <t>1 1/2 cups potato cubes
+1/2 cup green peas
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+salt to taste
+1 tsp chilli powder
+1/2 tsp cumin seeds (jeera) powder
+1 1/2 tsp coriander (dhania) powder
+1/4 tsp turmeric powder (haldi)
+1/2 tsp garam masala
+1/4 tsp dried mango powder (amchur)
+1/4 tsp chaat masala
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>12 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-stick pan and add the cumin seeds and asafoetida.
+When the seeds crackle, add the potatoes, green peas and little salt and sauté on a medium flame for 8 minutes.
+Add the chilli powder, cumin seeds powder, coriander powder, turmeric powder and garam masala, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add ¼ cup of water and salt, mix gently and cover with a lid and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the dried mango powder, chaat masala and coriander, mix gently and cook on a medium flame for 1 minute, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 157 cal
+Protein 2.5 g
+Carbohydrates 14.2 g
+Fiber 2.9 g
+Fat 10.1 g
+Cholesterol 0 mg
+Sodium 8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-matar-ki-sukhi-sabzi-dry-aloo-matar-42434r</t>
+  </si>
+  <si>
+    <t>22201</t>
+  </si>
+  <si>
+    <t>Aloo Mutter Korma, Punjabi Aloo Matar Korma</t>
+  </si>
+  <si>
+    <t>1 cup boiled potato cubes
+3/4 cup boiled fresh green peas
+1 tbsp oil
+1/2 tsp cumin seeds (jeera)
+1/2 cup chopped onions
+1/2 tsp ginger-green chilli paste
+1/2 tsp garlic (lehsun) paste
+1 cup chopped tomatoes
+1/2 tsp turmeric powder (haldi)
+1 tsp chilli powder
+1/2 tsp garam masala
+1/2 tsp sugar
+salt to taste
+For The Garnish
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-stick pan, add the cumin seeds and sauté on a medium flame for a few seconds.
+Add the onions and sauté on medium flame for 1 minute.
+Add the ginger-green chilli paste, garlic paste and sauté on a medium flame for a few seconds.
+Add the tomatoes, mix well and cook on medium flame for 8 minutes ,while stirring occasionally.
+Add the turmeric powder, chilli powder, garam masala, sugar, salt and ¼ cup of water, mix well and cook medium flame for 2 minutes, while stirring occasionally.
+Add the green peas, potatoes and ¼ cup of water, mix gently and cook on medium flame for 2 minutes, while stirring occasionally.
+Serve hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 99 cal
+Protein 2.8 g
+Carbohydrates 13.1 g
+Fiber 3.4 g
+Fat 3.9 g
+Cholesterol 0 mg
+Sodium 10.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-mutter-korma-punjabi-aloo-matar-korma-22201r</t>
+  </si>
+  <si>
+    <t>31035</t>
+  </si>
+  <si>
+    <t>Aloo Mutter, Alu Matar Recipe</t>
+  </si>
+  <si>
+    <t>2 tbsp oil
+1/2 cup cumin seeds (jeera)
+3/4 cup chopped onions
+2 tsp ginger-green chilli paste
+1/2 tsp garlic (lehsun) paste
+1 cup chopped tomatoes
+a pinch of turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp garam masala
+1 cup boiled green peas
+1 1/2 cups boiled , peeled and mashed potatoes
+salt to taste
+For The Garnish
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a pan and add the cumin seeds.
+When they crackle, add the onions and sauté till they are translucent.
+Add the ginger-green chilli paste, garlic paste and tomatoes and sauté till the tomatoes are cooked.
+Add the turmeric powder, chilli powder, garam masala, green peas and potatoes and cook for some time.
+Add 1½ cups of water and salt and allow it to come to boil.
+Mash 2 to 3 potato cubes in the pan to thicken the gravy. Simmer till the gravy thickens.
+Serve hot garnished with the coriander.</t>
+  </si>
+  <si>
+    <t>Energy 154 cal
+Protein 3.7 g
+Carbohydrates 17.5 g
+Fiber 4.4 g
+Fat 7.7 g
+Cholesterol 0 mg
+Sodium 12.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-mutter--alu-matar-recipe-31035r</t>
+  </si>
+  <si>
+    <t>4323</t>
+  </si>
+  <si>
+    <t>aloo matar recipe | aloo matar sabzi | aloo mutter | aloo matar ki sabji | Punjabi aloo matar |</t>
+  </si>
+  <si>
+    <t>For Aloo Matar
+1 1/2 cups potatoes boiled , peeled and cubed
+1 cup boiled green peas
+1/2 tsp cumin seeds (jeera)
+3/4 cup chopped onions
+1 tsp finely chopped ginger (adrak)
+1 tsp green chilli paste
+1/2 tsp finely chopped garlic (lehsun)
+1 cup chopped tomatoes
+a pinch of turmeric powder (haldi)
+1/2 tsp chilli powder
+1/2 tsp garam masala
+2 tbsp oil
+salt to taste
+For The Garnish
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For aloo matar
+Heat the oil and add the cumin seeds and allow them to crackle. When they crackle, add the onions and sauté till they are translucent.
+Add the garlic, ginger,green chilli paste and tomatoes and simmer till the tomatoes are cooked. Mash lightly using a potato masher and add 1 tbsp water.
+Add the green peas,potatoes, salt,chilli powder, garam masala and and cook for 3 to 4 minutes.
+Add 1 cup of water and allow it to come to a boil.
+Mash 2 to 3 pieces of potatoes in the pan to thicken the gravy. Simmer till the aloo matar gravy thickens.
+Garnish the aloo matar with the coriander and serve hot with rotis or parathas.</t>
+  </si>
+  <si>
+    <t>Energy 155 cal
+Protein 3.7 g
+Carbohydrates 17.7 g
+Fiber 4.4 g
+Fat 7.7 g
+Cholesterol 0 mg
+Sodium 12.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-matar-aloo-matar-sabzi-4323r</t>
+  </si>
+  <si>
+    <t>2417</t>
+  </si>
+  <si>
+    <t>aloo masala chaat recipe | masaledar chatpata aloo chaat | aloo chaat masala |</t>
+  </si>
+  <si>
+    <t>For Aloo Masala Chaat
+2 cups boiled and peeled potato cubes
+1 tsp chaat masala
+1 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tbsp oil
+1/2 tsp finely chopped ginger (adrak)
+1 tsp finely chopped green chillies
+1/2 cup grated tomatoes
+1/4 tsp chilli powder
+1/2 tbsp pomegranate (anardana) powder
+salt to taste
+2 tbsp water
+1 1/2 tsp lemon juice
+For The Garnish
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For aloo masala chaat
+To make aloo masala chaat, combine the potatoes, chaat masala and coriander-cumin seeds powder in a bowl and mix lightly. Keep aside.
+Heat the oil in a broad non-stick pan, add the ginger and green chillies and sauté on a medium flame for a few seconds.
+Add the tomatoes and cook on medium flame for 2 minutes, while stirring occasionally.
+Add the chilli powder, pomegranate powder and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally.
+Add the potato mixture and 2 tbsp water, mix gently and cook on a medium flame for 1 to 2 minutes, while stirring occasionally.
+Switch off the flame, add the lemon juice and mix gently.
+Serve the aloo masala chaat hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 174 cal
+Protein 2.1 g
+Carbohydrates 23.9 g
+Fiber 2.8 g
+Fat 7.8 g
+Cholesterol 0 mg
+Sodium 18.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-masala-chaat-2417r</t>
+  </si>
+  <si>
+    <t>22364</t>
+  </si>
+  <si>
+    <t>Aloo Posto, Bengali Aloo Posto</t>
+  </si>
+  <si>
+    <t>For Aloo Posto
+2 tbsp poppy seeds (khus-khus)
+2 tsp oil
+2 whole dry kashmiri red chillies , broken
+1/2 tsp turmeric powder (haldi)
+4 cups boiled potato cubes
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat a non-stick pan and dry roast the poppy seeds till they turn pink. Coarsely grind them in a mixer and keep aside.
+Heat the oil in the same pan, add the red chillies, turmeric powder and ground poppy seeds and sauté for a minute.
+Add the potatoes and salt and sauté for 2 to 3 more minutes.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 112 cal
+Protein 1.5 g
+Carbohydrates 20.8 g
+Fiber 1.6 g
+Fat 2.6 g
+Cholesterol 0 mg
+Sodium 10.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-posto-bengali-aloo-posto-22364r</t>
+  </si>
+  <si>
+    <t>22488</t>
+  </si>
+  <si>
+    <t>Aloo Palak ( Microwave )</t>
+  </si>
+  <si>
+    <t>4 cups finely chopped spinach (palak)
+1 1/2 cups peeled and boiled potatoes
+1 tsp cumin seeds (jeera)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+2 whole dry kashmiri red chillies
+2 tsp coriander (dhania) powder
+1/2 tsp turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+3 tbsp oil
+salt to taste</t>
+  </si>
+  <si>
+    <t>8 mins</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a microwave safe bowl and microwave for 30 seconds.
+Add the cumin seeds and micorwave for 1 minute.
+Add the ginger, garlic and chillies, mix well and microwave for 30 seconds.
+Add the potatoes, mix well and microwave for 3 minutes, while stirring twice in between.
+Add the spinach,coriander powder, turmeric powder and asafoetida, mix well and cover and cook in a microwave for 3 minutes, while stirring twice in between.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 154 cal
+Protein 1.9 g
+Carbohydrates 10.1 g
+Fiber 2.3 g
+Fat 11.8 g
+Cholesterol 0 mg
+Vitamin A 3904.3 mcg
+Vitamin B1 0.1 mg
+Vitamin B2 0.2 mg
+Vitamin B3 0.8 mg
+Vitamin C 25.2 mg
+Folic Acid 89.8 mcg
+Calcium 53.2 mg
+Iron 0.9 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 44 mg
+Potassium 229 mg
+Zinc 0.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-palak--microwave--22488r</t>
+  </si>
+  <si>
+    <t>22499</t>
+  </si>
+  <si>
+    <t>Aloo Poshto, Microwave Recipe</t>
+  </si>
+  <si>
+    <t>2 cups potato cubes
+2 tbsp poppy seeds (khus-khus)
+1 tsp roughly chopped green chillies
+4 tsp oil
+3 whole dry kashmiri red chillies , broken into pieces
+1/4 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Place the poppy seeds on a microwave-proof plate, and microwave on high for 2 minutes.
+Coarsely grind in a mixer along with the green chillies till smooth. Keep aside.
+Combine the potatoes with 2 tsp of oil in a microwave safe flat plate and microwave on high for 8 minutes, while stirring once in between. Keep aside.
+Combine the remaining 2 tsp of oil, dry red chillies, turmeric powder and ground poppy seeds in a microwave-safe bowl, mix well and microwave on high for 30 seconds.
+Add the potatoes and salt, mix gently and microwave on high for 1 minute.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 179 cal
+Protein 1.5 g
+Carbohydrates 20.8 g
+Fiber 1.6 g
+Fat 10.1 g
+Cholesterol 0 mg
+Sodium 10.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-poshto-microwave-recipe-22499r</t>
+  </si>
+  <si>
+    <t>33353</t>
+  </si>
+  <si>
+    <t>aloo mutter curry recipe | aloo matar using a pressure cooker | Punjabi aloo matar |</t>
+  </si>
+  <si>
+    <t>dinner</t>
+  </si>
+  <si>
+    <t>For Aloo Mutter
+1 1/2 cups potato cubes
+1 cup green peas
+2 tbsp oil
+1 tsp cumin seeds (jeera)
+1/2 cup finely chopped onions
+1 tsp finely chopped ginger (adrak)
+1 tbsp finely chopped garlic (lehsun)
+1 1/2 tsp finely chopped green chillies
+1/2 cup tomato puree
+1/2 tsp turmeric powder (haldi)
+1 1/2 tsp chilli powder
+1 1/2 tsp coriander-cumin seeds (dhania-jeera) powder
+1 tsp garam masala
+1/2 tsp sugar
+salt to taste
+For The Garnish
+2 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For aloo mutter
+To make aloo matar, heat the oil in a pressure cooker, add the cumin seeds and sauté for 30 seconds.
+Add the onions, ginger, garlic and green chillies and sauté on a medium flame for 2 minutes.
+Add the tomato purée, turmeric powder, chilli powder, coriander- cumin seeds powder and garam masala, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the potatoes, green peas, ¾ cup of hot water, sugar and salt, mix well and pressure cook on a medium flame for 3 whistles.
+Allow the steam to escape before opening the lid.
+Serve aloo matar hot garnished with coriander.</t>
+  </si>
+  <si>
+    <t>Energy 152 cal
+Protein 3.7 g
+Carbohydrates 17 g
+Fiber 4.5 g
+Fat 7.7 g
+Cholesterol 0 mg
+Sodium 13.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-mutter-aloo-matar-pressure-cooker-33353r</t>
+  </si>
+  <si>
+    <t>30887</t>
+  </si>
+  <si>
+    <t>Aloo Palak</t>
+  </si>
+  <si>
+    <t>For Aloo Palak
+1 1/2 cups boiled , peeled and potato cubes
+4 cups finely chopped spinach (palak)
+3 tbsp oil
+1 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1 tsp chopped garlic (lehsun)
+1 tsp chopped ginger (adrak)
+1 tsp finely chopped green chillies
+2 whole dry kashmiri red chillies , broken into pieces
+2 tsp coriander (dhania) powder
+1/2 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For aloo palak
+To make aloo palak, heat the oil in a broad non-stick pan and add the cumin seeds and asafoetida and sauté on a medium flame for 30 seconds.
+Add the garlic, ginger, green chillies, red chillies and sauté on a medium flame for 1 minute.
+Add the potatoes, toss gently and cook on a medium flame for 5 minutes, while stirring occasionally.
+Add the spinach, coriander powder, turmeric powder and salt, mix well and cook on a medium flame 3 minutes, while stirring occasionally.
+Serve the aloo palak hot.</t>
+  </si>
+  <si>
+    <t>Energy 203 cal
+Protein 2.5 g
+Carbohydrates 13 g
+Fiber 3 g
+Fat 15.7 g
+Cholesterol 0 mg
+Sodium 58.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-palak-30887r</t>
+  </si>
+  <si>
+    <t>30916</t>
+  </si>
+  <si>
+    <t>Aloowali Roti</t>
+  </si>
+  <si>
+    <t>1 cup plain flour (maida)
+3/4 cup boiled and mashed potatoes
+2 tbsp chopped coriander (dhania)
+2 tsp finely chopped green chillies
+1 tbsp melted butter
+salt to taste
+plain flour (maida) for rolling
+ghee for cooking</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a bowl and knead to a semi-soft dough using enough water.
+Divide the dough into 6 equal portions and roll out each portion into a circle of 150 mm. (6") diameter, using flour.
+Cook on a hot tava (griddle) on both sides, using a little ghee, till brown spots appear on both the sides.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 134 cal
+Protein 2.2 g
+Carbohydrates 16.2 g
+Fiber 0.3 g
+Fat 6.7 g
+Cholesterol 4.6 mg
+Sodium 18.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloowali-roti-30916r</t>
+  </si>
+  <si>
+    <t>42754</t>
+  </si>
+  <si>
+    <t>amba khatta recipe | Odia style instant raw mango chutney, pickle |</t>
+  </si>
+  <si>
+    <t>For Amba Khatta
+2 cups peeled raw mango cubes
+1 tbsp oil
+1 tsp panch phoron
+1/2 tsp turmeric powder (haldi)
+1/2 tsp cumin seeds (jeera) powder
+1 tsp chilli powder
+1/4 tsp garam masala
+2 tbsp sugar
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+To make amba khatta
+To make amba khatta, heat oil in a deep non-stick pan. Once the oil is hot, add the panch phoran.
+When the seeds crackle, put the raw mango cubes and sauté on a medium flame for 1 minute.
+Add the turmeric powder, cumin seeds powder, chilli powder, garam masala, salt and sauté on a medium flame for 1 minute.
+Add 2 cups of water, sugar and cook on a medium flame for 12-15 minutes, while stirring occasionally.
+Serve amba khatta immediately or refrigerate it an air tight container for a week.</t>
+  </si>
+  <si>
+    <t>Energy 35 cal
+Protein 0.1 g
+Carbohydrates 6.4 g
+Fiber 0.4 g
+Fat 1.1 g
+Cholesterol 0 mg
+Sodium 0.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amba-khatta--odisha-style-raw-mango-chutney-42754r</t>
+  </si>
+  <si>
+    <t>33139</t>
+  </si>
+  <si>
+    <t>Amani Kozhakatai ( Know Your Flours )</t>
+  </si>
+  <si>
+    <t>1 1/2 cups rice flour (chawal ka atta)
+1/2 tsp salt
+4 tsp oil for greasing and tempering
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+2 whole dry kashmiri red chillies , broken into pieces
+a pinch of asafoetida (hing)
+8 to 10 curry leaves (kadi patta)
+For The Garnish
+1 tbsp freshly grated coconut
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>25 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine the rice flour, salt and 2 cups of water in a bowl and mix well to a batter of pouring consistency.
+Grease a kadhai using ¼ tsp of oil, pour the batter in it and cook on a medium flame, while stirring continuously till it leaves the sides of the kadhai and resembles a dough. Keep aside.
+Remove in a greased thali and knead (while hot) using ¼ tsp of oil till smooth.
+Cover the dough with a wet muslin cloth and keep aside for 5 minutes.
+Rub ½ tsp of oil on your hands, take a little dough and shape into small size round balls. Steam in a idli steamer for 5 to 7 minutes. Keep aside.
+Heat the remaining 3 tsp of oil in another kadhai and add mustard seeds.
+When the seeds crackle, add the urad dal, red chillies, asafoetida and curry leaves and sauté on a medium flame for a few seconds.
+Add the steamed rice balls, toss well and cook on a medium flame for another minute,serve hot garnished with coconut and coriander.
+Handy tips:
+To make stuffed kozhakatai, fill the rice balls with a savoury filling of your choice.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amani-kozhakatai--know-your-flours--33139r</t>
+  </si>
+  <si>
+    <t>40815</t>
+  </si>
+  <si>
+    <t>aamras recipe | Alphonso aamras | aamras puri | how to make aamras | mango puree |</t>
+  </si>
+  <si>
+    <t>For Alphonso Aamras
+12 ripe alphonso mangoes</t>
+  </si>
+  <si>
+    <t>Method
+For alphonso aamras
+To make alphonso aamras, soak all the mangoes in enough water in a deep bowl for 30 minutes.
+Take a mango, press from evenly from all the sides till it turns soft uniformly.
+Remove the eye of the mango and squeeze it very well so as to collect the pulp in a deep bowl.
+Repeat steps 2 and 3 with the remaining 11 mangoes.
+Blend the mango pulp in a mixer till smooth.
+Serve the alphonso aamras immediately or store in an air-tight container in the freezer.</t>
+  </si>
+  <si>
+    <t>Energy 273 cal
+Protein 2.2 g
+Carbohydrates 62.4 g
+Fiber 2.6 g
+Fat 1.5 g
+Cholesterol 0 mg
+Sodium 96 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/alphonso-aamras-aaamras-recipe-40815r</t>
+  </si>
+  <si>
+    <t>2586</t>
+  </si>
+  <si>
+    <t>Aloo Tikki</t>
+  </si>
+  <si>
+    <t>4 medium potatoes , peeled and boiled
+1/2 cup boiled green peas
+1 tbsp chopped coriander (dhania)
+1/2 tsp chilli powder
+1 tsp chaat masala
+1/2 tbsp lemon juice
+salt to taste
+2 tbsp oil for cooking
+For Serving
+tomato ketchup</t>
+  </si>
+  <si>
+    <t>Method
+Combine the potatoes and green peas in a deep bowl and mash well.
+Add the coriander leaves, chilli powder, chaat masala, lemon juice and salt and mix well.
+Divide the mixture into 8 equal portions.
+Roll each portion into round patty and then cut out into heart shape using a cookie cutter.
+Heat the oil in a non-stick tava (griddle) and cook few tikkis at a time till they turn golden brown in colour from the sides.
+Serve immediately with tomato ketchup.</t>
+  </si>
+  <si>
+    <t>Energy 77 cal
+Protein 1.2 g
+Carbohydrates 9.5 g
+Fiber 1.4 g
+Fat 3.8 g
+Cholesterol 0 mg
+Sodium 4.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-tikki-2586r</t>
+  </si>
+  <si>
+    <t>32804</t>
+  </si>
+  <si>
+    <t>Ambat Dal ( Know Your Green Leafy Vegetables )</t>
+  </si>
+  <si>
+    <t>For The Paste
+1 tsp oil
+1/2 tsp coriander seeds
+2 whole dry Kashmiri red chillies , broken into pieces
+1/4 cup freshly grated coconut
+1/2 tsp tamarind (imli)
+Other Ingredients
+1/2 cup yellow moong dal (split yellow gram)
+1/4 tsp turmeric powder (haldi)
+3 cups chopped malabar spinach
+salt to taste
+2 tsp oil
+1/4 cup finely chopped onions</t>
+  </si>
+  <si>
+    <t>Method
+For the paste
+Heat the oil in a small pan, add the coriander seeds and red chillies and sauté on a medium flame for 30 seconds, while stirring continuously. Keep aside.
+When cool, add the coconut and tamarind, mix well and blend in a mixer to make a smooth paste, using enough water. Keep aside.
+How to proceed
+Combine the moong dal and turmeric powder with 1 cup of water and pressure cooker for 2 whistles.
+Allow the steam to escape before opening the lid. Keep aside.
+Combine the malabar spinach, cooked dal and 1½ cups water in a kadhai and cook over a medium flame till the bhaji gets cooked.
+Add the prepared paste and salt and cook for 5 more minutes. Keep aside.
+Heat the oil in a small pan, add the onions and sauté till the onions turn translucent.
+Pour this tempering over the cooked dal. Serve hot</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/ambat-dal--know-your-green-leafy-vegetables--32804r</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>aloo stuffed idli recipe | Indian style potato stuffed idli | instant aloo masala stuffed idli | South Indian soft veg stuffed idli |</t>
+  </si>
+  <si>
+    <t>For Aloo Stuffed Idli
+3 cups idli batter
+oil for greasing
+For The Potato Bhaji
+1 1/2 cups boiled , peeled and mashed potatoes
+2 tsp oil
+1 tsp mustard seeds ( rai / sarson)
+6 curry leaves (kadi patta)
+2 tsp finely chopped green chillies
+1/2 cup finely chopped onions
+1/4 tsp of turmeric powder (haldi)
+2 tsp lemon juice
+2 tbsp finely chopped coriander (dhania)
+salt to taste
+For Serving With Aloo Stuffed Idli
+sambhar
+coconut chutney
+tomato chutney</t>
+  </si>
+  <si>
+    <t>Method
+For the potato bhaji
+Heat the oil in a broad non-stick pan and add the mustard seeds.
+When the seeds crackle, add the curry leaves, green chillies and onions and sauté on a medium flame for 1 to 2 minutes.
+Add the potatoes, turmeric powder, lemon juice, coriander and salt, mix well and cook on a medium flame for 1 minute, while stirring occasionally. Keep aside.
+How to proceed
+To make the aloo stuffed idli, grease the idli stand with a little oil and put 1 tbsp of the bhaji in each mould and spread it lightly.
+Pour approx. 2 tbsp of the idli batter over the bhaji in each mould.
+Steam in a steamer for 12 minutes or till the idlis are cooked.
+Repeat steps 1 to 3 to make more idlis.
+Allow the idlis to cool slightly and demould them.
+Serve the aloo stuffed idli hot with sambhar, coconut chutney and tomato chutney.</t>
+  </si>
+  <si>
+    <t>Energy 23 cal
+Protein 0.6 g
+Carbohydrates 3.8 g
+Fiber 0.4 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 1.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-stuffed-idli-indian-style-potato-stuffed-idli-1703r</t>
+  </si>
+  <si>
+    <t>32745</t>
+  </si>
+  <si>
+    <t>aloo tikki recipe | Punjabi aloo tikki | aloo ki patties | aloo ki tikki | aloo cutlet |</t>
+  </si>
+  <si>
+    <t>For Aloo Tikki
+1 cup boiled , peeled and mashed potatoes
+1/2 cup boiled and coarsely crushed green peas
+1 tbsp finely chopped coriander (dhania)
+1 tsp chaat masala
+1/2 tsp chilli powder
+1 1/2 tsp lemon juice
+salt to taste
+oil for greasing and cooking
+For Serving With Aloo Tikki
+green chutney or tomato ketchup</t>
+  </si>
+  <si>
+    <t>Method
+For aloo tikki
+To make the aloo tikki, combine all the ingredients in a bowl and mix well.
+Divide the mixture into 6 equal portions and shape each portion into a round, flat 50 mm. (2”) tikki.
+Heat a non-stick tava (griddle) on a medium flame and grease it with oil and cook the tikkis, using little oil, till both sides are golden brown in colour.
+Serve the aloo tikki hot with tomato ketchup or green chutney.</t>
+  </si>
+  <si>
+    <t>Energy 32 cal
+Protein 0.4 g
+Carbohydrates 3.9 g
+Fiber 0.4 g
+Fat 1.7 g
+Cholesterol 0 mg
+Sodium 2.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/aloo-tikki-punjabi-aloo-tikki-32745r</t>
+  </si>
+  <si>
+    <t>42324</t>
+  </si>
+  <si>
+    <t>amla juice recipe | amla juice for weight loss | Indian gooseberry juice for detox | Vitamin C rich amla juice |</t>
+  </si>
+  <si>
+    <t>For Amla Juice
+1/2 cup roughly chopped amla (indian gooseberries)
+1/2 cup water</t>
+  </si>
+  <si>
+    <t>Method
+For amla juice
+To make amla juice, combine the amlas and ½ cup of water in a mixer and blend till smooth.
+Strain using a strainer.
+Serve amla juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 20 cal
+Protein 0.2 g
+Carbohydrates 4.8 g
+Fiber 1.2 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 1.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-juice-how-to-make-amla-juice-gooseberry-juice-42324r</t>
+  </si>
+  <si>
+    <t>42361</t>
+  </si>
+  <si>
+    <t>amla ginger juice, detox juice | healthy amla juice for weight loss | how to make amla juice at home | how much amla juice to drink daily |</t>
+  </si>
+  <si>
+    <t>For Amla Ginger Juice
+1/2 cup deseeded and roughly chopped amla (indian gooseberries)
+1 tsp roughly chopped ginger (adrak)
+1/4 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+Amla ginger juice
+To make amla ginger juice, combine the amlas and ginger along with ¼ cup of water in a mixer and blend it till smooth.
+Strain it using a strainer in a deep bowl.
+Add the salt and mix well.
+Pour it in 2 individual glasses.
+Serve the amla ginger juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 20 cal
+Protein 0.2 g
+Carbohydrates 4.8 g
+Fiber 1.2 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 389.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-ginger-juice-42361r</t>
+  </si>
+  <si>
+    <t>42342</t>
+  </si>
+  <si>
+    <t>amla chutney recipe | Indian gooseberry spicy chutney | raw amla chutney | nellikai chutney |</t>
+  </si>
+  <si>
+    <t>For Amla Chutney
+1/2 cup deseeded and roughly chopped amla (indian gooseberries)
+1 cup chopped coriander (dhania)
+1 tbsp roughly chopped green chillies
+1/2 tsp chopped ginger (adrak)
+1/2 tsp cumin seeds (jeera)
+1/4 tsp asafoetida (hing)
+1/4 tsp black salt (sanchal)
+2 tsp sugar
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For amla chutney
+To make amla chutney, in a mixer put amla, coriander, green chillies, ginger, cumin seeds, asafoetida, black salt and sugar.
+Add ¼ cup of water. Blend it till smooth.
+Serve or store amla chutney in an airtight container and refrigerate it.</t>
+  </si>
+  <si>
+    <t>Energy 7 cal
+Protein 0.1 g
+Carbohydrates 1.5 g
+Fiber 0.2 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 1.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-chutney-gooseberry-spicy-chutney-42342r</t>
+  </si>
+  <si>
+    <t>41842</t>
+  </si>
+  <si>
+    <t>amla infused water recipe | Indian gooseberry infused water | healthy vitamin C rich detox water | amla detox drink |</t>
+  </si>
+  <si>
+    <t>10 amla (indian gooseberries) wedges</t>
+  </si>
+  <si>
+    <t>Method
+Put all the amla wedges in the infusing tube and close the lid.
+Fill ¾ of the bottle with water, place the infusing tube in it, close the lid of the bottle tightly and shake it lightly.
+Keep aside to infuse for 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>Energy 41 cal
+Protein 0.3 g
+Carbohydrates 9.6 g
+Fiber 2.4 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 3.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-infused-water-41842r</t>
+  </si>
+  <si>
+    <t>42866</t>
+  </si>
+  <si>
+    <t>Amboli, Maharashtrian Amboli</t>
+  </si>
+  <si>
+    <t>For Amboli
+2 cups rice (chawal)
+1 cup urad dal (split black lentils)
+1 tsp fenugreek (methi) seeds
+10 tsp oil for greasing and cooking</t>
+  </si>
+  <si>
+    <t>Method
+For amboli
+To make amboli, clean and wash the rice. Drain, add 3 cups of water and soak the in a deep bowl overnight.
+Clean and wash urad dal. Drain, add 2 cups of water and fenugreek seeds and soak the in a deep bowl overnight.
+Next day, drain the rice and wash it once again.
+Combine the rice, salt and ½ cup of water and blend in a mixer to a smooth paste.
+Transfer the rice mixture into a bowl.
+Also drain the urad dal, wash it once again and blend in a mixer without using water.
+Add this urad dal mixture to the bowl containing rice mixture and mix well.
+Add ½ cup water and salt and mix well.
+Heat a non-stick pan and grease it with ½ tsp of oil.
+Pour a ladleful of the batter on it and spread in a circular manner to make 125 mm. (5”) diameter round.
+Cover with a lid and cook for 1 minute.
+Open the lid and spread ½ tsp of oil along the edges.
+Flip over, again cover and cook on the other side for 30 seconds.
+Repeat steps 9 to 13 to make 9 more amboli.
+Serve the amboli hot.</t>
+  </si>
+  <si>
+    <t>Energy 230 cal
+Protein 7.3 g
+Carbohydrates 37.7 g
+Fiber 3.8 g
+Fat 5.5 g
+Cholesterol 0 mg
+Sodium 10.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amboli-maharashtrian-amboli-42866r</t>
+  </si>
+  <si>
+    <t>33215</t>
+  </si>
+  <si>
+    <t>amla honey juice recipe | amla honey shot | amla honey juice for weight loss | healthy amla juice with honey | Indian gooseberry juice detox drink |</t>
+  </si>
+  <si>
+    <t>For Amla Honey Shot
+4 whole amlas (indian gooseberries) , deseeded and chopped roughly
+1/2 tsp powdered star anise (chakri phool)
+1 tbsp honey
+4 tbsp crushed ice</t>
+  </si>
+  <si>
+    <t>Method
+For amla honey shot
+To make amla honey shot, combine the indian gooseberry, star-anise powder and 1½ cups of water in a mixer and blend till smooth. Strain the liquid.
+Add honey to the strained liquid and mix well.
+Pour amla honey juice | amla honey shot | amla honey juice for weight loss | healthy amla juice with honey | into 4 small to medium glasses.
+Serve the amla honey shot immediately.</t>
+  </si>
+  <si>
+    <t>Energy 37 cal
+Protein 0.2 g
+Carbohydrates 9.3 g
+Fiber 1.3 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 2.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-honey-shot-amla-honey-juice-33215r</t>
+  </si>
+  <si>
+    <t>376</t>
+  </si>
+  <si>
+    <t>American sweet corn salad | Indian style American sweet corn salad | sweet corn veg salad recipe |</t>
+  </si>
+  <si>
+    <t>For American Sweet Corn Salad
+3 cups boiled sweet corn kernels (makai ke dane)
+1/2 cup chopped spring onions
+1/2 cup tomato cubes
+1/2 cup capsicum cubes
+To Be Mixed Into A Vinaigrette Dressing
+2 tbsp olive oil
+1 tbsp vinegar
+1/2 tsp mustard (rai / sarson) powder
+1 tbsp sugar
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For american sweet corn salad
+To make american sweet corn salad, combine the sweet corn, spring onions, tomatoes and capsicum in a deep bowl and mix well.
+Pour the vinaigrette dressing over the salad, toss well and refrigerate for at least an hour.
+Serve american sweet corn salad chilled.</t>
+  </si>
+  <si>
+    <t>Energy 127 cal
+Protein 2.8 g
+Carbohydrates 18.4 g
+Fiber 2.6 g
+Fat 6 g
+Cholesterol 0 mg
+Sodium 7.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/american-sweet-corn-salad-376r</t>
+  </si>
+  <si>
+    <t>32968</t>
+  </si>
+  <si>
+    <t>Ami Kozhakatai ( Weight Loss After Pregnancy )</t>
+  </si>
+  <si>
+    <t>1 1/4 cups rice flour (chawal ka atta)
+1/2 tsp salt
+1 3/4 tsp oil for greasing and tempering
+1 tsp mustard seeds ( rai / sarson)
+1 tsp urad dal (split black lentils)
+2 whole dry Kashmiri red chillies , broken into pieces
+of asafoetida (hing)
+8 to 10 curry leaves (kadi patta)
+For The Garnish
+1 tsp freshly grated coconut (optional)
+1 tbsp finely chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the rice flour, salt and 1¾ cups of water in a bowl and mix well to a smooth batter of pouring consistency.
+Grease a non-stick kadhai using ¼ tsp of oil, pour the batter in it and cook on a medium flame, while stirring continuously till it leaves the sides of the kadhai and resembles a dough. Keep aside.
+Remove on a greased thali and knead (while hot) using ¼ tsp of oil till smooth.
+Cover the dough with a wet muslin cloth and keep aside for 5 minutes.
+Rub ¼ tsp of oil on your hands, divide the dough into 35 to 40 equal portions (small) and shape each into round balls. Steam in a idli steamer for 5 to 7 minutes. Keep aside.
+Heat the remaining 1 tsp of oil in another non-stick kadhai and add the mustard seeds.
+When the seeds crackle, add the urad dal, red chillies, asafoetida and curry leaves and sauté on a medium flame for a few seconds.
+Add the steamed rice balls, toss well and cook on a medium flame for another minute, serve hot garnished with coconut and coriander.</t>
+  </si>
+  <si>
+    <t>Energy 179 cal
+Protein 2.7 g
+Carbohydrates 34.6 g
+Fiber 1.1 g
+Fat 2.9 g
+Cholesterol 0 mg
+Sodium 388 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/ami-kozhakatai--weight-loss-after-pregnancy--32968r</t>
+  </si>
+  <si>
+    <t>42343</t>
+  </si>
+  <si>
+    <t>Amla Sabji, Indian Gooseberry Accompaniment</t>
+  </si>
+  <si>
+    <t>1 cup amla , deseeded and chopped
+1 1/2 tbsp mustard (rai / sarson) oil
+2 slit green chillies
+1/2 tsp cumin seeds (jeera)
+1/2 tsp mustard seeds ( rai / sarson)
+1/2 tsp chilli powder
+1/4 tsp turmeric powder (haldi)
+1/2 tsp coarsely crushed fennel seeds (saunf)
+1 tsp coarsely crushed coriander (dhania) seeds
+1/4 tsp asafoetida (hing)
+salt to taste
+1 tbsp chopped jaggery (gur)
+For The Garnish
+2 tsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a broad non-stick pan, add the green chillies, cumin seeds and mustards seeds and sauté on a medium flame for few seconds.
+Add the amla and cook on a medium flame for 3 minutes while stirring occasionally.
+Add the chilli powder, turmeric powder, fennel seeds, coriander seeds, asafoetida and salt and sauté on a medium flame for 1 minute.
+Add ½ cup water and jaggery, mix well cover it with a lid and cook on a medium flame for 4 minutes, while stirring occasionally.
+Garnish it with coriander and serve hot.</t>
+  </si>
+  <si>
+    <t>Energy 174 cal
+Protein 0.4 g
+Carbohydrates 18.1 g
+Fiber 2.4 g
+Fat 11.1 g
+Cholesterol 0 mg
+Sodium 3.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-sabji-indian-gooseberry--accompaniment-42343r</t>
+  </si>
+  <si>
+    <t>42340</t>
+  </si>
+  <si>
+    <t>Amla Rice, Gooseberry Rice</t>
+  </si>
+  <si>
+    <t>1/4 cup grated amla (indian gooseberries)
+2 cups cooked long grained rice (basmati)
+1 tbsp oil
+1/2 tsp mustard seeds ( rai / sarson)
+2 tsp chana dal (split bengal gram)
+1 tsp urad dal (split black lentils)
+6 curry leaves (kadi patta)
+2 whole dry kashmiri red chillies , broken into pieces
+1 tbsp raw peanuts
+1/4 tsp asafoetida (hing)
+1/2 tsp turmeric powder (haldi)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Heat the oil in a deep non-stick pan, add the mustard seeds, chana dal, urad dal, curry leaves, dry red chillies, raw peanuts and asafoetida and sauté on a medium flame for 1 to 2 minutes.
+Add the turmeric powder and sauté on a medium flame for a few seconds.
+Add the amla, mix well and cook on a medium flame for 2 minutes, while stirring occasionally.
+Add the rice and salt, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-rice-gooseberry-rice-42340r</t>
+  </si>
+  <si>
+    <t>42814</t>
+  </si>
+  <si>
+    <t>Amla, Coriander and Spinach Juice</t>
+  </si>
+  <si>
+    <t>For Amla , Coriander and Spinach Juice
+1 cup spinach (palak) , roughly chopped
+1/4 cup chopped coriander (dhania)
+1 big cucumber , cut into slices
+1 chopped amla (indian gooseberries)</t>
+  </si>
+  <si>
+    <t>Method
+For amla, coriander and spinach juice
+To make amla, coriander and spinach juice, combine all the ingredients along with 3 cups of water in a blender and blend till smooth. We suggest you use a good quality blender as that will make the amla blend easily and uniformly. This will also avoid straining.
+Serve the amla, coriander and spinach juice immediately or chilled. This lasts good for 4 to 6 hours in the refrigerator.</t>
+  </si>
+  <si>
+    <t>Energy 17 cal
+Protein 0.5 g
+Carbohydrates 3.3 g
+Fiber 1.3 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 11.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-coriander-and-spinach-juice-42814r</t>
+  </si>
+  <si>
+    <t>2050</t>
+  </si>
+  <si>
+    <t>Angoori Petha</t>
+  </si>
+  <si>
+    <t>2 kgs ash gourd (ash gourd)
+1/4 tsp slaked lime
+3 cups sugar
+a few drops yellow food colour
+1 cup desiccated coconut</t>
+  </si>
+  <si>
+    <t>Method
+Peel and deseed the pumpkin. Using a melon scooper, scoop out balls from the pumpkin.
+Prick each pumpkin ball with a fork at close intervals.
+Rub the slaked lime on the pumpkin balls and keep aside for 5 minutes.
+Wash the pumpkin balls thoroughly. Drain and keep aside.
+In a heavy bottomed pan, combine the sugar and yellow food colouring with 2 cups of water and bring to a boil.
+Skim off any impurities floating on the surface, using a slotted spoon.
+Add the pumpkin balls and cook on high flame for 10 to 15 minutes. Remove from the fire. Cool completely.
+Drain form the sugar syrup and roll the petha balls in desiccated coconut.
+Cool completely.
+Tips
+VARIATION : ANGOORI PETHA PIECES
+Cut the pumpkin into 25 mm. (1") squares and then folow the above recipe from step 2. Do not roll in desiccated coconut.
+VARIATION : PETHA SLICES
+Slice the pumpkin into thin slices (approx. 15 to 20 slices) using a wafer slicer and then follow the above recipe from step 2.
+Do not roll in desiccated coconut.</t>
+  </si>
+  <si>
+    <t>Energy 66 cal
+Protein 0.1 g
+Carbohydrates 14.2 g
+Fiber 0.2 g
+Fat 1 g
+Cholesterol 0 mg
+Sodium 0.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/angoori-petha-2050r</t>
+  </si>
+  <si>
+    <t>3903</t>
+  </si>
+  <si>
+    <t>amla murabba recipe | Rajasthani amla murraba | Indian gooseberry murabba |</t>
+  </si>
+  <si>
+    <t>For Amla Murabba
+20 amlas (indian gooseberries)
+2 1/2 cups sugar
+1/4 tsp cardamom (elaichi) powder
+a few saffron (kesar) strands</t>
+  </si>
+  <si>
+    <t>53 mins</t>
+  </si>
+  <si>
+    <t>Method
+For amla murabba
+To make amla murabba, wash the amlas thoroughly. Prick them with a fork at regular intervals.
+Boil enough of water in a deep non-stick pan, add the amlas and boil on a high flame for 10 minutes. Drain and keep aside.
+Combine the sugar and 3 cups of water in a deep non-stick pan, mix well and cook on a medium flame for 8 minutes, while stirirng occasionally.
+Add the amlas, mix well and cook on a slow flame for 30 minutes, while stirring occasionally or till the amlas are soft. Cover it with a lid and keep aside to mature for 2 days.
+Drain and reserve the syrup as well as the amlas.
+Put the syrup back into the same deep non-stick pan along with the cardamom powder and saffron, mix well and cook on a high flame for 8 minutes, while stirring occasionally.
+Add the drained amlas, mix well and cook on a medium flame for 5 minutes, while stirring occasionally.
+Cool it completely and store the amla murabba in an air-tight glass container and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 54 cal
+Protein 0.1 g
+Carbohydrates 13.3 g
+Fiber 0.6 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-murabba-rajasthani-recipe-3903r</t>
+  </si>
+  <si>
+    <t>3426</t>
+  </si>
+  <si>
+    <t>amla murabba recipe | amla ka murraba |</t>
+  </si>
+  <si>
+    <t>75 mins</t>
+  </si>
+  <si>
+    <t>Method
+For amla murabba
+Wash the amlas thoroughly. Prick them with a fork at regular intervals.
+Boil plenty of water in a pan, add the amlas and boil for 10 minutes over a high flame. Drain and keep aside.
+Dissolve the sugar in 3 cups of water and bring the syrup to a boil. Add the amlas and cook over a slow flame for about 30 to 40 minutes or until the amlas are soft.
+Allow the mixture to cool completely. Keep covered in a cool dry place for at least 48 hours, so that the amlas soak in the syrup.
+On the third day, drain the amlas from the syrup, boil the syrup with cardamom powder and saffron till it reduces to a 2 to 3 string consistency. Add the amlas and simmer for 3 to 4 minutes.
+Allow the amla murraba to cool completely.
+Bottle the amla murraba in a sterilised glass jar. Store for upto 1 year at room temperature.</t>
+  </si>
+  <si>
+    <t>Energy 71 cal
+Protein 0.1 g
+Carbohydrates 17.4 g
+Fiber 0.7 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 1.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-murabba-3426r</t>
+  </si>
+  <si>
+    <t>3437</t>
+  </si>
+  <si>
+    <t>amla pickle recipe | amla achar | Indian gooseberry pickle |</t>
+  </si>
+  <si>
+    <t>For Amla Pickle
+10 amlas (indian gooseberries)
+1/4 cup mustard (rai / sarson) oil
+3 tsp fennel seeds (saunf)
+1 tsp nigella seeds (kalonji)
+3 tsp split fenugreek seeds (methi na kuria)
+1 1/2 tsp chilli powder
+1/2 tsp turmeric powder (haldi)
+1/4 tsp asafoetida (hing)
+2 tsp salt</t>
+  </si>
+  <si>
+    <t>Method
+For amla pickle
+To make amla pickle, combine the amlas in enough water in a deep non-stick pan and cook on a medium flame for 6 minutes, while stirring it occasionally.
+Drain the water and cool completely.
+Cut the amlas into wedges and discard the seeds.
+Heat the oil in a small non-stick pan on a medium flame for 2 minutes or till it is smoky, switch off the flame and allow it cool slightly.
+Combine the nigella seeds and fennel seeds in a mortar and pestle, and crush it till coarse.
+Combine the coarse mixture, fenugreek seeds, chilli powder, turmeric powder, asafetida, mustard oil and salt and mix well.
+Add the amla wedges to the mustard oil mixture, mix well and keep aside for 2 hours.
+Serve the amla pickle immediately or store it in an air-tight container and keep it refrigerated and use as required.</t>
+  </si>
+  <si>
+    <t>Energy 23 cal
+Protein 0.1 g
+Carbohydrates 1.7 g
+Fiber 0.4 g
+Fat 1.8 g
+Cholesterol 0 mg
+Sodium 194.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amla-pickle-amla-achar-gooseberry-pickle-3437r</t>
+  </si>
+  <si>
+    <t>2851</t>
+  </si>
+  <si>
+    <t>Anar ka Slush, Pomegranate Slush</t>
+  </si>
+  <si>
+    <t>4 1/2 cups fresh pomegranate (anar) seeds
+8 tbsp powdered sugar
+3/4 tsp cumin seeds (jeera) powder
+1/2 tsp black salt (sanchal)
+For The Garnish
+1/4 cup fresh pomegranate (anar) seeds</t>
+  </si>
+  <si>
+    <t>Method
+Blend the pomegranate seeds in a mixer and blend till smooth.
+Strain the mixture using a strainer.
+Transfer the mixture in a deep bowl and add the sugar, cumin seeds powder and black salt and mix well.
+Pour the mixture into a shallow aluminum container and freeze for 6 hours.
+Remove it from the freezer and keep aside for 4 to 5 minutes.
+Scrape it with a fork and serve immediately in 6 individual glasses garnished with pomegranate seeds.</t>
+  </si>
+  <si>
+    <t>Energy 134 cal
+Protein 1.7 g
+Carbohydrates 31.6 g
+Fiber 3 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 1.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anar-ka-slush-pomegranate-slush-2851r</t>
+  </si>
+  <si>
+    <t>2058</t>
+  </si>
+  <si>
+    <t>Amrit Peda, Peda Recipe</t>
+  </si>
+  <si>
+    <t>1 cup crumbled mawa (khoya)
+1/4 cup powdered sugar
+1/4 tsp cardamom (elaichi) powder
+1/4 cup blanched , peeled and finely chopped pistachios
+a few saffron (kesar) strands
+For The Garnish
+2 tsp finely chopped pistachios</t>
+  </si>
+  <si>
+    <t>Method
+Combine the khoya and powdered sugar in a broad non-stick pan, mix well and cook on a slow flame for 6 minutes, while stirring continuously.
+Remove from the flame, add the cardamom powder and mix well. Allow it to cool for 10 to 15 minutes.
+Divide the mixture into two portions, 3/4th and ¼th
+In the 1/4th mixture, add the pistachios and mix well.
+In the ¾ th mixture, add the saffron strands and mix well.
+Divide the pistachios mixture into 8 equal portions.
+Divide the saffron mixture into 8 equal portions.
+Take a saffron mixture portion and flatten it between your palms.
+Stuff a portion of the pistachio mixture in the centre.
+Bring together the edges in the centre to seal the stuffing and shape it into a round and lightly flatten it.
+Repeat steps 8 to 10 to make 7 more pedas.
+Garnish with ¼ tsp of pistachio on each peda.
+Serve immediately or store in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 117 cal
+Protein 4.4 g
+Carbohydrates 9.6 g
+Fiber 0.1 g
+Fat 6.8 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amrit-peda-peda-recipe-2058r</t>
+  </si>
+  <si>
+    <t>30934</t>
+  </si>
+  <si>
+    <t>Angoor ka Sherbat</t>
+  </si>
+  <si>
+    <t>2 cups black grapes or grapes
+1 tbsp powdered sugar
+1 tsp cumin seeds (jeera) powder
+2 tsp lemon juice
+1 tsp ginger (adrak) juice (optional)
+2 tbsp fresh mint leaves (phudina) for the garnish</t>
+  </si>
+  <si>
+    <t>Method
+Blend the grapes in a mixer to a smooth purée.
+Add 3½ cups of water and mix well.
+Strain through a sieve and add the sugar, cumin seeds powder, lemon juice and ginger juice and mix well. Keep in the refrigerator to chill.
+Pour into 4 individual glasses and serve chilled garnished with mint leaves.</t>
+  </si>
+  <si>
+    <t>Energy 87 cal
+Protein 0.6 g
+Carbohydrates 20.2 g
+Fiber 1.4 g
+Fat 0.4 g
+Cholesterol 0.1 mg
+Sodium 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/angoor-ka-sherbat-30934r</t>
+  </si>
+  <si>
+    <t>3853</t>
+  </si>
+  <si>
+    <t>amlana recipe | Rajasthani amlana drink | imli ka amlana | Indian drink recipe |</t>
+  </si>
+  <si>
+    <t>For Amlana
+2 tbsp chopped tamarind (imli)
+1/2 cup powdered sugar
+1/4 tsp freshly ground black pepper (kalimirch)
+1/4 tsp cardamom (elaichi) powder
+1/2 tsp black salt (sanchal)
+salt to taste
+For The Garnish
+2 tbsp finely chopped mint leaves (phudina)</t>
+  </si>
+  <si>
+    <t>Method
+For amlana
+To make amlana, combine the tamarind and 1 cup of water in a deep bowl and mix well. Cover with a lid and keep aside for 2 hours.
+Transfer the tamarind-water mixture in a mixer and blend till smooth. Squeeze and strain the pulp in a deep bowl using a muslin cloth.
+Add the powdered sugar, pepper powder, cardamom powder, black salt, salt and 3 cups of water and mix well.
+Refrigerate for atleast 1 hour.
+Pour equal quantities of the amlana into 4 individual glasses and serve chilled garnished with mint leaves.</t>
+  </si>
+  <si>
+    <t>Energy 73 cal
+Protein 0 g
+Carbohydrates 18.1 g
+Fiber 0 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amlana-3853r</t>
+  </si>
+  <si>
+    <t>30924</t>
+  </si>
+  <si>
+    <t>anardana pudina chutney recipe | pomegranate mint chutney | coriander, mint and anardana chutney |</t>
+  </si>
+  <si>
+    <t>For Anardana Pudina Chutney
+2 cups mint leaves (pudina)
+1 cup chopped coriander (dhania)
+1 tbsp pomegranate seeds (anardana)
+1/2 cup sliced onions
+1 1/2 tbsp lemon juice
+1 tbsp sugar
+2 tbsp chopped green chillies
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For anardana pudina chutney
+To make anardana pudina chutney, combine all the ingredients and blend in a mixer to a smooth paste using ¼ cup of water.
+Serve or refrigerate the anardana pudina chutney till use.</t>
+  </si>
+  <si>
+    <t>Energy 125 cal
+Protein 2.6 g
+Carbohydrates 27 g
+Fiber 3.3 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 16.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anardana-pudina-chutney-pomegranate-mint-chutney-30924r</t>
+  </si>
+  <si>
+    <t>37207</t>
+  </si>
+  <si>
+    <t>Amrit Modak</t>
+  </si>
+  <si>
+    <t>For Amrit Modak
+1 cup grated mawa (khoya)
+1/4 cup powdered sugar
+1/4 tsp cardamom (elaichi) powder
+1/4 cup blanched , peeled and chopped pistachios
+a few saffron (kesar) strands
+ghee to grease the modak moulds</t>
+  </si>
+  <si>
+    <t>Method
+Combine the khoya and powdered sugar in a heavy bottomed pan and cook on a slow flame, stirring continuously till the sugar has dissolved and the moisture has evaporated (approximately 5 to 10 minutes).
+Remove from the flame, add the cardamom powder and mix well. Allow it to cool completely.
+Divide the mixture into two portions, 2/3 and 1/3.
+Add the pistachios to the 1/3 mixture, and mix well.
+Add the saffron to the 2/3 mixture, and mix well.
+Divide the pistachio mixture into 8 equal portions. Shape into even sized rounds.
+Divide the saffron mixture into 8 equal portions and shape into even sized rounds.
+Stuff each saffron round with the pistachio round and seal the edges completely and give the shape of modak or use a modak mould to press into desired shape.
+Tips
+Handy Tip: Modak Moulds are available in the market and all ou have to do is stuff it with the modak mixture and demould. Do remember to grease the modak mould before use.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/amrit-modak-37207r</t>
+  </si>
+  <si>
+    <t>6222</t>
+  </si>
+  <si>
+    <t>anti cholesterol shake recipe | low cholesterol papaya banana orange smoothie | healthy Indian shake good for heart |</t>
+  </si>
+  <si>
+    <t>For Anti Cholesterol Shake
+2 cups chopped papaya
+3/4 cup orange segments
+3/4 cup chopped bananas
+1/4 tsp vanilla extract or vanilla essence
+20 ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+For anti cholesterol shake
+To make anti cholesterol shake in a mixer, combine the papaya, orange, banana, vanilla extract or essence and 20 ice cubes.
+Blend till smooth and frothy.
+Serve anti cholesterol shake immediately.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 1.5 g
+Carbohydrates 23.3 g
+Fiber 2.3 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 8.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti-cholesterol-shake-6222r</t>
+  </si>
+  <si>
+    <t>42166</t>
+  </si>
+  <si>
+    <t>Anti- Cancer and Anti- Inflammation Spinach Juice</t>
+  </si>
+  <si>
+    <t>2 cups roughly chopped spinach (palak)
+3/4 cup roughly chopped tomatoes
+1 tsp apple cider vinegar</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a mixer.
+Pour 1½ cups of chilled water and blend it till smooth. Make sure you blend it really well, as when we blended for approx. . 2 minutes, there were still pieces of tomatoes. So we had to blend it for another 2 minutes.
+Also see that, you give a break while you are blending , or else the mixer will get hot.
+Pour the juice in 3 individual glasses serve immediately or serve chilled.</t>
+  </si>
+  <si>
+    <t>Energy 20 cal
+Protein 1.3 g
+Carbohydrates 2.7 g
+Fiber 1.8 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 31.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anti--cancer-and-anti--inflammation-spinach-juice-42166r</t>
+  </si>
+  <si>
+    <t>33480</t>
+  </si>
+  <si>
+    <t>Antioxidant Boost ( Eat Well Stay Well Recipes )</t>
+  </si>
+  <si>
+    <t>4 medium sized apples , roughly chopped
+2 cups of black grapes
+1 cup fresh strawberries
+1/2 cup chopped beetroot
+1 cup crushed ice</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients together and blend in a mixer till smooth.
+Strain the juice using a strainer and pour into 4 individual glasses.
+Serve immediately.
+Handy tip
+Use fresh and ripe strawberries to avoid the use of sigar in this juice.
+When kiwis are in season, replace strawberries with 1 cup of chopped kiwis and enjoy an equally good vitamin c boost drink.</t>
+  </si>
+  <si>
+    <t>Energy 150 cal
+Protein 0.9 g
+Carbohydrates 33.9 g
+Fiber 8.2 g
+Fat 1.2 g
+Cholesterol 0 mg
+Sodium 64.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/antioxidant-boost--eat-well-stay-well-recipes--33480r</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>Anjeer Barfi</t>
+  </si>
+  <si>
+    <t>1 cup crumbled mava (khoya)
+1/2 cup chopped dried figs (anjeer)
+2 tbsp sugar
+2 tbsp ghee
+1/4 tsp cardamom (elaichi) powder
+1/4 cup chopped mixed nuts (pistachios , cashewnuts and almonds)
+ghee for greasing</t>
+  </si>
+  <si>
+    <t>Method
+Combine the dried figs, sugar and ½ cup of water in a broad non-stick pan, mix well and cook on a medium flame for 3 to 4 minutes or till all the water evaporates, while stirring occasionally.
+Add the mava, mix well and cook on a medium flame for 2 minutes, while stirring continuously.
+Add the ghee and cardamom powder, mix well and cook on a medium flame for another 2 minutes or till the mixture turns light brown in colour, while stirring continuously.
+Add the mixed nuts, mix well and cook on a medium flame for 1 more minute, while stirring continuously.
+Transfer the mixture in a 150 mm. (6?) diameter greased plate and flatten it evenly using the back of a spoon. Keep aside at room temperature for 2 hours or till it sets.
+Cut into 9 equal square pieces.
+Serve immediately or store refrigerated in an air-tight container.</t>
+  </si>
+  <si>
+    <t>Energy 152 cal
+Protein 4.2 g
+Carbohydrates 15.1 g
+Fiber 1.1 g
+Fat 8.7 g
+Cholesterol 0 mg
+Sodium 1.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/anjeer-barfi-2002r</t>
+  </si>
+  <si>
+    <t>39014</t>
+  </si>
+  <si>
+    <t>Apple and Grape Juice</t>
+  </si>
+  <si>
+    <t>For Apple and Grape Juice
+2 cups chilled apple wedges
+2 cups chilled green grapes
+1 tsp lemon juice
+2 tbsp powdered sugar
+For Serving With Apple and Grape Juice
+8 ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+For apple and grape juice
+To make apple and grape juice, add the apples and grapes a few at a time in a juicer.
+Add the lemon juice and sugar to the juice and mix well.
+Pour equal quantities of the juice into 4 individual glasses.
+Serve the apple and grape juice immediately topped with 2 ice-cubes in each glass.</t>
+  </si>
+  <si>
+    <t>Energy 109 cal
+Protein 0.5 g
+Carbohydrates 25.6 g
+Fiber 2.7 g
+Fat 0.5 g
+Cholesterol 0.1 mg
+Sodium 16.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-grape-juice-39014r</t>
+  </si>
+  <si>
+    <t>3055</t>
+  </si>
+  <si>
+    <t>apple carrot soup for babies, toddlers | apple and carrot soup | apple carrot soup with potatoes</t>
+  </si>
+  <si>
+    <t>For Apple and Carrot Soup With Potatoes
+1/4 cup peeled and chopped apple
+2 tbsp peeled and chopped carrot
+1/4 cup peeled and chopped potatoes
+1 tsp oil
+1 tbsp finely chopped onions</t>
+  </si>
+  <si>
+    <t>Method
+For apple and carrot soup with potatoes
+Heat the oil in a pressure cooker, add the onions and sauté on a medium flame for 30 seconds.
+Add the carrot, potatoes, apple and 1 cup of water, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Cool slightly and blend in a mixer to a smooth purée.
+Pour the purée into a broad non-stick pan and bring to boil, while stirring occasionally.
+Serve the apple and carrot soup with potatoes for babies and toddlers lukewarm.</t>
+  </si>
+  <si>
+    <t>Energy 127 cal
+Protein 1.2 g
+Carbohydrates 18.8 g
+Fiber 3 g
+Fat 5.3 g
+Cholesterol 0 mg
+Sodium 23.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-carrot-soup-with-potatoes---baby-and-toddler--3055r</t>
+  </si>
+  <si>
+    <t>35086</t>
+  </si>
+  <si>
+    <t>Apple and Lettuce Salad with Melon Dressing ( Iron Rich Recipe )</t>
+  </si>
+  <si>
+    <t>1/2 cup apple cubes
+1 cup iceberg lettuce , torn into pieces
+1/2 cup shredded cabbage
+1/4 cup thickly grated carrot
+1/4 cup capsicum cubes (red and yellow)
+1/2 cup bean sprouts
+1/4 cup green grapes
+1 tsp lemon juice
+salt to taste
+To Be Blended Together Into A Melon Dressing
+1/2 cup muskmelon purée
+1/2 tsp roasted and crushed cumin seeds (jeera)
+1/4 cup chopped coriander (dhania)
+salt and freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients along with the dressing in deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 36 cal
+Protein 1.3 g
+Carbohydrates 7.2 g
+Fiber 1.9 g
+Fat 0.3 g
+Cholesterol 0 mg
+Sodium 49 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-lettuce-salad-with-melon-dressing--iron-rich-recipe--35086r</t>
+  </si>
+  <si>
+    <t>823</t>
+  </si>
+  <si>
+    <t>Appam Pancake</t>
+  </si>
+  <si>
+    <t>1 cup raw rice, preferably unpolished
+1/2 cup poha (flattened rice flakes)
+1 cup yoghurt
+4 tsp jaggery (gur)
+1/4 tsp turmeric powder (haldi)
+4 tbsp grated coconut
+2 tbsp oil(for cooking)
+salt to taste</t>
+  </si>
+  <si>
+    <t>10 min.</t>
+  </si>
+  <si>
+    <t>25 min.</t>
+  </si>
+  <si>
+    <t>Method
+Soak the rice for 4 to 5 hours. Drain.
+Add the poha, yoghurt, approx. 1 teacup of water, jaggery, turmeric and salt and blend in a mixer to form a thick and smooth batter.
+Cover and keep overnight. Add the coconut. If the batter is too thick, add a little water.
+Lightly grease a non-stick tawa with a little oil. Pour 2 tablespoons of batter on the tawa (griddle) without spreading it. Cover with a lid and cook on a medium flame till the lower side is light brown.
+Repeat with the remaining batter using the remaining oil.
+Serve hot with coconut chutney.
+Tips
+Goodness Guide :
+This rather unusual breakfast dish is low in fat.
+It provides complex cabohydrates, iron and B-Group vitamins.</t>
+  </si>
+  <si>
+    <t>Protein 2.4 g
+Cho 18.1 g
+Fat 3 g</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/appam-pancake-823r</t>
+  </si>
+  <si>
+    <t>41840</t>
+  </si>
+  <si>
+    <t>Apple Carrot Ginger Honey Infused Water</t>
+  </si>
+  <si>
+    <t>8 apple cubes (unpeeled)
+4 carrot cubes
+2 thin ginger sticks
+1/2 tbsp honey</t>
+  </si>
+  <si>
+    <t>Method
+Fill ¾ of the bottle with water, add the honey and mix well.
+Put 4 apple cubes, all the carrot cubes, ginger sticks and the remaining 4 apple cubes in the infusing tube and close the lid.
+Place the infusing tube in the honey water, close the lid of the bottle tightly and shake it lightly.
+Keep aside to infuse for 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-carrot-ginger-honey-infused-water-41840r</t>
+  </si>
+  <si>
+    <t>36892</t>
+  </si>
+  <si>
+    <t>apple carrot juice recipe | healthy carrot apple juice | Indian carrot apple drink with ginger |</t>
+  </si>
+  <si>
+    <t>For Apple Carrot Juice
+2 cups carrot peeled and cut into thick strips
+1 1/4 cups unpeeled apple wedges
+1/2 tsp roughly chopped ginger (adrak)
+For Serving With Apple Carrot Juice
+10 to 12 ice-cubes</t>
+  </si>
+  <si>
+    <t>Method
+Apple carrot juice in blender
+Combine the carrots cubes, apple cubes, ginger (adrak),1 cup of water and 10 to 12 ice-cubes in a high quality blender jar (like vitamix) and blend well.
+Serve immediately.
+Apple carrot juice in juicer
+Add the carrot cubes, apple cubes and ginger a few at a time in a juicer (hopper).
+Add 2 to 3 ice-cubes in each of the 4 small glasses or 2 big glasses and pour equal quantities of juice over it. Note that some amount of fiber will be lost while making juice in a juicer.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 103 cal
+Protein 1.3 g
+Carbohydrates 23.1 g
+Fiber 7.9 g
+Fat 0.6 g
+Cholesterol 0 mg
+Sodium 65.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-carrot-juice-36892r</t>
+  </si>
+  <si>
+    <t>41743</t>
+  </si>
+  <si>
+    <t>Apple Chickoo Salad with Muskmelon Dressing</t>
+  </si>
+  <si>
+    <t>2 cups roughly chopped apple (unpeeled)
+1 1/2 cups peeled , deseeded and roughly chopped chickoo
+To Be Blended Into A Muskmelon Dressing
+1/2 cup chopped muskmelon (kharbooja)
+1/4 tsp roasted cumin seeds (jeera)
+1 1/2 tbsp chopped coriander (dhania)
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine the apple and chickoo in a deep bowl and mix well.
+Pour the dressing over it and toss gently.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 110 cal
+Protein 0.7 g
+Carbohydrates 24.2 g
+Fiber 10.1 g
+Fat 1.1 g
+Cholesterol 0 mg
+Sodium 40.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-chickoo-salad-with-muskmelon-dressing-41743r</t>
+  </si>
+  <si>
+    <t>41845</t>
+  </si>
+  <si>
+    <t>Apple Carrot Beetroot Infused Water</t>
+  </si>
+  <si>
+    <t>3 apple cubes
+3 carrot cubes
+3 beetroot cubes</t>
+  </si>
+  <si>
+    <t>Method
+Put the apple cubes, carrot cubes and beetroot cubes in the infusing tube and close the lid.
+Fill ¾ of the bottle with water, place the infusing tube in it, close the lid of the bottle tightly and shake it lightly.
+Keep aside to infuse for 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-carrot-beetroot-infused-water-41845r</t>
+  </si>
+  <si>
+    <t>41823</t>
+  </si>
+  <si>
+    <t>Apple Cinnamon Infused Water</t>
+  </si>
+  <si>
+    <t>8 apple cubes (unpeeled and deseeded)
+2 sticks cinnamon (dalchini)</t>
+  </si>
+  <si>
+    <t>Method
+Put 4 apple cubes, cinnamon sticks and the remaining 4 apple cubes in the infusing tube and close the lid.
+Fill ¾ of the bottle with water, place the infusing tube in it, close the lid of the bottle tightly and shake it lightly.
+3. Keep aside to infuse for 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cinnamon-infused-water-41823r</t>
+  </si>
+  <si>
+    <t>1424</t>
+  </si>
+  <si>
+    <t>Apple and Saffron Sauce</t>
+  </si>
+  <si>
+    <t>4 apple , sliced
+1 tsp lemon juice
+7 tsp sugar
+1/4 tsp saffron (kesar) strands
+For The Topping
+3 sandesh</t>
+  </si>
+  <si>
+    <t>Method
+Warm the saffron and rub with a little water until it dissolves.
+Add the lemon juice, sugar, 3/4 teacup of water and the apples and cook until soft.
+Remove the apples and boil the liquid until thick.
+Spread the sauce over the apples.
+Serve hot or cold.
+Variation : sandesh with golden apples :
+In the above recipe, use grated apples instead of sliced apples and spread the apples on a serving tray.
+Top with 3 sandesh.
+Decorate with saffron dots and serve.
+Tips
+Health Information :
+Saffron gives a traditional flavour to this sauce which goes well with Indian meals.</t>
+  </si>
+  <si>
+    <t>Energy 160 cal
+Protein 0.4 g
+Carbohydrates 37.1 g
+Fiber 6.8 g
+Fat 1.1 g
+Cholesterol 0 mg
+Sodium 58.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-and-saffron-sauce-1424r</t>
+  </si>
+  <si>
+    <t>41821</t>
+  </si>
+  <si>
+    <t>Apple Cucumber Parsley Infused Water</t>
+  </si>
+  <si>
+    <t>4 apple cubes (unpeeled and deseeded)
+4 thick cucumber slices (peeled)
+2 sprigs parsley</t>
+  </si>
+  <si>
+    <t>Method
+Put 2 apple cubes, a sprig of parsley, 2 cucumber slices and the remaining 2 apple cubes, a sprig of parsley and 2 cucumber slices in the infusing tube and close the lid.
+Fill ¾ of the bottle with water, place the infusing tube in it, close the lid of the bottle tightly and shake it lightly.
+Keep aside to infuse for 2 to 3 hours.</t>
+  </si>
+  <si>
+    <t>Energy 4 cal
+Protein 0.1 g
+Carbohydrates 0.8 g
+Fiber 0.8 g
+Fat 0 g
+Cholesterol 0 mg
+Sodium 3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cucumber-parsley-infused-water-41821r</t>
+  </si>
+  <si>
+    <t>1897</t>
+  </si>
+  <si>
+    <t>Apple Cups with Fresh Fruits</t>
+  </si>
+  <si>
+    <t>For The Apple Cups
+2 medium size apples
+1 tsp lemon juice
+To Be Mixed Into A Fruit Salad
+1 cup mixed fruits cubes (apple , pear , chickoo , pomegranate and banana)
+1/2 cup strawberry jelly cubes
+1 tsp chaat masala</t>
+  </si>
+  <si>
+    <t>Method
+For the apple cups
+Cut the apples into 2 equal halves horizontally and scoop the centre portion of each halve with the help of a spoon.
+Rub a little lemon juice on the scooped portion of the apples to avoid it from turning brown.
+How to proceed
+Divide the fruit salad into 4 equal portions and keep aside.
+Just before serving, put a portion of the fruit salad in each of the apple cup and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 119 cal
+Protein 1.2 g
+Carbohydrates 26.9 g
+Fiber 4.7 g
+Fat 0.7 g
+Cholesterol 0 mg
+Sodium 39.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cups-with-fresh-fruits-1897r</t>
+  </si>
+  <si>
+    <t>659</t>
+  </si>
+  <si>
+    <t>Apple Crumble ( Microwave Recipes)</t>
+  </si>
+  <si>
+    <t>3/4 cup plain flour (maida)
+a pinch salt
+6 tbsp butter
+3/4 cup brown sugar
+3 cups sliced apples (peeled)
+1/8 tsp cinnamon (dalchini) powder
+1/4 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>Method
+Sieve the flour and salt together into a bowl and rub in the butter until the mixture resembles fine bread crumbs.
+Add ¼ cup of sugar and mix well. Keep aside.
+Spread the apple slices evenly in a shallow dish, add the remaining ½ cup of sugar, cinnamon powder and lemon juice and mix well. Cover and microwave on high for 4 minutes.
+Top with the crumbled flour mixture and press very well and microwave on high for 6 minutes or until just set.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 357 cal
+Protein 2.4 g
+Carbohydrates 52.5 g
+Fiber 2.8 g
+Fat 15.2 g
+Cholesterol 45 mg
+Sodium 174.5 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-crumble--microwave-recipes-659r</t>
+  </si>
+  <si>
+    <t>39019</t>
+  </si>
+  <si>
+    <t>Apple Cucumber Juice</t>
+  </si>
+  <si>
+    <t>For Apple Cucumber Juice
+3 cups chilled and roughly chopped apple
+3 cups chilled and roughly chopped cucumber
+1/2 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>Method
+For apple cucumber juice
+To make apple cucumber juice, add the apples and cucumber a few at a time in a hopper.
+Add lemon juice to the juice and mix well.
+Pour equal quantities of the juice into 4 individual glasses.
+Serve the apple cucumber juice immediately.</t>
+  </si>
+  <si>
+    <t>Energy 64 cal
+Protein 0.6 g
+Carbohydrates 14.1 g
+Fiber 5.2 g
+Fat 0.5 g
+Cholesterol 0 mg
+Sodium 33.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-cucumber-juice-39019r</t>
+  </si>
+  <si>
+    <t>42200</t>
+  </si>
+  <si>
+    <t>Apple Jam with Cinnamon Recipe, Vegan and Gluten Free</t>
+  </si>
+  <si>
+    <t>2 cups chopped apples (unpeeled)
+1 cup sugar
+1 tsp lemon juice
+1 tsp cinnamon (dalchini) powder</t>
+  </si>
+  <si>
+    <t>22 mins</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients along with 2 cups of water in a broad non-stick pan, mix well and cook on a medium flame for 20 minutes, while stirring occasionally.
+Mash it lightly and cook on a medium flame for 2 minutes, while stirring occasionally.
+Cool completely and store in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Energy 63 cal
+Protein 0 g
+Carbohydrates 15.5 g
+Fiber 0.5 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 4.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-jam-with-cinnamon-recipe-vegan-and-gluten-free-42200r</t>
+  </si>
+  <si>
+    <t>6213</t>
+  </si>
+  <si>
+    <t>Apple Magic, Lemony Apple Juice</t>
+  </si>
+  <si>
+    <t>Juicer Method
+3 cups apple cubes
+2 tsp lemon juice
+crushed ice for serving , optional</t>
+  </si>
+  <si>
+    <t>Method
+Juicer method
+Add the apple cubes a few at a time in the juicer.
+Add the lemon juice and mix well.
+Add some crushed ice in 2 individual glasses and pour equal quantities of the juice over it.
+Serve the lemony apple juice immediately.
+Mixer method
+This recipe doesn’t turn out good in a mixer because the texture of ingredients like apple is very hard.
+Handy tip:
+This recipe makes use of unpeeled fruits and vegetables, hence take care to clean and wash them well before chopping, to get rid of dirt, germs and chemical residues.</t>
+  </si>
+  <si>
+    <t>Energy 108 cal
+Protein 0.4 g
+Carbohydrates 24.4 g
+Fiber 5.7 g
+Fat 1 g
+Cholesterol 0 mg
+Sodium 48.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-magic-lemony-apple-juice-6213r</t>
+  </si>
+  <si>
+    <t>40469</t>
+  </si>
+  <si>
+    <t>Apple Stew for Babies</t>
+  </si>
+  <si>
+    <t>For Apple Stew For Babies
+3/4 cup peeled and roughly chopped apple</t>
+  </si>
+  <si>
+    <t>Method
+For apple stew for babies
+To make apple stew for babies, combine the apples and ½ cup of water in a deep non-stick pan, mix well and cook on a medium flame for 8 minutes, while stirring occasionally.
+Cool slightly and blend in a mixer along with 2 tbsp of warm water till smooth.
+Serve the apple stew for babies immediately.</t>
+  </si>
+  <si>
+    <t>Energy 51 cal
+Protein 0.2 g
+Carbohydrates 11.7 g
+Fiber 2.8 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 24.4 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-stew-for-babies-40469r</t>
+  </si>
+  <si>
+    <t>4887</t>
+  </si>
+  <si>
+    <t>Apple Jam</t>
+  </si>
+  <si>
+    <t>1 1/2 cups peeled and grated apples
+2 tbsp sugar
+1 1/2 tsp lemon juice
+1/4 tsp cinnamon (dalchini) powder (optional)</t>
+  </si>
+  <si>
+    <t>Method
+Combine the apple and sugar in a microwave safe bowl and microwave on high for 2 minutes.
+Remove from the microwave and add the lemon juice and cinnamon powder. Mix well and microwave on high for another 2½ minutes.
+Cool and store refrigerated in an air-tight container. Use as required.</t>
+  </si>
+  <si>
+    <t>Energy 31 cal
+Protein 0.1 g
+Carbohydrates 7.3 g
+Fiber 0.6 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 5.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-jam-4887r</t>
+  </si>
+  <si>
+    <t>40319</t>
+  </si>
+  <si>
+    <t>Apple Sticks ( Tiffin Recipe)</t>
+  </si>
+  <si>
+    <t>1 cup apple sticks
+1/2 tsp lemon juice
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and mix well.
+How to pack
+Pack in an air-tight tiffin box.</t>
+  </si>
+  <si>
+    <t>Energy 70 cal
+Protein 0.3 g
+Carbohydrates 15.8 g
+Fiber 3.7 g
+Fat 0.6 g
+Cholesterol 0 mg
+Sodium 32 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-sticks--tiffin-recipe-40319r</t>
+  </si>
+  <si>
+    <t>3052</t>
+  </si>
+  <si>
+    <t>Apple water for babies | apple punch for babies | how to make apple water for babies |</t>
+  </si>
+  <si>
+    <t>For Apple Water For Babies
+1/2 cup peeled and grated apples</t>
+  </si>
+  <si>
+    <t>Method
+For apple water for babies
+To make apple water for babies , boil ¾ cup of water in a broad non-stick pan.
+Add the apples and mix well. Cover with a lid and keep aside for 10 minutes.
+Strain it using a strainer.
+Serve the apple water for babies lukewarm.
+Nutritive values for ¾ cup
+Since this is prepared by steeping apples in hot water, it contains mild, water-soluble nutrients that can be easily digested by your baby.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-water-for-babies-3052r</t>
+  </si>
+  <si>
+    <t>22612</t>
+  </si>
+  <si>
+    <t>apple tea recipe | Lebanese apple tea | apple cinnamon tea | hot apple tea |</t>
+  </si>
+  <si>
+    <t>For Apple Tea
+1 cup grated apples
+2 tbsp sugar
+1/2 tbsp lemon juice
+2 green tea bags
+2 small sticks cinnamon (dalchini)</t>
+  </si>
+  <si>
+    <t>Method
+For apple tea
+To make apple tea, heat 3 cups of water in a deep sauce pan, add the apples, sugar and lemon juice, mix well and cook on a medium flame for 6 minutes, while stirring occasionally.
+Add 2 green tea bags and cinnamon sticks, mix well and cover with a lid and keep aside for 15 minutes.
+Strain the apple tea and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 72 cal
+Protein 0.8 g
+Carbohydrates 16.5 g
+Fiber 1.1 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 9.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-tea-lebanese-apple-tea-22612r</t>
+  </si>
+  <si>
+    <t>783</t>
+  </si>
+  <si>
+    <t>Apple, Banana and Date Salad</t>
+  </si>
+  <si>
+    <t>2 cups apple cubes (unpeeled)
+1/2 cup sliced bananas
+1/4 cup chopped dates (khajur)
+To Be Mixed Into A Dressing
+1/4 cup readymade pineapple juice
+1/4 tsp lemon rind
+1/2 tsp lemon juice
+1/4 tsp mustard (rai / sarson) powder
+1 tsp powdered sugar
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients along with the prepared dressing in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 93 cal
+Protein 0.6 g
+Carbohydrates 21.6 g
+Fiber 4 g
+Fat 0.4 g
+Cholesterol 0 mg
+Sodium 39.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apple-banana-and-date-salad-783r</t>
+  </si>
+  <si>
+    <t>1310</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/Add_Photo.aspx?recipeid=1310</t>
+  </si>
+  <si>
+    <t>22804</t>
+  </si>
+  <si>
+    <t>arbi ki sabzi recipe | Punjabi arbi sabzi | sookhi arbi ki sabji | Ghuiya ki sabzi |</t>
+  </si>
+  <si>
+    <t>For Arbi ki Sabzi
+2 1/2 cups boiled and peeled colocasia (arbi) thick roundels
+1/2 cup thick beaten rice (jada poha)
+2 whole dry kashmiri red chillies , broken into pieces
+1/4 tsp asafoetida (hing)
+1/2 tsp turmeric powder (haldi)
+2 tbsp coconut oil or oil
+1 tsp mustard seeds ( rai / sarson)
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+For arbi ki sabzi
+To make arbi ki sabzi, you will need to wash and pressure cook the arbi for 2 whistles. Peel and cut into roundels.
+Combine the beaten rice, dry red chillies, asafoetida and turmeric powder in a mixer and blend to a smooth powder. Keep aside.
+Heat the coconut oil or oil in a broad non-stick pan and add the cumin seeds.
+When the seeds crackle, add the colocassia, salt and the ground powder, toss gently and cook on a medium flame for 5 to 7 minutes, while stirring occasionally.
+Serve the arbi ki sabzi hot.</t>
+  </si>
+  <si>
+    <t>Energy 246 cal
+Protein 4.4 g
+Carbohydrates 34.1 g
+Fiber 1.3 g
+Fat 10.2 g
+Cholesterol 0 mg
+Sodium 12.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/arbi-ki-sabzi-22804r</t>
+  </si>
+  <si>
+    <t>30906</t>
+  </si>
+  <si>
+    <t>Arhar ki Dal with Spinach, Punjabi Toovar Aur Palak ki Dal</t>
+  </si>
+  <si>
+    <t>1/2 cup finely chopped spinach (palak)
+1/4 cup toovar (arhar) dal
+1/4 tsp turmeric powder (haldi)
+2 tsp finely chopped green chillies
+salt to taste
+1 tsp oil
+1/2 tsp cumin seeds (jeera)
+3 cloves (laung / lavang)
+2 bayleaves
+a pinch of asafoetida (hing)
+For Serving
+roti
+rice</t>
+  </si>
+  <si>
+    <t>Method
+Clean, wash and soak the toovar dal for 1 hour.
+Drain, add the turmeric powder, green chillies, salt and ¾ cup of water in a pressure cooker, mix well and pressure cook for 3 whistles.
+Allow the steam to escape before opening the lid.
+Mash the dal lightly and keep aside.
+Heat the oil in a deep kadhai and add the cumin seeds.
+When the seeds crackle, add the cloves, bayleaves, asafoetida and sauté on a medium flame for a few seconds.
+Add the spinach, mix well and sauté on a medium flame for 1 minute.
+Add the prepared dal, ¼ cup of water, mix well and cook on a medium flame for 2 to 3 minutes, while stirring occasionally.
+Serve hot with roti or rice.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/arhar-ki-dal-with-spinach-punjabi-toovar-aur-palak-ki-dal-30906r</t>
+  </si>
+  <si>
+    <t>22594</t>
+  </si>
+  <si>
+    <t>Arabic Salad</t>
+  </si>
+  <si>
+    <t>1 cup iceberg lettuce, torn into pieces
+1/2 cup cherry tomatoes, halved
+1/2 cup cucumber cubes
+5 green olives
+5 black olives
+1/2 cup chopped mint leaves (phudina)
+To be mixed into a dressing
+2 tbsp lemon juice
+1/2 tsp Baharat
+1/4 tsp pomegranate (anardana) powder
+salt to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients, pour the dressing on top and serve immediately.</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/arabic-salad-22594r</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>Apricot Sauce, Used in Desserts</t>
+  </si>
+  <si>
+    <t>1 cup dried apricots (kummani / jardalu)
+1/4 cup sugar
+1 tsp lemon juice</t>
+  </si>
+  <si>
+    <t>Method
+Wash the apricots, add enough hot water and apricots in a deep bowl and soak for 1 hour. Drain.
+Deseed and roughly chop them.
+Combine the apricots, sugar and 1½ cups of water in a deep non-stick pan, mix well and cook on a medium flame for 5 minutes.
+Cool completely and blend in a mixer till smooth.
+Strain the mixture using a strainer.
+Add the lemon juice and mix well. Use as required.</t>
+  </si>
+  <si>
+    <t>Energy 37 cal
+Protein 0.1 g
+Carbohydrates 9 g
+Fiber 0.3 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/apricot-sauce-used-in-desserts-110r</t>
+  </si>
+  <si>
+    <t>34007</t>
+  </si>
+  <si>
+    <t>Arabic Salad ( Soups and Salads Recipe )</t>
+  </si>
+  <si>
+    <t>To Be Mixed Into A Dressing
+2 tbsp lemon juice
+1/2 tsp baharat powder
+1/4 tsp pomegranate seeds (anardana ) powder
+salt to taste
+Other Ingredients
+1 cup iceberg lettuce , torn into pieces
+1/2 cup cherry tomatoes , halved
+1/2 cup cucumber cubes
+5 green olives , halved
+5 black olives , halved
+1/2 cup chopped mint leaves (phudina)</t>
+  </si>
+  <si>
+    <t>Method
+Immerse the lettuce leaves in ice - cold water for 10 minutes and drain well. This will make them crisp.
+Combine all the ingredients in a bowl, pour the dressing on top and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 18 cal
+Protein 0.4 g
+Carbohydrates 2.3 g
+Fiber 1 g
+Fat 0.7 g
+Cholesterol 0 mg
+Vitamin A 63.2 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.1 mg
+Vitamin C 8 mg
+Folic Acid 6.6 mcg
+Calcium 19.7 mg
+Iron 0.7 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 1.7 mg
+Potassium 48.3 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/arabic-salad--soups-and-salads-recipe--34007r</t>
+  </si>
+  <si>
+    <t>33674</t>
+  </si>
+  <si>
+    <t>Arhar Aur Tamatar Ka Shorba, Healthy Diabetic Recipe</t>
+  </si>
+  <si>
+    <t>For The Masala
+1 tsp coriander (dhania) seeds
+2 whole dry kashmiri red chillies , broken into pieces
+3 to 4 peppercorns (kalimirch)
+1 tsp masoor (split red lentil) dal
+1/2 tsp chana dal (split bengal gram)
+a pinch cumin seeds (jeera)
+4 to 6 curry leaves (kadi patta)
+Other Ingredients
+2 tsp oil
+1/2 tsp cumin seeds (jeera)
+7 to 8 curry leaves (kadi patta)
+4 tomatoes , blanched and puréed
+1/4 cup cooked toovar (arhar) dal , whisked
+1/2 tsp chilli powder
+salt to taste
+1 tsp lemon juice
+1 tbsp chopped coriander (dhania)</t>
+  </si>
+  <si>
+    <t>Method
+For the masala
+Heat a small non-stick pan, add all the ingredients and dry roast on a medium flame for 3 to 4 minutes. Keep aside.
+When cool blend in a mixer to a fine powder. Keep aside.
+How to proceed
+Heat the oil in a deep non-stick pan and add the cumin seeds.
+When the seeds crackle, add the curry leaves, tomato purée, 2 cups of water, toovar dal, chilli powder, prepared masala and salt; mix well and bring to a boil.
+Add the lemon juice and mix well.
+Serve hot garnished with coriander.
+Disclaimer:
+It is highly recommended that this recipe be relished by diabetics only occasionally and in small quantities. This is just a mere ‘treat’ and does not qualify for a regular diabetic menu.</t>
+  </si>
+  <si>
+    <t>Energy 62 cal
+Protein 2.2 g
+Carbohydrates 7 g
+Fiber 2.1 g
+Fat 2.8 g
+Cholesterol 0 mg
+Sodium 12.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/arhar-aur-tamatar-ka-shorba-healthy-diabetic-recipe-33674r</t>
+  </si>
+  <si>
+    <t>41517</t>
+  </si>
+  <si>
+    <t>avocado and cherry tomato crostini recipe | tomato crostini with avocado | avocado tomato bruschetta | easy avocado bruschetta |</t>
+  </si>
+  <si>
+    <t>For Avocado and Cherry Tomato Crostini
+8 french bread slices
+32 cherry tomato halves
+olive oil for brushing
+sea salt (khada namak) for sprinkling
+2 tsp olive oil for drizzling
+To Be Mixed Into An Avocado Mixture
+1/2 cup mashed ripe avocado
+1 1/2 tsp lemon juice
+1/2 tsp sea salt (khada namak)
+freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+For avocado and cherry tomato crostini
+To make avocado and cherry tomato crostini, place the french bread slices on a greased baking tray and brush a little olive oil on each french bread slice.
+Bake in pre-heated oven at 200°c (400°f) for 15 minutes, or till they turn light brown in colour.
+Cool completely, apply a little avocado mixture on each toasted french bread slice.
+Put 4 cherry tomato halves, sprinkle a little sea salt and drizzle ¼ tsp olive oil on each toasted bread slice.
+Serve the avocado and cherry tomato crostini immediately.</t>
+  </si>
+  <si>
+    <t>Energy 78 cal
+Protein 1.8 g
+Carbohydrates 10.7 g
+Fiber 1.6 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 7.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-and-cherry-tomato-crostini-41517r</t>
+  </si>
+  <si>
+    <t>394</t>
+  </si>
+  <si>
+    <t>Assorted Pickle</t>
+  </si>
+  <si>
+    <t>For The Marinade
+3 cups water
+1/2 cup vinegar
+1/4 cup sugar
+10 to 12 black peppercorns (kalimirch)
+4 bayleaves (tejpatta)
+salt to taste
+Other Ingredients
+1 cup baby corn , cut diagonally
+1 cup carrot juliennes
+3/4 cup beetroot slices
+3/4 cup shallots (madras onions)</t>
+  </si>
+  <si>
+    <t>Method
+For the marinade
+Combine all the ingredients in a deep kadhai, mix well and cook on a medium flame for 5 to 6 minutes or till it starts boiling, while stirring occasionally. Keep aside.
+How to proceed
+Clean and wash all the vegetables and add to the prepared marinade, mix well and cook on a medium flame for 30 minutes or till the vegetables are slightly tender, while stirring occasionally.
+Allow it to cool completely. Store in an air-tight container and refrigerate and serve chilled.</t>
+  </si>
+  <si>
+    <t>Energy 91 cal
+Protein 0.7 g
+Carbohydrates 21.8 g
+Fiber 1.7 g
+Fat 0.1 g
+Cholesterol 0 mg
+Sodium 16.9 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/assorted-pickle-394r</t>
+  </si>
+  <si>
+    <t>8651</t>
+  </si>
+  <si>
+    <t>Avocado Dip, Avocado Jain Dip</t>
+  </si>
+  <si>
+    <t>1 cup mashed ripe avocado
+1 tsp lemon juice
+2 tbsp chopped tomatoes
+1/2 tsp chopped green chillies
+salt to taste
+For Serving
+corn chips</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a deep bowl and mix well.
+Serve with corn chips.</t>
+  </si>
+  <si>
+    <t>Energy 31 cal
+Protein 0.3 g
+Carbohydrates 0.3 g
+Fiber 0 g
+Fat 3.3 g
+Cholesterol 0 mg
+Sodium 0.2 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-dip-avocado-jain-dip-8651r</t>
+  </si>
+  <si>
+    <t>41364</t>
+  </si>
+  <si>
+    <t>Avocado and Tomato Salad, Healthy and Quick Salad</t>
+  </si>
+  <si>
+    <t>1 1/2 cups sliced avocados
+1 cup deseeded and sliced tomatoes
+To Be Mixed Into A Dressing
+1 tbsp olive oil
+1/2 tsp mustard (rai / sarson) powder
+1 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients along with the dressing in a deep bowl and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 269 cal
+Protein 2.1 g
+Carbohydrates 3.3 g
+Fiber 1.1 g
+Fat 27.5 g
+Cholesterol 0 mg
+Sodium 7.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-and-tomato-salad-healthy-and-quick-salad-41364r</t>
+  </si>
+  <si>
+    <t>41633</t>
+  </si>
+  <si>
+    <t>Avocado Kale and Mango Pulp Smoothie</t>
+  </si>
+  <si>
+    <t>1/2 cup riped avocado cubes
+1 1/2 cups roughly chopped kale
+1 cup mango pulp
+1/2 cup ice cubes</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients in a mixer along with ½ cup of chilled water and blend till smooth.
+Pour equal quantities of the smoothie into 3 individual glasses and serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 118 cal
+Protein 1.5 g
+Carbohydrates 14.6 g
+Fiber 0.9 g
+Fat 6.1 g
+Cholesterol 0 mg
+Sodium 27.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-kale-and-mango-pulp-smoothie-41633r</t>
+  </si>
+  <si>
+    <t>40811</t>
+  </si>
+  <si>
+    <t>avocado chocolate mousse recipe | dairy free avocado chocolate mousse | 3 ingredient eggless avocado chocolate mousse | Indian style avocado chocolate mousse</t>
+  </si>
+  <si>
+    <t>For Avocado Chocolate Mousse
+1 cup roughly chopped dark chocolate
+3/4 cup roughly chopped riped avocado
+For The Garnish
+white chocolate curls</t>
+  </si>
+  <si>
+    <t>Method
+For avocado chocolate mousse
+To make avocado chocolate mousse, blend the avocado in a mixer till smooth. Keep aside.
+Combine the chocolate in a microwave safe bowl and microwave on high for 1 minute. Mix well.
+Combine the avocado mixture and ¼ cup of melted chocolate in a bowl and mix well using a spatula.
+Add the remaining chocolate and mix very well using a spatula.
+Pour equal quantities of the mixture into 2 individual bowls / glasses and refrigerate for 1 hour or till the mousse sets.
+Garnish with chocolate curls.
+Serve the avocado chocolate mousse chilled.</t>
+  </si>
+  <si>
+    <t>Energy 492 cal
+Protein 8.8 g
+Carbohydrates 24.1 g
+Fiber 0 g
+Fat 52.4 g
+Cholesterol 0 mg
+Sodium 2.6 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-chocolate-mousse-40811r</t>
+  </si>
+  <si>
+    <t>761</t>
+  </si>
+  <si>
+    <t>Avocado Grapefruit and Strawberry Salad</t>
+  </si>
+  <si>
+    <t>1 cup avocado cubes
+1 cup grapefruit segments
+1 cup sliced strawberries
+To Be Mixed Into A Dressing
+1 tbsp honey
+salt and freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+Combine all the ingredients for the salad in a bowl and mix well. Refrigerate for 30 minutes.
+Just before serving, pour the dressing and toss well.
+Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 169 cal
+Protein 1.6 g
+Carbohydrates 15.1 g
+Fiber 1.9 g
+Fat 11.5 g
+Cholesterol 0 mg
+Sodium 0.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-grapefruit-and-strawberry-salad-761r</t>
+  </si>
+  <si>
+    <t>41519</t>
+  </si>
+  <si>
+    <t>Avocado and Coconut Crostini</t>
+  </si>
+  <si>
+    <t>32 avocado slices
+1 tsp coconut oil for brushing
+8 french bread slices
+2 tsp lemon juice
+dry red chilli flakes (paprika) for sprinkling
+sea salt for sprinkling
+For The Garnish
+8 tsp freshly grated coconut</t>
+  </si>
+  <si>
+    <t>Method
+Place the french bread slices on a greased baking tray and apply a little coconut oil on each bread slice.
+Bake in pre-heated oven at 200°c(400°f) for 15 minutes, or till they turn light brown.
+Cool completely and arrange 4 avocado slices on each toasted bread slice.
+Put ¼ tsp lemon juice, a little chilli flakes and sea salt on each toast.
+Serve immediately garnished with 1 tsp of coconut on each toasts.</t>
+  </si>
+  <si>
+    <t>Energy 106 cal
+Protein 1.7 g
+Carbohydrates 8.4 g
+Fiber 0.1 g
+Fat 7.4 g
+Cholesterol 0 mg
+Vitamin A 8.3 mcg
+Vitamin B1 0 mg
+Vitamin B2 0 mg
+Vitamin B3 0.8 mg
+Vitamin C 1 mg
+Folic Acid 0 mcg
+Calcium 7.1 mg
+Iron 0.5 mg
+Magnesium 0 mg
+Phosphorus 0 mg
+Sodium 1 mg
+Potassium 20.5 mg
+Zinc 0.1 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-and-coconut-crostini-41519r</t>
+  </si>
+  <si>
+    <t>41594</t>
+  </si>
+  <si>
+    <t>Indian avocado spinach pear smoothie recipe | healthy pear smoothie with avocado and spinach | pear avocado spinach smoothie</t>
+  </si>
+  <si>
+    <t>For Avocado Spinach Pear Smoothie
+1 cup roughly chopped riped avocado
+1 1/2 cups roughly chopped spinach (palak)
+1 cup roughly chopped pears
+1 cup roughly chopped apples</t>
+  </si>
+  <si>
+    <t>Method
+For avocado spinach pear smoothie
+Combine all the ingredients in a mixer along with 1 cup of chilled water and blend till smooth.
+Pour equal quantities of the smoothie into 3 indivdual glasses and serve the avocado spinach pear smoothie immediately.</t>
+  </si>
+  <si>
+    <t>Energy 168 cal
+Protein 1.9 g
+Carbohydrates 13.3 g
+Fiber 4.5 g
+Fat 11.9 g
+Cholesterol 0 mg
+Sodium 34.3 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-spinach-pear-smoothie-healthy-smoothie-41594r</t>
+  </si>
+  <si>
+    <t>40470</t>
+  </si>
+  <si>
+    <t>Avocado Mash ( Baby and Toddler)</t>
+  </si>
+  <si>
+    <t>For Avocado Mash
+1/2 cup peeled and chopped ripe avocado</t>
+  </si>
+  <si>
+    <t>Method
+For avocado mash
+To make avocado mash for babies, place the avocado in a deep bowl and mash it completely with the help of a fork.
+Serve the avocado mash for babies immediately.</t>
+  </si>
+  <si>
+    <t>Energy 23 cal
+Protein 0.2 g
+Carbohydrates 0.1 g
+Fiber 0 g
+Fat 2.4 g
+Cholesterol 0 mg
+Sodium 0 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-mash--baby-and-toddler-40470r</t>
+  </si>
+  <si>
+    <t>42254</t>
+  </si>
+  <si>
+    <t>avocado vegetable Indian dinner salad recipe | healthy avocado broccoli salad | avocado capsicum salad with flaxseeds |</t>
+  </si>
+  <si>
+    <t>avocado vegetable Indian dinner salad recipe</t>
+  </si>
+  <si>
+    <t>For Avocado Vegetable Salad
+1/4 cup avocado cubes
+1/2 cup blanched broccoli florets
+1/2 cup colored capsicum cubes
+1/4 cup tomato cubes
+1/4 cup cucumber cubes
+1/2 cup iceberg lettuce , torn into pieces
+2 tsp roasted flaxseeds (alsi)
+To Be Mixed Into A Dressing
+1 tbsp olive oil
+1/2 tsp dried mixed herbs
+2 tsp lemon juice
+salt and to taste</t>
+  </si>
+  <si>
+    <t>Method
+For avocado vegetable salad
+To make avocado vegetable salad, combine all the ingredients for the salad in a bowl. It can be taken to work in a lunch box with the dressing in a separate small container.
+Just before serving, add the dressing and toss well. Serve immediately.</t>
+  </si>
+  <si>
+    <t>Energy 302 cal
+Protein 4.9 g
+Carbohydrates 11.2 g
+Fiber 5.4 g
+Fat 26.9 g
+Cholesterol 0 mg
+Sodium 37 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-vegetable-salad-avocado-capsicum-salad-42254r</t>
+  </si>
+  <si>
+    <t>5613</t>
+  </si>
+  <si>
+    <t>Avocado Salad ( Recipe for Shiny Hair)</t>
+  </si>
+  <si>
+    <t>healthy avocado salad for lunch</t>
+  </si>
+  <si>
+    <t>For Avocado Salad
+1 cup roughly chopped avocado
+1/2 cup sliced capsicum
+1/2 cup tomato strips , deseeded
+1 cup sliced and blanched baby corn
+1/2 cup cucumber strips
+To Be Mixed Into A Dressing
+2 tsp honey
+3/4 tbsp lemon juice
+2 tsp finely chopped mint leaves (phudina)
+salt and freshly ground black pepper (kalimirch) to taste</t>
+  </si>
+  <si>
+    <t>Method
+For avocado salad
+Combine the all the ingredients in a deep bowl and mix well.
+Add the dressing and toss well.
+Serve the avocado salad immediately.</t>
+  </si>
+  <si>
+    <t>Energy 95 cal
+Protein 1.6 g
+Carbohydrates 13.3 g
+Fiber 1.5 g
+Fat 4.5 g
+Cholesterol 0 mg
+Sodium 4.7 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-salad--recipe-for-shiny-hair-5613r</t>
+  </si>
+  <si>
+    <t>373</t>
+  </si>
+  <si>
+    <t>Indian style avocado salad recipe | cucumber tomato avocado salad | healthy avocado salad | how to make tasty avocado salad |</t>
+  </si>
+  <si>
+    <t>Energy 140 cal
+Protein 2.2 g
+Carbohydrates 19.7 g
+Fiber 2 g
+Fat 6.8 g
+Cholesterol 0 mg
+Sodium 6.8 mg</t>
+  </si>
+  <si>
+    <t>https://www.tarladalal.com/avocado-salad-373r</t>
   </si>
 </sst>
 </file>
@@ -123,7 +4699,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -136,6 +4712,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -418,10 +5000,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:K123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD232"/>
+      <selection activeCell="G28" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -470,6 +5052,3139 @@
       </c>
       <c r="K1" s="1"/>
     </row>
+    <row r="2" spans="1:11" ht="246.5">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="290">
+      <c r="A3" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="275.5">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="232">
+      <c r="A5" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="409.5">
+      <c r="A6" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="130.5">
+      <c r="A7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="290">
+      <c r="A8" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="232">
+      <c r="A9" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="145">
+      <c r="A10" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="275.5">
+      <c r="A11" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="333.5">
+      <c r="A12" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="101.5">
+      <c r="A13" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="377">
+      <c r="A14" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="116">
+      <c r="A15" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="246.5">
+      <c r="A16" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="290">
+      <c r="A17" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="116">
+      <c r="A18" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="203">
+      <c r="A19" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="174">
+      <c r="A20" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="174">
+      <c r="A21" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="217.5">
+      <c r="A22" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="232">
+      <c r="A23" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="174">
+      <c r="A24" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="217.5">
+      <c r="A25" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="203">
+      <c r="A26" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="188.5">
+      <c r="A27" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="246.5">
+      <c r="A28" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="145">
+      <c r="A29" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="409.5">
+      <c r="A30" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="217.5">
+      <c r="A31" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="246.5">
+      <c r="A32" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="377">
+      <c r="A33" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="H33" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="I33" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="217.5">
+      <c r="A34" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="275.5">
+      <c r="A35" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="232">
+      <c r="A36" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="304.5">
+      <c r="A37" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H37" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="261">
+      <c r="A38" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="261">
+      <c r="A39" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H39" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="I39" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="246.5">
+      <c r="A40" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" s="5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="261">
+      <c r="A41" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="319">
+      <c r="A42" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="319">
+      <c r="A43" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="116">
+      <c r="A44" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H44" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="275.5">
+      <c r="A45" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H45" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="I45" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="188.5">
+      <c r="A46" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H46" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="I46" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="348">
+      <c r="A47" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="246.5">
+      <c r="A48" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="I48" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="159.5">
+      <c r="A49" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H49" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="I49" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="188.5">
+      <c r="A50" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="275.5">
+      <c r="A51" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H51" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="J51" s="5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="188.5">
+      <c r="A52" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G52" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H52" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="188.5">
+      <c r="A53" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="275.5">
+      <c r="A54" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G54" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="377">
+      <c r="A55" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="C55" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="232">
+      <c r="A56" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="101.5">
+      <c r="A57" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="130.5">
+      <c r="A58" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="203">
+      <c r="A59" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="101.5">
+      <c r="A60" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="333.5">
+      <c r="A61" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="145">
+      <c r="A62" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="217.5">
+      <c r="A63" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="261">
+      <c r="A64" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G64" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="304.5">
+      <c r="A65" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G65" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="246.5">
+      <c r="A66" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="130.5">
+      <c r="A67" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="304.5">
+      <c r="A68" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="290">
+      <c r="A69" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F69" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="246.5">
+      <c r="A70" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="261">
+      <c r="A71" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G71" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="145">
+      <c r="A72" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="246.5">
+      <c r="A73" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="130.5">
+      <c r="A74" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G74" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="188.5">
+      <c r="A75" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G75" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="159.5">
+      <c r="A76" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G76" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="290">
+      <c r="A77" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>477</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="F77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="101.5">
+      <c r="A78" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="D78" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="F78" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G78" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="116">
+      <c r="A79" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>488</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G79" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="130.5">
+      <c r="A80" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="D80" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G80" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="232">
+      <c r="A81" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>501</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G81" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="H81" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="I81" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="J81" s="5" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="130.5">
+      <c r="A82" s="6" t="s">
+        <v>505</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>506</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G82" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H82" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="I82" s="5" t="s">
+        <v>509</v>
+      </c>
+      <c r="J82" s="5" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="188.5">
+      <c r="A83" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G83" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" s="5" t="s">
+        <v>514</v>
+      </c>
+      <c r="I83" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="J83" s="5" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="304.5">
+      <c r="A84" s="6" t="s">
+        <v>517</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>518</v>
+      </c>
+      <c r="D84" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G84" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H84" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="I84" s="5" t="s">
+        <v>521</v>
+      </c>
+      <c r="J84" s="5" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="217.5">
+      <c r="A85" s="6" t="s">
+        <v>523</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>526</v>
+      </c>
+      <c r="G85" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="H85" s="5" t="s">
+        <v>528</v>
+      </c>
+      <c r="I85" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="J85" s="5" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="101.5">
+      <c r="A86" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>533</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H86" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="J86" s="5" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="203">
+      <c r="A87" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="D87" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G87" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" s="5" t="s">
+        <v>539</v>
+      </c>
+      <c r="I87" s="5" t="s">
+        <v>540</v>
+      </c>
+      <c r="J87" s="5" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="203">
+      <c r="A88" s="6" t="s">
+        <v>542</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>543</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>544</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H88" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="I88" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="J88" s="5" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="87">
+      <c r="A89" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G89" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="J89" s="5" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="87">
+      <c r="A90" s="6" t="s">
+        <v>553</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G90" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="J90" s="5" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="246.5">
+      <c r="A91" s="6" t="s">
+        <v>558</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G91" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H91" s="5" t="s">
+        <v>561</v>
+      </c>
+      <c r="I91" s="5" t="s">
+        <v>562</v>
+      </c>
+      <c r="J91" s="5" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="101.5">
+      <c r="A92" s="6" t="s">
+        <v>564</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>565</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>566</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G92" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H92" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="I92" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="J92" s="5" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="174">
+      <c r="A93" s="6" t="s">
+        <v>570</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>571</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G93" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="I93" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="J93" s="5" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="145">
+      <c r="A94" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G94" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H94" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="I94" s="5" t="s">
+        <v>580</v>
+      </c>
+      <c r="J94" s="5" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="116">
+      <c r="A95" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>584</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G95" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" s="5" t="s">
+        <v>585</v>
+      </c>
+      <c r="I95" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="J95" s="5" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="101.5">
+      <c r="A96" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>589</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F96" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="H96" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="I96" s="5" t="s">
+        <v>593</v>
+      </c>
+      <c r="J96" s="5" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="246.5">
+      <c r="A97" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="C97" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>597</v>
+      </c>
+      <c r="F97" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G97" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" s="5" t="s">
+        <v>598</v>
+      </c>
+      <c r="I97" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="J97" s="5" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="130.5">
+      <c r="A98" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>602</v>
+      </c>
+      <c r="E98" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G98" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H98" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="I98" s="5" t="s">
+        <v>605</v>
+      </c>
+      <c r="J98" s="5" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="101.5">
+      <c r="A99" s="6" t="s">
+        <v>607</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="E99" s="5" t="s">
+        <v>609</v>
+      </c>
+      <c r="F99" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G99" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="I99" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="J99" s="5" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="101.5">
+      <c r="A100" s="6" t="s">
+        <v>613</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>614</v>
+      </c>
+      <c r="E100" s="5" t="s">
+        <v>615</v>
+      </c>
+      <c r="F100" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G100" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H100" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="I100" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="J100" s="5" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="188.5">
+      <c r="A101" s="6" t="s">
+        <v>619</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>620</v>
+      </c>
+      <c r="E101" s="5" t="s">
+        <v>621</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="G101" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H101" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="J101" s="5" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="130.5">
+      <c r="A102" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G102" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H102" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="I102" s="5" t="s">
+        <v>628</v>
+      </c>
+      <c r="J102" s="5" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="188.5">
+      <c r="A103" s="6" t="s">
+        <v>630</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="E103" s="5" t="s">
+        <v>632</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H103" s="5" t="s">
+        <v>633</v>
+      </c>
+      <c r="I103" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="J103" s="5" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="43.5">
+      <c r="A104" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="J104" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="188.5">
+      <c r="A105" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E105" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G105" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="H105" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="I105" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="J105" s="5" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="232">
+      <c r="A106" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="B106" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="E106" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G106" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="J106" s="5" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" ht="217.5">
+      <c r="A107" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="E107" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H107" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="J107" s="5" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" ht="130.5">
+      <c r="A108" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="E108" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="G108" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H108" s="5" t="s">
+        <v>657</v>
+      </c>
+      <c r="I108" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="J108" s="5" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" ht="275.5">
+      <c r="A109" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E109" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G109" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="I109" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="J109" s="5" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" ht="348">
+      <c r="A110" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>667</v>
+      </c>
+      <c r="E110" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G110" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="I110" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="J110" s="5" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" ht="232">
+      <c r="A111" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="E111" s="5" t="s">
+        <v>674</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H111" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="I111" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="J111" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" ht="217.5">
+      <c r="A112" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="B112" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="E112" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H112" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="I112" s="5" t="s">
+        <v>682</v>
+      </c>
+      <c r="J112" s="5" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="116">
+      <c r="A113" s="6" t="s">
+        <v>684</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="E113" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G113" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H113" s="5" t="s">
+        <v>687</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="145">
+      <c r="A114" s="6" t="s">
+        <v>690</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>691</v>
+      </c>
+      <c r="E114" s="5" t="s">
+        <v>692</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G114" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H114" s="5" t="s">
+        <v>693</v>
+      </c>
+      <c r="I114" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="J114" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="101.5">
+      <c r="A115" s="6" t="s">
+        <v>696</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="E115" s="5" t="s">
+        <v>698</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G115" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H115" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="I115" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="J115" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" ht="203">
+      <c r="A116" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>704</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G116" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H116" s="5" t="s">
+        <v>705</v>
+      </c>
+      <c r="I116" s="5" t="s">
+        <v>706</v>
+      </c>
+      <c r="J116" s="5" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="116">
+      <c r="A117" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E117" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G117" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H117" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="I117" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="J117" s="5" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" ht="275.5">
+      <c r="A118" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>715</v>
+      </c>
+      <c r="E118" s="5" t="s">
+        <v>716</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G118" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="I118" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="J118" s="5" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" ht="130.5">
+      <c r="A119" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>721</v>
+      </c>
+      <c r="E119" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G119" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H119" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="I119" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="J119" s="5" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" ht="101.5">
+      <c r="A120" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>727</v>
+      </c>
+      <c r="E120" s="5" t="s">
+        <v>728</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G120" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H120" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="I120" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="J120" s="5" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" ht="232">
+      <c r="A121" s="6" t="s">
+        <v>732</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="C121" s="6" t="s">
+        <v>734</v>
+      </c>
+      <c r="E121" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G121" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" s="5" t="s">
+        <v>736</v>
+      </c>
+      <c r="I121" s="5" t="s">
+        <v>737</v>
+      </c>
+      <c r="J121" s="5" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" ht="232">
+      <c r="A122" s="6" t="s">
+        <v>739</v>
+      </c>
+      <c r="B122" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="C122" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="E122" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G122" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H122" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I122" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="J122" s="5" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" ht="232">
+      <c r="A123" s="6" t="s">
+        <v>746</v>
+      </c>
+      <c r="B123" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="E123" s="5" t="s">
+        <v>742</v>
+      </c>
+      <c r="F123" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G123" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" s="5" t="s">
+        <v>743</v>
+      </c>
+      <c r="I123" s="5" t="s">
+        <v>748</v>
+      </c>
+      <c r="J123" s="5" t="s">
+        <v>749</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/test/resources/outPutData.xlsx
+++ b/src/test/resources/outPutData.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ayesh\IdeaProjects\Data_Scraping_Framework_Demo1\src\test\resources\"/>
     </mc:Choice>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="973" uniqueCount="750">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1196" uniqueCount="750">
   <si>
     <t>Recipe Name</t>
   </si>
@@ -4637,6 +4637,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -5008,15 +5009,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="18.81640625" style="4" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.453125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.26953125" style="4" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="14.26953125" style="4" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="8.7265625" style="4" collapsed="1"/>
-    <col min="8" max="8" width="65.08984375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.453125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24.54296875" style="3" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="4" width="18.81640625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="17.453125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="4" width="17.26953125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="4" width="14.26953125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="28.0" collapsed="true"/>
+    <col min="6" max="7" style="4" width="8.7265625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="65.08984375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="23.453125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="24.54296875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="50">
@@ -5053,311 +5054,311 @@
       <c r="K1" s="1"/>
     </row>
     <row r="2" spans="1:11" ht="246.5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="290">
-      <c r="A3" s="6" t="s">
+      <c r="A3" t="s">
         <v>119</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" t="s">
         <v>122</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="275.5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="5" t="s">
+      <c r="I4" t="s">
         <v>23</v>
       </c>
-      <c r="J4" s="5" t="s">
+      <c r="J4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="232">
-      <c r="A5" s="6" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" t="s">
         <v>27</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" t="s">
         <v>13</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" t="s">
         <v>28</v>
       </c>
-      <c r="J5" s="5" t="s">
+      <c r="J5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="409.5">
-      <c r="A6" s="6" t="s">
+      <c r="A6" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" t="s">
         <v>125</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" t="s">
         <v>30</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" t="s">
         <v>31</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" t="s">
         <v>32</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="130.5">
-      <c r="A7" s="6" t="s">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" t="s">
         <v>35</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" t="s">
         <v>38</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="H7" t="s">
         <v>39</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" t="s">
         <v>40</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="J7" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="290">
-      <c r="A8" s="6" t="s">
+      <c r="A8" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" t="s">
         <v>44</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" t="s">
         <v>45</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="I8" t="s">
         <v>47</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J8" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="232">
-      <c r="A9" s="6" t="s">
+      <c r="A9" t="s">
         <v>49</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="E9" t="s">
         <v>126</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" t="s">
         <v>76</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" t="s">
         <v>127</v>
       </c>
-      <c r="I9" s="5" t="s">
+      <c r="I9" t="s">
         <v>128</v>
       </c>
-      <c r="J9" s="5" t="s">
+      <c r="J9" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="145">
-      <c r="A10" s="6" t="s">
+      <c r="A10" t="s">
         <v>130</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" t="s">
         <v>131</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" t="s">
         <v>132</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" t="s">
         <v>133</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" t="s">
         <v>134</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="I10" t="s">
         <v>135</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="J10" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="275.5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" t="s">
         <v>139</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" t="s">
         <v>76</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" t="s">
         <v>140</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" t="s">
         <v>141</v>
       </c>
-      <c r="J11" s="5" t="s">
+      <c r="J11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="333.5">
-      <c r="A12" s="6" t="s">
+      <c r="A12" t="s">
         <v>143</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" t="s">
         <v>144</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" t="s">
         <v>145</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="E12" t="s">
         <v>146</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" t="s">
         <v>21</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" t="s">
         <v>147</v>
       </c>
-      <c r="I12" s="5" t="s">
+      <c r="I12" t="s">
         <v>148</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="J12" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="101.5">
-      <c r="A13" s="6" t="s">
+      <c r="A13" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" t="s">
         <v>151</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" t="s">
         <v>51</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" t="s">
         <v>21</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" t="s">
         <v>52</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" t="s">
         <v>53</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="J13" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5391,380 +5392,380 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="116">
-      <c r="A15" s="6" t="s">
+      <c r="A15" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" t="s">
         <v>56</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" t="s">
         <v>57</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" t="s">
         <v>59</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="s">
         <v>60</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="J15" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="246.5">
-      <c r="A16" s="6" t="s">
+      <c r="A16" t="s">
         <v>62</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" t="s">
         <v>31</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="H16" t="s">
         <v>65</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="s">
         <v>66</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="J16" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="290">
-      <c r="A17" s="6" t="s">
+      <c r="A17" t="s">
         <v>68</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" t="s">
         <v>69</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" t="s">
         <v>19</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="E17" t="s">
         <v>70</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" t="s">
         <v>14</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="H17" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="J17" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="116">
-      <c r="A18" s="6" t="s">
+      <c r="A18" t="s">
         <v>73</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" t="s">
         <v>74</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" t="s">
         <v>75</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" t="s">
         <v>76</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" t="s">
         <v>14</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="H18" t="s">
         <v>77</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="s">
         <v>78</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="J18" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="203">
-      <c r="A19" s="6" t="s">
+      <c r="A19" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" t="s">
         <v>81</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" t="s">
         <v>82</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" t="s">
         <v>83</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="H19" t="s">
         <v>84</v>
       </c>
-      <c r="I19" s="5" t="s">
+      <c r="I19" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J19" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="174">
-      <c r="A20" s="6" t="s">
+      <c r="A20" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" t="s">
         <v>88</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" t="s">
         <v>76</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" t="s">
         <v>91</v>
       </c>
-      <c r="I20" s="5" t="s">
+      <c r="I20" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J20" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="174">
-      <c r="A21" s="6" t="s">
+      <c r="A21" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" t="s">
         <v>96</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" t="s">
         <v>14</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="H21" t="s">
         <v>97</v>
       </c>
-      <c r="I21" s="5" t="s">
+      <c r="I21" t="s">
         <v>98</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="J21" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="217.5">
-      <c r="A22" s="6" t="s">
+      <c r="A22" t="s">
         <v>100</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" t="s">
         <v>21</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" t="s">
         <v>14</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" t="s">
         <v>104</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="J22" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="232">
-      <c r="A23" s="6" t="s">
+      <c r="A23" t="s">
         <v>106</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F23" t="s">
         <v>90</v>
       </c>
-      <c r="G23" s="6" t="s">
+      <c r="G23" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="H23" t="s">
         <v>110</v>
       </c>
-      <c r="I23" s="5" t="s">
+      <c r="I23" t="s">
         <v>111</v>
       </c>
-      <c r="J23" s="5" t="s">
+      <c r="J23" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="174">
-      <c r="A24" s="6" t="s">
+      <c r="A24" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" t="s">
         <v>114</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>115</v>
       </c>
-      <c r="F24" s="6" t="s">
+      <c r="F24" t="s">
         <v>21</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" t="s">
         <v>116</v>
       </c>
-      <c r="I24" s="5" t="s">
+      <c r="I24" t="s">
         <v>117</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="J24" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="217.5">
-      <c r="A25" s="6" t="s">
+      <c r="A25" t="s">
         <v>159</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" t="s">
         <v>160</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F25" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" t="s">
         <v>21</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="H25" t="s">
         <v>162</v>
       </c>
-      <c r="I25" s="5" t="s">
+      <c r="I25" t="s">
         <v>163</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="J25" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="203">
-      <c r="A26" s="6" t="s">
+      <c r="A26" t="s">
         <v>165</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" t="s">
         <v>167</v>
       </c>
-      <c r="F26" s="6" t="s">
+      <c r="F26" t="s">
         <v>21</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" t="s">
         <v>133</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="H26" t="s">
         <v>168</v>
       </c>
-      <c r="I26" s="5" t="s">
+      <c r="I26" t="s">
         <v>169</v>
       </c>
-      <c r="J26" s="5" t="s">
+      <c r="J26" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="188.5">
-      <c r="A27" s="6" t="s">
+      <c r="A27" t="s">
         <v>171</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" t="s">
         <v>172</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>173</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="H27" t="s">
         <v>174</v>
       </c>
-      <c r="J27" s="5" t="s">
+      <c r="J27" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="246.5">
-      <c r="A28" s="6" t="s">
+      <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" t="s">
         <v>177</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>178</v>
       </c>
-      <c r="F28" s="6" t="s">
+      <c r="F28" t="s">
         <v>21</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" t="s">
         <v>90</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="H28" t="s">
         <v>179</v>
       </c>
-      <c r="I28" s="5" t="s">
+      <c r="I28" t="s">
         <v>180</v>
       </c>
-      <c r="J28" s="5" t="s">
+      <c r="J28" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="145">
-      <c r="A29" s="6" t="s">
+      <c r="A29" t="s">
         <v>182</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" t="s">
         <v>183</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>184</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" t="s">
         <v>58</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" t="s">
         <v>185</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" t="s">
         <v>186</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J29" t="s">
         <v>187</v>
       </c>
     </row>
